--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F64AC9-FF4F-45EB-82FF-6A36C467075A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF2FB4-DAF9-46B4-813D-C4CEA741530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16B4E7DC-46AA-4E57-A991-CCC6FC5C72CE}"/>
+    <workbookView xWindow="3390" yWindow="2730" windowWidth="21600" windowHeight="15210" xr2:uid="{16B4E7DC-46AA-4E57-A991-CCC6FC5C72CE}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -1017,10 +1017,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>다음충진일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>충진주기(개월)</t>
-  </si>
-  <si>
-    <t>다음충진일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,9 +1162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1506,7 +1504,7 @@
   <dimension ref="A1:S259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,15 +1531,15 @@
         <v>310</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="8"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1553,7 +1551,7 @@
       <c r="C2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>45742</v>
       </c>
       <c r="F2">

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF2FB4-DAF9-46B4-813D-C4CEA741530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6559D8-A033-4ED1-B8E3-0AB102FB7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="2730" windowWidth="21600" windowHeight="15210" xr2:uid="{16B4E7DC-46AA-4E57-A991-CCC6FC5C72CE}"/>
+    <workbookView xWindow="3390" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{16B4E7DC-46AA-4E57-A991-CCC6FC5C72CE}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="312">
   <si>
     <t>지역</t>
   </si>
@@ -1007,10 +1007,6 @@
       </rPr>
       <t>②</t>
     </r>
-  </si>
-  <si>
-    <t>현수네</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>충진일</t>
@@ -1501,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E517F6B-4CEE-41A7-A138-3222E2287F2A}">
-  <dimension ref="A1:S259"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1517,7 +1513,7 @@
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,25 +1524,25 @@
         <v>277</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>309</v>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>278</v>
@@ -1557,154 +1553,151 @@
       <c r="F2">
         <v>6</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="5">
         <v>400</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="4">
         <v>500</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" s="5">
         <v>600</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" s="4">
         <v>400</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="5">
         <v>400</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="4">
         <v>400</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" s="5">
         <v>500</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="4">
         <v>400</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B15" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" s="5">
         <v>600</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6559D8-A033-4ED1-B8E3-0AB102FB7F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A97BE0-CE7C-4C96-A363-7915C87D294A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{16B4E7DC-46AA-4E57-A991-CCC6FC5C72CE}"/>
   </bookViews>
@@ -1500,13 +1500,13 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
@@ -1515,10 +1515,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>277</v>
@@ -1538,11 +1538,11 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>278</v>
@@ -1555,2823 +1555,2823 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C5" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C6" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C13" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C14" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C15" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="C16" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C22" s="6">
         <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C27" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C28" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C29" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C35" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="C42" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C44" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="C45" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C46" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C47" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C48" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="C50" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="C52" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="C53" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="C55" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="C56" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C58" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>102</v>
-      </c>
       <c r="C61" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="C67" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="C71" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="C75" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C78" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="C80" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="C81" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="C87" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="C88" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="C92" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C93" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C94" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="C95" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="C96" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="C97" s="7">
         <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="C98" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="C99" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="C100" s="4">
         <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="C101" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="C102" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="C106" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="C113" s="7">
         <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="C118" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C120" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>161</v>
-      </c>
       <c r="C123" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="C135" s="7">
         <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C140" s="4">
         <v>700</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="C143" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="C145" s="7">
         <v>700</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="C146" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C152" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="C155" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="C156" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B157" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B161" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="C161" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="C167" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="C168" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="C174" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B181" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="C181" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="C182" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B183" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="C183" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B184" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="C184" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B185" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="C185" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="C188" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="C189" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="C191" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B192" s="4" t="s">
-        <v>222</v>
-      </c>
       <c r="C192" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="C193" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="C198" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="C199" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="C201" s="7">
         <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C202" s="6">
         <v>600</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="C210" s="4">
         <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="C212" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="C225" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="C229" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="C230" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="C233" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="C234" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="C235" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C235" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
+      <c r="B236" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B237" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="C237" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C240" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="C243" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B249" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B254" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B256" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B257" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B258" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B259" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>283</v>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33831FF-14D1-4BFB-B79F-F568F0F2B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD39090-93A9-4AE1-89FC-F4FEF90B3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -1503,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C259"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4387,7 +4387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD39090-93A9-4AE1-89FC-F4FEF90B3745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23126F1E-9F97-4442-A85E-1CE00E395FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="313">
   <si>
     <t>고객사</t>
   </si>
@@ -960,9 +960,6 @@
   </si>
   <si>
     <t>충진기록</t>
-  </si>
-  <si>
-    <t>2025-03-27</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
@@ -4385,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IY5"/>
+  <dimension ref="A1:IY4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6735,11 +6732,6 @@
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.3">
-      <c r="BT5" t="s">
-        <v>313</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23126F1E-9F97-4442-A85E-1CE00E395FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="일정" sheetId="1" r:id="rId1"/>
-    <sheet name="기록" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="일정" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="기록" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -965,30 +959,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="129"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <charset val="129"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1000,19 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,12 +1022,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border>
@@ -1107,17 +1097,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,7 +1114,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1136,10 +1126,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,22 +1144,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1497,5243 +1483,5240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="8">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C44" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C58" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="5" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C87" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+      <c r="C87" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C88" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="C88" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="5">
+      <c r="B93" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C94" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="5">
+      <c r="B95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C96" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="7" t="s">
+      <c r="C96" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="5" t="s">
         <v>144</v>
       </c>
       <c r="C98" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C100" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C102" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="C106" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="5" t="s">
+      <c r="B115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C118" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C120" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="7" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="9"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="7">
+      <c r="B135" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C135" s="9">
         <v>850</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="7" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C140" s="4">
         <v>700</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C141" s="5" t="s">
+      <c r="B141" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C143" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C143" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C145" s="7">
+      <c r="C145" s="9">
         <v>700</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C151" s="5" t="s">
+      <c r="B151" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C152" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C156" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C161" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C163" s="5" t="s">
+      <c r="B163" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C167" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C168" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C173" s="5" t="s">
+      <c r="B173" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C181" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C182" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C183" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C184" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C185" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C187" s="5" t="s">
+      <c r="B187" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C188" s="6">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+      <c r="C188" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C189" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
+      <c r="C189" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
+      <c r="C190" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C191" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C192" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C193" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C195" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C197" s="5" t="s">
+      <c r="B197" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C197" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="5" t="s">
         <v>250</v>
       </c>
       <c r="C198" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="5" t="s">
         <v>253</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" s="7" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" s="6" t="s">
+      <c r="B201" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C202" s="6">
+      <c r="B202" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="8">
         <v>600</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C203" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" s="5" t="s">
+      <c r="B205" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C210" s="4">
         <v>600</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C211" s="5" t="s">
+      <c r="B211" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C212" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C213" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C219" s="5" t="s">
+      <c r="B219" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C223" s="5" t="s">
+      <c r="B223" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C225" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="5" t="s">
         <v>282</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C230" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C233" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C233" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C234" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C235" s="5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A237" s="7" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C237" s="7">
+      <c r="C237" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="5" t="s">
+      <c r="B239" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C240" s="4">
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C251" s="5" t="s">
+      <c r="B251" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" s="7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C255" s="5" t="s">
+      <c r="C255" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C257" s="5" t="s">
+      <c r="B257" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C259" s="5" t="s">
+      <c r="C259" s="7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AB1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AD1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AL1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AN1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AP1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AR1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AT1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AX1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="10" t="s">
+      <c r="BB1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BJ1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BL1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BN1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="BO1" s="12" t="s">
+      <c r="BO1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="BP1" s="10" t="s">
+      <c r="BP1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="BR1" s="10" t="s">
+      <c r="BR1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="BS1" s="12" t="s">
+      <c r="BS1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BU1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="BX1" s="10" t="s">
+      <c r="BX1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="BY1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="BZ1" s="10" t="s">
+      <c r="BZ1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="CA1" s="11" t="s">
+      <c r="CA1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="CB1" s="10" t="s">
+      <c r="CB1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CC1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CE1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="CF1" s="10" t="s">
+      <c r="CF1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CG1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="CH1" s="10" t="s">
+      <c r="CH1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="CI1" s="12" t="s">
+      <c r="CI1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="CJ1" s="12" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CK1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CL1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="CM1" s="11" t="s">
+      <c r="CM1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="CN1" s="10" t="s">
+      <c r="CN1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="CO1" s="11" t="s">
+      <c r="CO1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CP1" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="CQ1" s="11" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="CR1" s="12" t="s">
+      <c r="CR1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="CS1" s="12" t="s">
+      <c r="CS1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="CT1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CU1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="CV1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CW1" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="CX1" s="10" t="s">
+      <c r="CX1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="CY1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="CZ1" s="10" t="s">
+      <c r="CZ1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="DB1" s="12" t="s">
+      <c r="DB1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DC1" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="DD1" s="10" t="s">
+      <c r="DD1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DE1" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="DF1" s="10" t="s">
+      <c r="DF1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DG1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="DH1" s="10" t="s">
+      <c r="DH1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="DI1" s="12" t="s">
+      <c r="DI1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="DJ1" s="10" t="s">
+      <c r="DJ1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DK1" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="DL1" s="10" t="s">
+      <c r="DL1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DM1" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="DN1" s="10" t="s">
+      <c r="DN1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="DO1" s="11" t="s">
+      <c r="DO1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="DP1" s="10" t="s">
+      <c r="DP1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="DQ1" s="11" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="DR1" s="10" t="s">
+      <c r="DR1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="DS1" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="DT1" s="10" t="s">
+      <c r="DT1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="DU1" s="11" t="s">
+      <c r="DU1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="DV1" s="10" t="s">
+      <c r="DV1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="DW1" s="11" t="s">
+      <c r="DW1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="DX1" s="10" t="s">
+      <c r="DX1" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="DY1" s="11" t="s">
+      <c r="DY1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="DZ1" s="10" t="s">
+      <c r="DZ1" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="EA1" s="12" t="s">
+      <c r="EA1" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="EB1" s="10" t="s">
+      <c r="EB1" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="EC1" s="12" t="s">
+      <c r="EC1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="ED1" s="10" t="s">
+      <c r="ED1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="EE1" s="12" t="s">
+      <c r="EE1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="EF1" s="12" t="s">
+      <c r="EF1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="EG1" s="12" t="s">
+      <c r="EG1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="EH1" s="10" t="s">
+      <c r="EH1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="EI1" s="11" t="s">
+      <c r="EI1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="EJ1" s="10" t="s">
+      <c r="EJ1" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="EK1" s="11" t="s">
+      <c r="EK1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="EL1" s="10" t="s">
+      <c r="EL1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="EM1" s="11" t="s">
+      <c r="EM1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="EN1" s="10" t="s">
+      <c r="EN1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="EO1" s="12" t="s">
+      <c r="EO1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="EP1" s="10" t="s">
+      <c r="EP1" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="EQ1" s="11" t="s">
+      <c r="EQ1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="ER1" s="10" t="s">
+      <c r="ER1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="ES1" s="11" t="s">
+      <c r="ES1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="ET1" s="10" t="s">
+      <c r="ET1" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EU1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="EV1" s="10" t="s">
+      <c r="EV1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="EW1" s="11" t="s">
+      <c r="EW1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="EX1" s="10" t="s">
+      <c r="EX1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="EY1" s="11" t="s">
+      <c r="EY1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="EZ1" s="10" t="s">
+      <c r="EZ1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="FA1" s="11" t="s">
+      <c r="FA1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="FB1" s="10" t="s">
+      <c r="FB1" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="FC1" s="11" t="s">
+      <c r="FC1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="FD1" s="10" t="s">
+      <c r="FD1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="FE1" s="11" t="s">
+      <c r="FE1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="FF1" s="10" t="s">
+      <c r="FF1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="FG1" s="11" t="s">
+      <c r="FG1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="FH1" s="10" t="s">
+      <c r="FH1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="FI1" s="11" t="s">
+      <c r="FI1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="FJ1" s="10" t="s">
+      <c r="FJ1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="FK1" s="11" t="s">
+      <c r="FK1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="FL1" s="10" t="s">
+      <c r="FL1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="FM1" s="11" t="s">
+      <c r="FM1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="FN1" s="10" t="s">
+      <c r="FN1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="FO1" s="11" t="s">
+      <c r="FO1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="FP1" s="10" t="s">
+      <c r="FP1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="FQ1" s="11" t="s">
+      <c r="FQ1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="FR1" s="10" t="s">
+      <c r="FR1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="FS1" s="11" t="s">
+      <c r="FS1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="FT1" s="10" t="s">
+      <c r="FT1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="FU1" s="11" t="s">
+      <c r="FU1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="FV1" s="10" t="s">
+      <c r="FV1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="FW1" s="11" t="s">
+      <c r="FW1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="FX1" s="10" t="s">
+      <c r="FX1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="FY1" s="11" t="s">
+      <c r="FY1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="FZ1" s="10" t="s">
+      <c r="FZ1" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="GA1" s="11" t="s">
+      <c r="GA1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="GB1" s="10" t="s">
+      <c r="GB1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="GC1" s="11" t="s">
+      <c r="GC1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="GD1" s="10" t="s">
+      <c r="GD1" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="GE1" s="11" t="s">
+      <c r="GE1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="GF1" s="12" t="s">
+      <c r="GF1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="GG1" s="11" t="s">
+      <c r="GG1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="GH1" s="12" t="s">
+      <c r="GH1" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="GI1" s="11" t="s">
+      <c r="GI1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="GJ1" s="10" t="s">
+      <c r="GJ1" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="GK1" s="11" t="s">
+      <c r="GK1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="GL1" s="10" t="s">
+      <c r="GL1" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="GM1" s="11" t="s">
+      <c r="GM1" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="GN1" s="10" t="s">
+      <c r="GN1" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="GO1" s="11" t="s">
+      <c r="GO1" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="GP1" s="10" t="s">
+      <c r="GP1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="GQ1" s="11" t="s">
+      <c r="GQ1" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="GR1" s="10" t="s">
+      <c r="GR1" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="GS1" s="12" t="s">
+      <c r="GS1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="GT1" s="12" t="s">
+      <c r="GT1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="GU1" s="11" t="s">
+      <c r="GU1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="GV1" s="10" t="s">
+      <c r="GV1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="GW1" s="11" t="s">
+      <c r="GW1" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="GX1" s="10" t="s">
+      <c r="GX1" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="GY1" s="11" t="s">
+      <c r="GY1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="GZ1" s="10" t="s">
+      <c r="GZ1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="HA1" s="11" t="s">
+      <c r="HA1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="HB1" s="10" t="s">
+      <c r="HB1" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="HC1" s="11" t="s">
+      <c r="HC1" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="HD1" s="10" t="s">
+      <c r="HD1" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="HE1" s="11" t="s">
+      <c r="HE1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="HF1" s="10" t="s">
+      <c r="HF1" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="HG1" s="11" t="s">
+      <c r="HG1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="HH1" s="10" t="s">
+      <c r="HH1" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="HI1" s="11" t="s">
+      <c r="HI1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="HJ1" s="10" t="s">
+      <c r="HJ1" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="HK1" s="11" t="s">
+      <c r="HK1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="HL1" s="10" t="s">
+      <c r="HL1" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="HM1" s="11" t="s">
+      <c r="HM1" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="HN1" s="10" t="s">
+      <c r="HN1" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="HO1" s="11" t="s">
+      <c r="HO1" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="HP1" s="10" t="s">
+      <c r="HP1" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="HQ1" s="11" t="s">
+      <c r="HQ1" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="HR1" s="10" t="s">
+      <c r="HR1" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="HS1" s="11" t="s">
+      <c r="HS1" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="HT1" s="10" t="s">
+      <c r="HT1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="HU1" s="11" t="s">
+      <c r="HU1" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="HV1" s="10" t="s">
+      <c r="HV1" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="HW1" s="11" t="s">
+      <c r="HW1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="HX1" s="10" t="s">
+      <c r="HX1" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="HY1" s="11" t="s">
+      <c r="HY1" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="HZ1" s="10" t="s">
+      <c r="HZ1" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="IA1" s="11" t="s">
+      <c r="IA1" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="IB1" s="10" t="s">
+      <c r="IB1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="IC1" s="12" t="s">
+      <c r="IC1" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="ID1" s="10" t="s">
+      <c r="ID1" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="IE1" s="11" t="s">
+      <c r="IE1" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="IF1" s="10" t="s">
+      <c r="IF1" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="IG1" s="11" t="s">
+      <c r="IG1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="IH1" s="10" t="s">
+      <c r="IH1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="II1" s="11" t="s">
+      <c r="II1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="IJ1" s="10" t="s">
+      <c r="IJ1" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="IK1" s="11" t="s">
+      <c r="IK1" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="IL1" s="10" t="s">
+      <c r="IL1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="IM1" s="11" t="s">
+      <c r="IM1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="IN1" s="10" t="s">
+      <c r="IN1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="IO1" s="11" t="s">
+      <c r="IO1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="IP1" s="10" t="s">
+      <c r="IP1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="IQ1" s="11" t="s">
+      <c r="IQ1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="IR1" s="10" t="s">
+      <c r="IR1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="IS1" s="11" t="s">
+      <c r="IS1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="IT1" s="10" t="s">
+      <c r="IT1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="IU1" s="11" t="s">
+      <c r="IU1" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="IV1" s="10" t="s">
+      <c r="IV1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="IW1" s="11" t="s">
+      <c r="IW1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="IX1" s="10" t="s">
+      <c r="IX1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="IY1" s="11" t="s">
+      <c r="IY1" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:259" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="11" t="s">
+      <c r="U2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AB2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AD2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AD2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AI2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AL2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="11" t="s">
+      <c r="AM2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AO2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AQ2" s="11" t="s">
+      <c r="AQ2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="11" t="s">
+      <c r="AR2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AS2" s="11" t="s">
+      <c r="AS2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AT2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="11" t="s">
+      <c r="AY2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AZ2" s="11" t="s">
+      <c r="AZ2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BA2" s="11" t="s">
+      <c r="BA2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="11" t="s">
+      <c r="BB2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BC2" s="11" t="s">
+      <c r="BC2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="BD2" s="11" t="s">
+      <c r="BD2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="BE2" s="11" t="s">
+      <c r="BE2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="BF2" s="11" t="s">
+      <c r="BF2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="11" t="s">
+      <c r="BG2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="BH2" s="11" t="s">
+      <c r="BH2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BI2" s="11" t="s">
+      <c r="BI2" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BJ2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BK2" s="11" t="s">
+      <c r="BK2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="11" t="s">
+      <c r="BL2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BM2" s="11" t="s">
+      <c r="BM2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BN2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="BO2" s="11" t="s">
+      <c r="BO2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BP2" s="11" t="s">
+      <c r="BP2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BQ2" s="11" t="s">
+      <c r="BQ2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BR2" s="11" t="s">
+      <c r="BR2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BS2" s="11" t="s">
+      <c r="BS2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="BT2" s="11" t="s">
+      <c r="BT2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BU2" s="11" t="s">
+      <c r="BU2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BV2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="BW2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY2" s="11" t="s">
+      <c r="BW2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BX2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BY2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA2" s="11" t="s">
+      <c r="BZ2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="CB2" s="11" t="s">
+      <c r="CB2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="CC2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CC2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="CD2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CE2" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CF2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CG2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CH2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CI2" s="11" t="s">
+      <c r="CG2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CH2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CI2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="CJ2" s="11" t="s">
+      <c r="CJ2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="CK2" s="11" t="s">
+      <c r="CK2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CL2" s="11" t="s">
+      <c r="CL2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="CM2" s="11" t="s">
+      <c r="CM2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="CN2" s="11" t="s">
+      <c r="CN2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="CO2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="CR2" s="11" t="s">
+      <c r="CO2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CP2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CQ2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="CR2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" s="11" t="s">
+      <c r="CS2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="CT2" s="11" t="s">
+      <c r="CT2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="CU2" s="11" t="s">
+      <c r="CU2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CV2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CW2" s="11" t="s">
+      <c r="CV2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="CW2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="CX2" s="11" t="s">
+      <c r="CX2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="CY2" s="11" t="s">
+      <c r="CY2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="CZ2" s="11" t="s">
+      <c r="CZ2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="DA2" s="11" t="s">
+      <c r="DA2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="DB2" s="11" t="s">
+      <c r="DB2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DC2" s="11" t="s">
+      <c r="DC2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DD2" s="11" t="s">
+      <c r="DD2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DE2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="DF2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="DG2" s="11" t="s">
+      <c r="DE2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="DG2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="DH2" s="11" t="s">
+      <c r="DH2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="DI2" s="11" t="s">
+      <c r="DI2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="DJ2" s="11" t="s">
+      <c r="DJ2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="DK2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DK2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="DL2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DM2" s="11" t="s">
+      <c r="DM2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="DN2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="DO2" s="11" t="s">
+      <c r="DN2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="DO2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="DP2" s="11" t="s">
+      <c r="DP2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DQ2" s="11" t="s">
+      <c r="DQ2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="DR2" s="11" t="s">
+      <c r="DR2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="DS2" s="11" t="s">
+      <c r="DS2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DT2" s="11" t="s">
+      <c r="DT2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" s="11" t="s">
+      <c r="DU2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="DV2" s="11" t="s">
+      <c r="DV2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="DW2" s="11" t="s">
+      <c r="DW2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="DX2" s="11" t="s">
+      <c r="DX2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="DY2" s="11" t="s">
+      <c r="DY2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="DZ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EA2" s="11" t="s">
+      <c r="DZ2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EA2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="EB2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EC2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="ED2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EE2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EF2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EG2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EH2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EI2" s="11" t="s">
+      <c r="EB2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EC2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="ED2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EE2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EF2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EG2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EH2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EI2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="EJ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EK2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EL2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EM2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EN2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EO2" s="11" t="s">
+      <c r="EJ2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EK2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EL2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EM2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EN2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EO2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="EP2" s="11" t="s">
+      <c r="EP2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="EQ2" s="11" t="s">
+      <c r="EQ2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="ER2" s="11" t="s">
+      <c r="ER2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="ES2" s="11" t="s">
+      <c r="ES2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="ET2" s="11" t="s">
+      <c r="ET2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="EU2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="EV2" s="11" t="s">
+      <c r="EU2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="EV2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="EW2" s="11" t="s">
+      <c r="EW2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="EX2" s="11" t="s">
+      <c r="EX2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="EY2" s="11" t="s">
+      <c r="EY2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="EZ2" s="11" t="s">
+      <c r="EZ2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="FA2" s="11" t="s">
+      <c r="FA2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="FB2" s="11" t="s">
+      <c r="FB2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="FC2" s="11" t="s">
+      <c r="FC2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="FD2" s="11" t="s">
+      <c r="FD2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="FE2" s="11" t="s">
+      <c r="FE2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="FF2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FG2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FH2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FI2" s="11" t="s">
+      <c r="FF2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="FG2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="FH2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="FI2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="FJ2" s="11" t="s">
+      <c r="FJ2" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="FK2" s="11" t="s">
+      <c r="FK2" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="FL2" s="11" t="s">
+      <c r="FL2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="FM2" s="11" t="s">
+      <c r="FM2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="FN2" s="11" t="s">
+      <c r="FN2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FO2" s="11" t="s">
+      <c r="FO2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FP2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FQ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FR2" s="11" t="s">
+      <c r="FP2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="FQ2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="FR2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FS2" s="11" t="s">
+      <c r="FS2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" s="11" t="s">
+      <c r="FT2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FU2" s="11" t="s">
+      <c r="FU2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FV2" s="11" t="s">
+      <c r="FV2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="FW2" s="11" t="s">
+      <c r="FW2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="FX2" s="11" t="s">
+      <c r="FX2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="FY2" s="11" t="s">
+      <c r="FY2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="FZ2" s="11" t="s">
+      <c r="FZ2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="GA2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GB2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GC2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GD2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GE2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GF2" s="11" t="s">
+      <c r="GA2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GB2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GC2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GD2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GE2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GF2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="GG2" s="11" t="s">
+      <c r="GG2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="GH2" s="11" t="s">
+      <c r="GH2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="GI2" s="11" t="s">
+      <c r="GI2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="GJ2" s="11" t="s">
+      <c r="GJ2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="GK2" s="11" t="s">
+      <c r="GK2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" s="11" t="s">
+      <c r="GL2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="GM2" s="11" t="s">
+      <c r="GM2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="GN2" s="11" t="s">
+      <c r="GN2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="GO2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP2" s="11" t="s">
+      <c r="GO2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="GP2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="GQ2" s="11" t="s">
+      <c r="GQ2" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="GR2" s="11" t="s">
+      <c r="GR2" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="GS2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="GT2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="GU2" s="11" t="s">
+      <c r="GS2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="GT2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="GU2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="GV2" s="11" t="s">
+      <c r="GV2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="GW2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="GX2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="GY2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="GZ2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HA2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HB2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HC2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HD2" s="11" t="s">
+      <c r="GW2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="GX2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="GY2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="GZ2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HA2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HB2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HC2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HD2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="HE2" s="11" t="s">
+      <c r="HE2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="HF2" s="11" t="s">
+      <c r="HF2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="HG2" s="11" t="s">
+      <c r="HG2" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="HH2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HI2" s="11" t="s">
+      <c r="HH2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="HI2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="HJ2" s="11" t="s">
+      <c r="HJ2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="HK2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HL2" s="11" t="s">
+      <c r="HK2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="HL2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="HM2" s="11" t="s">
+      <c r="HM2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="HN2" s="11" t="s">
+      <c r="HN2" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="HO2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HP2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HQ2" s="11" t="s">
+      <c r="HO2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HP2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="HQ2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="HR2" s="11" t="s">
+      <c r="HR2" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="HS2" s="11" t="s">
+      <c r="HS2" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="HT2" s="11" t="s">
+      <c r="HT2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="HU2" s="11" t="s">
+      <c r="HU2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="HV2" s="11" t="s">
+      <c r="HV2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="HW2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="HX2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HY2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HZ2" s="11" t="s">
+      <c r="HW2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="HX2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="HY2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="HZ2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="IA2" s="11" t="s">
+      <c r="IA2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="IB2" s="11" t="s">
+      <c r="IB2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="IC2" s="11" t="s">
+      <c r="IC2" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="ID2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IE2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IF2" s="11" t="s">
+      <c r="ID2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IE2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IF2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="IG2" s="11" t="s">
+      <c r="IG2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="IH2" s="11" t="s">
+      <c r="IH2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="II2" s="11" t="s">
+      <c r="II2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="IJ2" s="11" t="s">
+      <c r="IJ2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="IK2" s="11" t="s">
+      <c r="IK2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="IL2" s="11" t="s">
+      <c r="IL2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="IM2" s="11" t="s">
+      <c r="IM2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="IN2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IO2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IP2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IQ2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IR2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IS2" s="11" t="s">
+      <c r="IN2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IO2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IP2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IQ2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IR2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IS2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="IT2" s="11" t="s">
+      <c r="IT2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="IU2" s="11" t="s">
+      <c r="IU2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="IV2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IW2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IX2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="IY2" s="11" t="s">
+      <c r="IV2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IW2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IX2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="IY2" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="17.25" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>400</v>
       </c>
       <c r="D3" s="4">
         <v>500</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>600</v>
       </c>
       <c r="F3" s="4">
         <v>400</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>400</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="4">
         <v>400</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>500</v>
       </c>
       <c r="N3" s="4">
         <v>400</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="7">
         <v>600</v>
       </c>
       <c r="P3" s="4">
         <v>600</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="9">
         <v>600</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="8">
         <v>700</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="7">
         <v>400</v>
       </c>
       <c r="AB3" s="4">
         <v>500</v>
       </c>
-      <c r="AC3" s="5">
+      <c r="AC3" s="7">
         <v>500</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AF3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="9">
         <v>400</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="7">
         <v>500</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AL3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AM3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="AP3" s="4">
         <v>400</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="AR3" s="4">
         <v>400</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AS3" s="9">
         <v>400</v>
       </c>
       <c r="AT3" s="4">
         <v>500</v>
       </c>
-      <c r="AU3" s="5">
+      <c r="AU3" s="7">
         <v>500</v>
       </c>
       <c r="AV3" s="4">
         <v>600</v>
       </c>
-      <c r="AW3" s="5" t="s">
+      <c r="AW3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AX3" s="4">
         <v>600</v>
       </c>
-      <c r="AY3" s="5" t="s">
+      <c r="AY3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AZ3" s="4">
         <v>400</v>
       </c>
-      <c r="BA3" s="5">
+      <c r="BA3" s="7">
         <v>400</v>
       </c>
       <c r="BB3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BC3" s="5">
+      <c r="BC3" s="7">
         <v>400</v>
       </c>
       <c r="BD3" s="4">
         <v>400</v>
       </c>
-      <c r="BE3" s="5" t="s">
+      <c r="BE3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="BF3" s="4">
         <v>300</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BG3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="5">
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="7">
         <v>400</v>
       </c>
       <c r="BJ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BK3" s="5" t="s">
+      <c r="BK3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="BL3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BM3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="BN3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BO3" s="7">
+      <c r="BO3" s="9">
         <v>500</v>
       </c>
       <c r="BP3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BQ3" s="7" t="s">
         <v>106</v>
       </c>
       <c r="BR3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BS3" s="7">
+      <c r="BS3" s="9">
         <v>600</v>
       </c>
       <c r="BT3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BU3" s="5" t="s">
+      <c r="BU3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="BV3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BW3" s="5">
+      <c r="BW3" s="7">
         <v>400</v>
       </c>
       <c r="BX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BY3" s="5" t="s">
+      <c r="BY3" s="7" t="s">
         <v>116</v>
       </c>
       <c r="BZ3" s="4">
         <v>500</v>
       </c>
-      <c r="CA3" s="5" t="s">
+      <c r="CA3" s="7" t="s">
         <v>119</v>
       </c>
       <c r="CB3" s="4">
         <v>400</v>
       </c>
-      <c r="CC3" s="5">
+      <c r="CC3" s="7">
         <v>400</v>
       </c>
       <c r="CD3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="CE3" s="5" t="s">
+      <c r="CE3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="CF3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="CG3" s="5" t="s">
+      <c r="CG3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="CH3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CI3" s="7">
-        <v>400</v>
-      </c>
-      <c r="CJ3" s="6">
-        <v>400</v>
-      </c>
-      <c r="CK3" s="5" t="s">
+      <c r="CI3" s="9">
+        <v>400</v>
+      </c>
+      <c r="CJ3" s="8">
+        <v>400</v>
+      </c>
+      <c r="CK3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="CL3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="CM3" s="5" t="s">
+      <c r="CM3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="CN3" s="4">
         <v>500</v>
       </c>
-      <c r="CO3" s="5">
+      <c r="CO3" s="7">
         <v>300</v>
       </c>
       <c r="CP3" s="4">
         <v>400</v>
       </c>
-      <c r="CQ3" s="5">
+      <c r="CQ3" s="7">
         <v>600</v>
       </c>
-      <c r="CR3" s="6">
-        <v>400</v>
-      </c>
-      <c r="CS3" s="7">
+      <c r="CR3" s="8">
+        <v>400</v>
+      </c>
+      <c r="CS3" s="9">
         <v>500</v>
       </c>
       <c r="CT3" s="4">
         <v>400</v>
       </c>
-      <c r="CU3" s="5">
+      <c r="CU3" s="7">
         <v>400</v>
       </c>
       <c r="CV3" s="4">
         <v>500</v>
       </c>
-      <c r="CW3" s="5">
+      <c r="CW3" s="7">
         <v>400</v>
       </c>
       <c r="CX3" s="4">
         <v>600</v>
       </c>
-      <c r="CY3" s="5" t="s">
+      <c r="CY3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="CZ3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="DA3" s="5" t="s">
+      <c r="DA3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="DB3" s="6">
-        <v>400</v>
-      </c>
-      <c r="DC3" s="5" t="s">
+      <c r="DB3" s="8">
+        <v>400</v>
+      </c>
+      <c r="DC3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="DD3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="DE3" s="5" t="s">
+      <c r="DE3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="DF3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="DG3" s="5" t="s">
+      <c r="DG3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="DH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DI3" s="7">
+      <c r="DI3" s="9">
         <v>600</v>
       </c>
       <c r="DJ3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="DK3" s="5" t="s">
+      <c r="DK3" s="7" t="s">
         <v>166</v>
       </c>
       <c r="DL3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="DM3" s="5" t="s">
+      <c r="DM3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="DN3" s="4">
         <v>400</v>
       </c>
-      <c r="DO3" s="5" t="s">
+      <c r="DO3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="DP3" s="4">
         <v>400</v>
       </c>
-      <c r="DQ3" s="5" t="s">
+      <c r="DQ3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="DR3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="DS3" s="5">
+      <c r="DS3" s="7">
         <v>400</v>
       </c>
       <c r="DT3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="DU3" s="5" t="s">
+      <c r="DU3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="DV3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DW3" s="5" t="s">
+      <c r="DW3" s="7" t="s">
         <v>179</v>
       </c>
       <c r="DX3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="DY3" s="5" t="s">
+      <c r="DY3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="DZ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="EA3" s="7" t="s">
+      <c r="EA3" s="9" t="s">
         <v>185</v>
       </c>
       <c r="EB3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="EC3" s="7"/>
+      <c r="EC3" s="9"/>
       <c r="ED3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EE3" s="7">
+      <c r="EE3" s="9">
         <v>850</v>
       </c>
-      <c r="EF3" s="6" t="s">
+      <c r="EF3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="EG3" s="7" t="s">
+      <c r="EG3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="EH3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="EI3" s="5" t="s">
+      <c r="EI3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="EJ3" s="4">
         <v>700</v>
       </c>
-      <c r="EK3" s="5" t="s">
+      <c r="EK3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="EL3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="EM3" s="5">
+      <c r="EM3" s="7">
         <v>400</v>
       </c>
       <c r="EN3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="EO3" s="7">
+      <c r="EO3" s="9">
         <v>700</v>
       </c>
       <c r="EP3" s="4">
         <v>400</v>
       </c>
-      <c r="EQ3" s="5" t="s">
+      <c r="EQ3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="ER3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="ES3" s="5" t="s">
+      <c r="ES3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="ET3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="EU3" s="5" t="s">
+      <c r="EU3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="EV3" s="4">
         <v>400</v>
       </c>
-      <c r="EW3" s="5" t="s">
+      <c r="EW3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="EX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="EY3" s="5">
+      <c r="EY3" s="7">
         <v>400</v>
       </c>
       <c r="EZ3" s="4">
         <v>400</v>
       </c>
-      <c r="FA3" s="5" t="s">
+      <c r="FA3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FB3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="FC3" s="5" t="s">
+      <c r="FC3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FD3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="FE3" s="5">
+      <c r="FE3" s="7">
         <v>400</v>
       </c>
       <c r="FF3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FG3" s="5" t="s">
+      <c r="FG3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="FH3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="FI3" s="5" t="s">
+      <c r="FI3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="FJ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FK3" s="5">
+      <c r="FK3" s="7">
         <v>400</v>
       </c>
       <c r="FL3" s="4">
         <v>600</v>
       </c>
-      <c r="FM3" s="5" t="s">
+      <c r="FM3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FN3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FO3" s="5" t="s">
+      <c r="FO3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="FP3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="FQ3" s="5" t="s">
+      <c r="FQ3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="FR3" s="4">
         <v>400</v>
       </c>
-      <c r="FS3" s="5" t="s">
+      <c r="FS3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="FT3" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="FU3" s="5" t="s">
+      <c r="FU3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FV3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="FW3" s="5" t="s">
+      <c r="FW3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FY3" s="5">
+      <c r="FY3" s="7">
         <v>400</v>
       </c>
       <c r="FZ3" s="4">
         <v>400</v>
       </c>
-      <c r="GA3" s="5">
+      <c r="GA3" s="7">
         <v>400</v>
       </c>
       <c r="GB3" s="4">
         <v>400</v>
       </c>
-      <c r="GC3" s="5">
+      <c r="GC3" s="7">
         <v>400</v>
       </c>
       <c r="GD3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="GE3" s="5" t="s">
+      <c r="GE3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="GF3" s="6">
-        <v>400</v>
-      </c>
-      <c r="GG3" s="5">
-        <v>400</v>
-      </c>
-      <c r="GH3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GI3" s="5">
+      <c r="GF3" s="8">
+        <v>400</v>
+      </c>
+      <c r="GG3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GH3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GI3" s="7">
         <v>400</v>
       </c>
       <c r="GJ3" s="4">
         <v>400</v>
       </c>
-      <c r="GK3" s="5">
+      <c r="GK3" s="7">
         <v>400</v>
       </c>
       <c r="GL3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="GM3" s="5" t="s">
+      <c r="GM3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="GN3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="GO3" s="5" t="s">
+      <c r="GO3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="GP3" s="4">
         <v>400</v>
       </c>
-      <c r="GQ3" s="5">
+      <c r="GQ3" s="7">
         <v>500</v>
       </c>
       <c r="GR3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="GS3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GT3" s="6">
+      <c r="GS3" s="9">
+        <v>400</v>
+      </c>
+      <c r="GT3" s="8">
         <v>600</v>
       </c>
-      <c r="GU3" s="5" t="s">
+      <c r="GU3" s="7" t="s">
         <v>119</v>
       </c>
       <c r="GV3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="GW3" s="5" t="s">
+      <c r="GW3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="GX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="GY3" s="5" t="s">
+      <c r="GY3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="GZ3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="HA3" s="5" t="s">
+      <c r="HA3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="HB3" s="4">
         <v>600</v>
       </c>
-      <c r="HC3" s="5" t="s">
+      <c r="HC3" s="7" t="s">
         <v>264</v>
       </c>
       <c r="HD3" s="4">
         <v>400</v>
       </c>
-      <c r="HE3" s="5" t="s">
+      <c r="HE3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="HF3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="HG3" s="5" t="s">
+      <c r="HG3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="HH3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HI3" s="5" t="s">
+      <c r="HI3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="HJ3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="HK3" s="5" t="s">
+      <c r="HK3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="HL3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="HM3" s="5" t="s">
+      <c r="HM3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="HN3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="HO3" s="5" t="s">
+      <c r="HO3" s="7" t="s">
         <v>106</v>
       </c>
       <c r="HP3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="HQ3" s="5">
+      <c r="HQ3" s="7">
         <v>400</v>
       </c>
       <c r="HR3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HS3" s="5" t="s">
+      <c r="HS3" s="7" t="s">
         <v>39</v>
       </c>
       <c r="HT3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HU3" s="5">
+      <c r="HU3" s="7">
         <v>500</v>
       </c>
       <c r="HV3" s="4">
         <v>300</v>
       </c>
-      <c r="HW3" s="5" t="s">
+      <c r="HW3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="HX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HY3" s="5">
+      <c r="HY3" s="7">
         <v>400</v>
       </c>
       <c r="HZ3" s="4">
         <v>400</v>
       </c>
-      <c r="IA3" s="5">
+      <c r="IA3" s="7">
         <v>400</v>
       </c>
       <c r="IB3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="IC3" s="7">
+      <c r="IC3" s="9">
         <v>300</v>
       </c>
       <c r="ID3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="IE3" s="5" t="s">
+      <c r="IE3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="IF3" s="4">
         <v>400</v>
       </c>
-      <c r="IG3" s="5" t="s">
+      <c r="IG3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="IH3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="II3" s="5">
+      <c r="II3" s="7">
         <v>600</v>
       </c>
       <c r="IJ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="IK3" s="5" t="s">
+      <c r="IK3" s="7" t="s">
         <v>161</v>
       </c>
       <c r="IL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="IM3" s="5" t="s">
+      <c r="IM3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="IN3" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="IO3" s="5" t="s">
+      <c r="IO3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="IP3" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="IQ3" s="5" t="s">
+      <c r="IQ3" s="7" t="s">
         <v>304</v>
       </c>
       <c r="IR3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="IS3" s="5" t="s">
+      <c r="IS3" s="7" t="s">
         <v>69</v>
       </c>
       <c r="IT3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="IU3" s="5" t="s">
+      <c r="IU3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="IV3" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="IW3" s="5" t="s">
+      <c r="IW3" s="7" t="s">
         <v>310</v>
       </c>
       <c r="IX3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="IY3" s="5" t="s">
+      <c r="IY3" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="314">
   <si>
     <t>고객사</t>
   </si>
@@ -954,6 +954,9 @@
   </si>
   <si>
     <t>충진기록</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
   </si>
 </sst>
 </file>
@@ -6714,7 +6717,9 @@
       <c r="A4" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="270" windowWidth="21600" windowHeight="15210" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="3690" windowWidth="17775" windowHeight="6885"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="일정" state="visible" r:id="rId4"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="315">
   <si>
     <t>고객사</t>
   </si>
@@ -44,6 +44,12 @@
     <t>A400</t>
   </si>
   <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
     <t>ADD 400</t>
   </si>
   <si>
@@ -954,9 +960,6 @@
   </si>
   <si>
     <t>충진기록</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="D144" sqref="D144"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -1527,7 +1530,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1537,14 +1540,22 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7">
         <v>400</v>
@@ -1552,10 +1563,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>500</v>
@@ -1563,10 +1574,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="7">
         <v>600</v>
@@ -1574,10 +1585,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
         <v>400</v>
@@ -1585,10 +1596,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
         <v>400</v>
@@ -1596,10 +1607,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1607,43 +1618,43 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
         <v>400</v>
@@ -1651,10 +1662,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
         <v>500</v>
@@ -1662,10 +1673,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4">
         <v>400</v>
@@ -1673,10 +1684,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7">
         <v>600</v>
@@ -1684,10 +1695,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4">
         <v>600</v>
@@ -1695,54 +1706,54 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
         <v>600</v>
@@ -1750,10 +1761,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8">
         <v>700</v>
@@ -1761,54 +1772,54 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27" s="7">
         <v>400</v>
@@ -1816,10 +1827,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>500</v>
@@ -1827,10 +1838,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>500</v>
@@ -1838,21 +1849,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>8</v>
@@ -1860,21 +1871,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="9">
         <v>400</v>
@@ -1882,10 +1893,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>8</v>
@@ -1893,10 +1904,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C35" s="7">
         <v>500</v>
@@ -1904,73 +1915,73 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>7</v>
@@ -1981,21 +1992,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4">
         <v>400</v>
@@ -2003,10 +2014,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" s="9">
         <v>400</v>
@@ -2014,10 +2025,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" s="4">
         <v>500</v>
@@ -2025,10 +2036,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" s="7">
         <v>500</v>
@@ -2036,10 +2047,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" s="4">
         <v>600</v>
@@ -2047,21 +2058,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" s="4">
         <v>600</v>
@@ -2069,10 +2080,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>8</v>
@@ -2080,10 +2091,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52" s="4">
         <v>400</v>
@@ -2091,10 +2102,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="7">
         <v>400</v>
@@ -2102,21 +2113,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C55" s="7">
         <v>400</v>
@@ -2124,10 +2135,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56" s="4">
         <v>400</v>
@@ -2135,21 +2146,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" s="4">
         <v>300</v>
@@ -2157,30 +2168,30 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C60" s="8"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C61" s="7">
         <v>400</v>
@@ -2188,7 +2199,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>7</v>
@@ -2199,43 +2210,43 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
@@ -2243,10 +2254,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C67" s="9">
         <v>500</v>
@@ -2254,43 +2265,43 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71" s="9">
         <v>600</v>
@@ -2298,43 +2309,43 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" s="7">
         <v>400</v>
@@ -2342,10 +2353,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>8</v>
@@ -2353,21 +2364,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78" s="4">
         <v>500</v>
@@ -2375,21 +2386,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C80" s="4">
         <v>400</v>
@@ -2397,10 +2408,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81" s="7">
         <v>400</v>
@@ -2408,10 +2419,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>8</v>
@@ -2419,54 +2430,54 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C87" s="9">
         <v>400</v>
@@ -2474,10 +2485,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C88" s="8">
         <v>400</v>
@@ -2485,43 +2496,43 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C92" s="4">
         <v>500</v>
@@ -2529,10 +2540,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C93" s="7">
         <v>300</v>
@@ -2540,10 +2551,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C94" s="4">
         <v>400</v>
@@ -2551,10 +2562,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C95" s="7">
         <v>600</v>
@@ -2562,10 +2573,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C96" s="8">
         <v>400</v>
@@ -2573,10 +2584,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C97" s="9">
         <v>500</v>
@@ -2584,10 +2595,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C98" s="4">
         <v>400</v>
@@ -2595,10 +2606,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C99" s="7">
         <v>400</v>
@@ -2606,10 +2617,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C100" s="4">
         <v>500</v>
@@ -2617,10 +2628,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C101" s="7">
         <v>400</v>
@@ -2628,10 +2639,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C102" s="4">
         <v>600</v>
@@ -2639,43 +2650,43 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="C105" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C106" s="8">
         <v>400</v>
@@ -2683,10 +2694,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>8</v>
@@ -2694,32 +2705,32 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>8</v>
@@ -2727,32 +2738,32 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C113" s="9">
         <v>600</v>
@@ -2760,54 +2771,54 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C118" s="4">
         <v>400</v>
@@ -2815,10 +2826,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>8</v>
@@ -2826,10 +2837,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C120" s="4">
         <v>400</v>
@@ -2837,10 +2848,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>8</v>
@@ -2848,10 +2859,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>8</v>
@@ -2859,10 +2870,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C123" s="7">
         <v>400</v>
@@ -2870,65 +2881,65 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>8</v>
@@ -2936,10 +2947,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>8</v>
@@ -2947,52 +2958,52 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C135" s="9">
         <v>850</v>
@@ -3000,21 +3011,21 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>8</v>
@@ -3022,32 +3033,32 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C140" s="4">
         <v>700</v>
@@ -3055,32 +3066,32 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C143" s="7">
         <v>400</v>
@@ -3088,18 +3099,18 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>7</v>
@@ -3110,7 +3121,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>7</v>
@@ -3121,32 +3132,32 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>8</v>
@@ -3154,10 +3165,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>8</v>
@@ -3165,21 +3176,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C152" s="4">
         <v>400</v>
@@ -3187,21 +3198,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>8</v>
@@ -3209,10 +3220,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C155" s="7">
         <v>400</v>
@@ -3220,10 +3231,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C156" s="4">
         <v>400</v>
@@ -3231,10 +3242,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>8</v>
@@ -3242,21 +3253,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>8</v>
@@ -3264,21 +3275,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C161" s="7">
         <v>400</v>
@@ -3286,10 +3297,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>8</v>
@@ -3297,43 +3308,43 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
@@ -3341,10 +3352,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C167" s="7">
         <v>400</v>
@@ -3352,10 +3363,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C168" s="4">
         <v>600</v>
@@ -3363,10 +3374,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>8</v>
@@ -3374,10 +3385,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>8</v>
@@ -3385,43 +3396,43 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C174" s="4">
         <v>400</v>
@@ -3429,32 +3440,32 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>8</v>
@@ -3462,21 +3473,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>8</v>
@@ -3484,10 +3495,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>8</v>
@@ -3495,10 +3506,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C181" s="7">
         <v>400</v>
@@ -3506,10 +3517,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C182" s="4">
         <v>400</v>
@@ -3517,10 +3528,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C183" s="7">
         <v>400</v>
@@ -3528,10 +3539,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C184" s="4">
         <v>400</v>
@@ -3539,10 +3550,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C185" s="7">
         <v>400</v>
@@ -3550,32 +3561,32 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C188" s="8">
         <v>400</v>
@@ -3583,10 +3594,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C189" s="7">
         <v>400</v>
@@ -3594,10 +3605,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>8</v>
@@ -3605,10 +3616,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C191" s="7">
         <v>400</v>
@@ -3616,10 +3627,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C192" s="4">
         <v>400</v>
@@ -3627,10 +3638,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C193" s="7">
         <v>400</v>
@@ -3638,10 +3649,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>8</v>
@@ -3649,43 +3660,43 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C198" s="4">
         <v>400</v>
@@ -3693,10 +3704,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C199" s="7">
         <v>500</v>
@@ -3704,21 +3715,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C201" s="9">
         <v>400</v>
@@ -3726,10 +3737,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C202" s="8">
         <v>600</v>
@@ -3737,43 +3748,43 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>8</v>
@@ -3781,10 +3792,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>8</v>
@@ -3792,21 +3803,21 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>8</v>
@@ -3814,10 +3825,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C210" s="4">
         <v>600</v>
@@ -3825,21 +3836,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C212" s="4">
         <v>400</v>
@@ -3847,43 +3858,43 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>8</v>
@@ -3891,54 +3902,54 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>8</v>
@@ -3946,43 +3957,43 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B224" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C225" s="7">
         <v>400</v>
@@ -3990,10 +4001,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>8</v>
@@ -4001,21 +4012,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>8</v>
@@ -4023,10 +4034,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C229" s="7">
         <v>500</v>
@@ -4034,10 +4045,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C230" s="4">
         <v>300</v>
@@ -4045,10 +4056,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>8</v>
@@ -4056,10 +4067,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>8</v>
@@ -4067,10 +4078,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C233" s="7">
         <v>400</v>
@@ -4078,10 +4089,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C234" s="4">
         <v>400</v>
@@ -4089,10 +4100,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C235" s="7">
         <v>400</v>
@@ -4100,21 +4111,21 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C237" s="9">
         <v>300</v>
@@ -4122,32 +4133,32 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C240" s="4">
         <v>400</v>
@@ -4155,32 +4166,32 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C243" s="7">
         <v>600</v>
@@ -4188,10 +4199,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>8</v>
@@ -4199,54 +4210,54 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>8</v>
@@ -4254,112 +4265,112 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4369,10 +4380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY4"/>
+  <dimension ref="A1:IY5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="BT5" sqref="BT5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -4388,775 +4399,775 @@
         <v>6</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W1" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AE1" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH1" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK1" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AL1" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AM1" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AN1" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AO1" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AR1" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AS1" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AW1" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AX1" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AY1" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AZ1" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BA1" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BB1" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BC1" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BE1" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BF1" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BG1" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BH1" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BI1" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BJ1" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BK1" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BL1" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BM1" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BN1" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BO1" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="BP1" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BQ1" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="BR1" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BS1" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BT1" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BU1" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BV1" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BW1" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BX1" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BY1" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BZ1" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="CA1" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="CB1" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="CC1" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CD1" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="CE1" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CF1" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CG1" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CH1" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CI1" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CJ1" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CK1" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CL1" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CM1" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="CN1" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="CO1" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CP1" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CQ1" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CR1" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="CS1" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="CT1" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="CU1" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="CV1" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="CW1" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CX1" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CY1" s="13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CZ1" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="DA1" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="DB1" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="DC1" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="DD1" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="DE1" s="13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DF1" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="DH1" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="DI1" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DJ1" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DL1" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DM1" s="13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DN1" s="14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DO1" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DP1" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DQ1" s="13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DR1" s="14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DS1" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="DT1" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DU1" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DV1" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DW1" s="13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="DX1" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DY1" s="13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DZ1" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EA1" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="EB1" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="EC1" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="ED1" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="EE1" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="EF1" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EG1" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EH1" s="14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="EI1" s="13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="EJ1" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="EK1" s="13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="EL1" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="EM1" s="13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="EN1" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="EO1" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="EP1" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EQ1" s="13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="ER1" s="14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="ES1" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="ET1" s="14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="EU1" s="13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EV1" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="EW1" s="13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="EX1" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="EY1" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="EZ1" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="FA1" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="FB1" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="FC1" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="FD1" s="14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="FE1" s="13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="FF1" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="FG1" s="13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="FH1" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="FI1" s="13" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="FJ1" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="FK1" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="FL1" s="14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="FM1" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="FN1" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="FO1" s="13" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FP1" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FQ1" s="13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FR1" s="14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FS1" s="13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FT1" s="14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FU1" s="13" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FV1" s="14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FW1" s="13" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="FX1" s="14" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="FY1" s="13" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="FZ1" s="14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="GA1" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="GB1" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="GC1" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="GD1" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="GE1" s="13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="GF1" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="GG1" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="GH1" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="GI1" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="GJ1" s="14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="GK1" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="GL1" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="GM1" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="GN1" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="GO1" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="GP1" s="14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="GQ1" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="GR1" s="14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="GS1" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="GT1" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="GU1" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="GV1" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="GW1" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="GX1" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GY1" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GZ1" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="HA1" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="HB1" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="HC1" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HD1" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="HE1" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="HF1" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="HG1" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="HH1" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HI1" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="HJ1" s="14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="HK1" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="HL1" s="14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="HM1" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="HN1" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="HO1" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="HP1" s="14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="HQ1" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="HR1" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="HS1" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="HT1" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HU1" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="HV1" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="HW1" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="HX1" s="14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="HY1" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="HZ1" s="14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="IA1" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="IB1" s="14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="IC1" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="ID1" s="14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="IE1" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="IF1" s="14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IG1" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="IH1" s="14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="II1" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="IJ1" s="14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="IK1" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="IL1" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="IM1" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="IN1" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IO1" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IP1" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IQ1" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IS1" s="13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="IT1" s="14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="IU1" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="IV1" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="IW1" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="IY1" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -5167,106 +5178,106 @@
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="X2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="13" t="s">
         <v>7</v>
@@ -5281,7 +5292,7 @@
         <v>7</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="13" t="s">
         <v>7</v>
@@ -5290,58 +5301,58 @@
         <v>7</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AT2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY2" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA2" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB2" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BG2" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BI2" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BJ2" s="13" t="s">
         <v>7</v>
@@ -5353,181 +5364,181 @@
         <v>7</v>
       </c>
       <c r="BM2" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BN2" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BO2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="CC2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CH2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CI2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CJ2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CK2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CL2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="CM2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="CO2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CP2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CQ2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="CR2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="CS2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="CW2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="CX2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="CZ2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="DA2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="DB2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DD2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DE2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="DF2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="DG2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="DH2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="DI2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ2" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="DK2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="DL2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="DN2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="DO2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="DP2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="DQ2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="DR2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="DS2" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="BP2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BQ2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BS2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BU2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="BW2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="BZ2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="CC2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="CD2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="CF2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="CG2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CH2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CI2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CJ2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CK2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="CL2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="CM2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="CO2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CP2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CQ2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="CR2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="CS2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CT2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="CU2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="CV2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="CW2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="CX2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="CY2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="CZ2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="DB2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="DC2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="DD2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="DE2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="DF2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="DG2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="DH2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="DI2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="DJ2" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="DK2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="DL2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="DM2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="DN2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="DO2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="DP2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="DQ2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="DR2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="DS2" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="DT2" s="13" t="s">
         <v>7</v>
@@ -5542,55 +5553,55 @@
         <v>7</v>
       </c>
       <c r="DX2" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="DZ2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EA2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="EB2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EC2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="ED2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EE2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EF2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EG2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EH2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EI2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="EJ2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EK2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EL2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EM2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EN2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EO2" s="13" t="s">
         <v>7</v>
@@ -5602,340 +5613,340 @@
         <v>7</v>
       </c>
       <c r="ER2" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="ES2" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="ET2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="EU2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EV2" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="EW2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="EX2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="EY2" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="EZ2" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="FA2" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="FB2" s="13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="FC2" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="FD2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="FE2" s="13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="FF2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FG2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FH2" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FI2" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="FJ2" s="13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="FK2" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="FL2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="FM2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="FN2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FO2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FP2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="FQ2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="FR2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FS2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FT2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FU2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FV2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="FW2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="FX2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="FY2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="FZ2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="GA2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GB2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GC2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GD2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GE2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GF2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="GG2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="GH2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="FM2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="FN2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FO2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FP2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="FQ2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="FR2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FS2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FT2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FU2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FV2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="FW2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="FX2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="FY2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="FZ2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="GA2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GB2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GC2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GD2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GE2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GF2" s="13" t="s">
+      <c r="GI2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="GJ2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="GK2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="GL2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="GM2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="GN2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="GO2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="GP2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="GQ2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="GR2" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="GS2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="GT2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="GU2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="GV2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="GW2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="GX2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="GY2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="GZ2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HA2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HB2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HC2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HD2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="HE2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="GG2" s="13" t="s">
+      <c r="HF2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="HG2" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="HH2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="HI2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="HJ2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="HK2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="HL2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="HM2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="HN2" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="HO2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HP2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="HQ2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="HR2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="HS2" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="HT2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="HU2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="HV2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="HW2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="HX2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="HY2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="HZ2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="GH2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="GI2" s="13" t="s">
+      <c r="IA2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="IB2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="IC2" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="ID2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IE2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IF2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="IG2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="IH2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="II2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="IJ2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="IK2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="IL2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="IM2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="IN2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IO2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IP2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IQ2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IR2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="IS2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="GJ2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="GK2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="GL2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="GM2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="GN2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="GO2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP2" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="GQ2" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="GR2" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="GS2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="GT2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="GU2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="GV2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="GW2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="GX2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="GY2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="GZ2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HA2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HB2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HC2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HD2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="HE2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="HF2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="HG2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="HH2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="HI2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="HJ2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="HK2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="HL2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="HM2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="HN2" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="HO2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HP2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="HQ2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="HR2" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="HS2" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="HT2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="HU2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="HV2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="HW2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="HX2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="HY2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="HZ2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="IA2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="IB2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="IC2" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="ID2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IE2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IF2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="IG2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="IH2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="II2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="IJ2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="IK2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="IL2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="IM2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="IN2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IO2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IP2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IQ2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IR2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="IS2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="IT2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="IU2" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="IV2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="IW2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="IX2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="IY2" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
@@ -5964,13 +5975,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="4">
         <v>400</v>
@@ -5988,16 +5999,16 @@
         <v>600</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" s="9">
         <v>600</v>
@@ -6006,16 +6017,16 @@
         <v>700</v>
       </c>
       <c r="W3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="7">
         <v>400</v>
@@ -6027,13 +6038,13 @@
         <v>500</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG3" s="9">
         <v>400</v>
@@ -6045,28 +6056,28 @@
         <v>500</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK3" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AM3" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP3" s="4">
         <v>400</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AR3" s="4">
         <v>400</v>
@@ -6084,7 +6095,7 @@
         <v>600</v>
       </c>
       <c r="AW3" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AX3" s="4">
         <v>600</v>
@@ -6099,7 +6110,7 @@
         <v>400</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BC3" s="7">
         <v>400</v>
@@ -6108,13 +6119,13 @@
         <v>400</v>
       </c>
       <c r="BE3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BF3" s="4">
         <v>300</v>
       </c>
       <c r="BG3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH3" s="8"/>
       <c r="BI3" s="7">
@@ -6124,13 +6135,13 @@
         <v>8</v>
       </c>
       <c r="BK3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BM3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BN3" s="4" t="s">
         <v>8</v>
@@ -6139,25 +6150,25 @@
         <v>500</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BQ3" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BR3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BS3" s="9">
         <v>600</v>
       </c>
       <c r="BT3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="BU3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BW3" s="7">
         <v>400</v>
@@ -6166,13 +6177,13 @@
         <v>8</v>
       </c>
       <c r="BY3" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BZ3" s="4">
         <v>500</v>
       </c>
       <c r="CA3" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="CB3" s="4">
         <v>400</v>
@@ -6184,16 +6195,16 @@
         <v>8</v>
       </c>
       <c r="CE3" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="CF3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CG3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CH3" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CI3" s="9">
         <v>400</v>
@@ -6202,13 +6213,13 @@
         <v>400</v>
       </c>
       <c r="CK3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CL3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CM3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CN3" s="4">
         <v>500</v>
@@ -6244,13 +6255,13 @@
         <v>600</v>
       </c>
       <c r="CY3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CZ3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DA3" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="DB3" s="8">
         <v>400</v>
@@ -6259,34 +6270,34 @@
         <v>8</v>
       </c>
       <c r="DD3" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DE3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DF3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="DG3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="DH3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="DI3" s="9">
         <v>600</v>
       </c>
       <c r="DJ3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="DK3" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DL3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DM3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DN3" s="4">
         <v>400</v>
@@ -6307,19 +6318,19 @@
         <v>400</v>
       </c>
       <c r="DT3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DU3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="DV3" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="DW3" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DX3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="DY3" s="7" t="s">
         <v>8</v>
@@ -6328,44 +6339,44 @@
         <v>8</v>
       </c>
       <c r="EA3" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="EB3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EC3" s="9"/>
       <c r="ED3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="EE3" s="9">
         <v>850</v>
       </c>
       <c r="EF3" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EG3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="EH3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="EI3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="EJ3" s="4">
         <v>700</v>
       </c>
       <c r="EK3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="EL3" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="EM3" s="7">
         <v>400</v>
       </c>
       <c r="EN3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="EO3" s="9">
         <v>700</v>
@@ -6374,10 +6385,10 @@
         <v>400</v>
       </c>
       <c r="EQ3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="ER3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="ES3" s="7" t="s">
         <v>8</v>
@@ -6386,13 +6397,13 @@
         <v>8</v>
       </c>
       <c r="EU3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="EV3" s="4">
         <v>400</v>
       </c>
       <c r="EW3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EX3" s="4" t="s">
         <v>8</v>
@@ -6407,13 +6418,13 @@
         <v>8</v>
       </c>
       <c r="FB3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FC3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="FD3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FE3" s="7">
         <v>400</v>
@@ -6422,13 +6433,13 @@
         <v>8</v>
       </c>
       <c r="FG3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="FH3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FI3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FJ3" s="4" t="s">
         <v>8</v>
@@ -6446,85 +6457,85 @@
         <v>8</v>
       </c>
       <c r="FO3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FP3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="FQ3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="FR3" s="4">
         <v>400</v>
       </c>
       <c r="FS3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="FT3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="FU3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FV3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="FW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FX3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="FY3" s="7">
+        <v>400</v>
+      </c>
+      <c r="FZ3" s="4">
+        <v>400</v>
+      </c>
+      <c r="GA3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GB3" s="4">
+        <v>400</v>
+      </c>
+      <c r="GC3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GD3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="GE3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="GF3" s="8">
+        <v>400</v>
+      </c>
+      <c r="GG3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GH3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GI3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GJ3" s="4">
+        <v>400</v>
+      </c>
+      <c r="GK3" s="7">
+        <v>400</v>
+      </c>
+      <c r="GL3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="GM3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="GN3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="GO3" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="FT3" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="FU3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FV3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="FW3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FX3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="FY3" s="7">
-        <v>400</v>
-      </c>
-      <c r="FZ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GA3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GB3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GC3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GD3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="GE3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="GF3" s="8">
-        <v>400</v>
-      </c>
-      <c r="GG3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GH3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="GI3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GJ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GK3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GL3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="GM3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="GN3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="GO3" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="GP3" s="4">
         <v>400</v>
@@ -6533,7 +6544,7 @@
         <v>500</v>
       </c>
       <c r="GR3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="GS3" s="9">
         <v>400</v>
@@ -6542,14 +6553,14 @@
         <v>600</v>
       </c>
       <c r="GU3" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="GV3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="GW3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="GW3" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="GX3" s="4" t="s">
         <v>8</v>
       </c>
@@ -6557,7 +6568,7 @@
         <v>8</v>
       </c>
       <c r="GZ3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="HA3" s="7" t="s">
         <v>8</v>
@@ -6566,46 +6577,46 @@
         <v>600</v>
       </c>
       <c r="HC3" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="HD3" s="4">
         <v>400</v>
       </c>
       <c r="HE3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HF3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="HG3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="HH3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="HI3" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="HJ3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HK3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HL3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HM3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="HN3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HO3" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="HP3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="HQ3" s="7">
         <v>400</v>
@@ -6614,7 +6625,7 @@
         <v>8</v>
       </c>
       <c r="HS3" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="HT3" s="4" t="s">
         <v>8</v>
@@ -6641,25 +6652,25 @@
         <v>400</v>
       </c>
       <c r="IB3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="IC3" s="9">
         <v>300</v>
       </c>
       <c r="ID3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="IE3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="IF3" s="4">
         <v>400</v>
       </c>
       <c r="IG3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="IH3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="II3" s="7">
         <v>600</v>
@@ -6668,58 +6679,61 @@
         <v>8</v>
       </c>
       <c r="IK3" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="IL3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="IM3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="IN3" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="IO3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="IP3" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="IQ3" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="IR3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="IS3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="IT3" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="IU3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="IV3" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="IW3" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="IX3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="IY3" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>313</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FD941-1753-408D-9E96-EC56707BACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3690" windowWidth="17775" windowHeight="6885"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="일정" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="기록" state="visible" r:id="rId5"/>
+    <sheet name="일정" sheetId="1" r:id="rId1"/>
+    <sheet name="기록" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="319">
   <si>
     <t>고객사</t>
   </si>
@@ -960,35 +961,57 @@
   </si>
   <si>
     <t>충진기록</t>
+  </si>
+  <si>
+    <t>A400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A500</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A300, A500, 500WB, A600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A400, A600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <color theme="1"/>
-      <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1006,13 +1029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,8 +1051,12 @@
     <border>
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1158,7 +1185,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1489,14 +1516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
@@ -1506,7 +1533,7 @@
     <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1557,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1550,62 +1577,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1649,62 +1676,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -1715,7 +1742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>36</v>
       </c>
@@ -1726,7 +1753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1748,18 +1775,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -1770,7 +1797,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
@@ -1781,7 +1808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1792,7 +1819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1803,7 +1830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1814,40 +1841,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
@@ -1858,7 +1885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>57</v>
       </c>
@@ -1869,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -1880,18 +1907,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1902,18 +1929,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>64</v>
       </c>
@@ -1924,7 +1951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>65</v>
       </c>
@@ -1935,7 +1962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
@@ -1946,7 +1973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>65</v>
       </c>
@@ -1957,7 +1984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>65</v>
       </c>
@@ -1968,7 +1995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>69</v>
       </c>
@@ -1979,18 +2006,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>73</v>
       </c>
@@ -2001,62 +2028,62 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>80</v>
       </c>
@@ -2067,18 +2094,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>83</v>
       </c>
@@ -2089,29 +2116,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>86</v>
       </c>
@@ -2122,29 +2149,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>91</v>
       </c>
@@ -2155,7 +2182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
@@ -2166,7 +2193,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>95</v>
       </c>
@@ -2177,7 +2204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>96</v>
       </c>
@@ -2186,18 +2213,18 @@
       </c>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>99</v>
       </c>
@@ -2208,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>100</v>
       </c>
@@ -2219,7 +2246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>101</v>
       </c>
@@ -2230,7 +2257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>102</v>
       </c>
@@ -2241,7 +2268,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>104</v>
       </c>
@@ -2252,18 +2279,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>107</v>
       </c>
@@ -2274,7 +2301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>107</v>
       </c>
@@ -2285,7 +2312,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>109</v>
       </c>
@@ -2296,18 +2323,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>111</v>
       </c>
@@ -2318,7 +2345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>114</v>
       </c>
@@ -2340,18 +2367,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>116</v>
       </c>
@@ -2362,7 +2389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>117</v>
       </c>
@@ -2373,18 +2400,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
@@ -2395,29 +2422,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C80" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>125</v>
       </c>
@@ -2428,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>126</v>
       </c>
@@ -2439,7 +2466,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>128</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>129</v>
       </c>
@@ -2461,7 +2488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>130</v>
       </c>
@@ -2472,29 +2499,29 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>135</v>
       </c>
@@ -2505,7 +2532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -2516,7 +2543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>138</v>
       </c>
@@ -2527,18 +2554,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>140</v>
       </c>
@@ -2549,106 +2576,106 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C97" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C100" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>152</v>
       </c>
@@ -2659,7 +2686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>154</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>155</v>
       </c>
@@ -2678,21 +2705,21 @@
         <v>153</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>158</v>
       </c>
@@ -2703,7 +2730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>159</v>
       </c>
@@ -2714,7 +2741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>160</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>160</v>
       </c>
@@ -2736,7 +2763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>161</v>
       </c>
@@ -2747,7 +2774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>161</v>
       </c>
@@ -2758,18 +2785,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>165</v>
       </c>
@@ -2780,7 +2807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>167</v>
       </c>
@@ -2791,7 +2818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>169</v>
       </c>
@@ -2802,7 +2829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>170</v>
       </c>
@@ -2813,18 +2840,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>172</v>
       </c>
@@ -2835,18 +2862,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C120" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>174</v>
       </c>
@@ -2857,7 +2884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>176</v>
       </c>
@@ -2868,18 +2895,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>178</v>
       </c>
@@ -2890,7 +2917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>179</v>
       </c>
@@ -2901,7 +2928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>179</v>
       </c>
@@ -2912,7 +2939,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>180</v>
       </c>
@@ -2923,7 +2950,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>182</v>
       </c>
@@ -2934,7 +2961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>183</v>
       </c>
@@ -2945,7 +2972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>185</v>
       </c>
@@ -2956,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>186</v>
       </c>
@@ -2967,7 +2994,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>188</v>
       </c>
@@ -2978,16 +3005,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C133" s="9"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>190</v>
       </c>
@@ -2998,7 +3027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>191</v>
       </c>
@@ -3009,7 +3038,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>192</v>
       </c>
@@ -3020,7 +3049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>192</v>
       </c>
@@ -3031,7 +3060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>193</v>
       </c>
@@ -3042,7 +3071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>194</v>
       </c>
@@ -3053,7 +3082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>195</v>
       </c>
@@ -3064,7 +3093,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>196</v>
       </c>
@@ -3075,7 +3104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>196</v>
       </c>
@@ -3086,18 +3115,18 @@
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C143" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>198</v>
       </c>
@@ -3108,7 +3137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>199</v>
       </c>
@@ -3119,18 +3148,18 @@
         <v>700</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>201</v>
       </c>
@@ -3141,7 +3170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>202</v>
       </c>
@@ -3152,7 +3181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>203</v>
       </c>
@@ -3163,7 +3192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>204</v>
       </c>
@@ -3174,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>205</v>
       </c>
@@ -3185,18 +3214,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C152" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>207</v>
       </c>
@@ -3207,7 +3236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>207</v>
       </c>
@@ -3218,29 +3247,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C155" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C156" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>210</v>
       </c>
@@ -3251,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>210</v>
       </c>
@@ -3262,7 +3291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>211</v>
       </c>
@@ -3273,7 +3302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>213</v>
       </c>
@@ -3284,18 +3313,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C161" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>216</v>
       </c>
@@ -3306,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>216</v>
       </c>
@@ -3317,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>216</v>
       </c>
@@ -3328,7 +3357,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>217</v>
       </c>
@@ -3339,7 +3368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>219</v>
       </c>
@@ -3350,29 +3379,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C167" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C168" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>223</v>
       </c>
@@ -3383,7 +3412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>224</v>
       </c>
@@ -3394,7 +3423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>225</v>
       </c>
@@ -3405,7 +3434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>226</v>
       </c>
@@ -3416,7 +3445,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>226</v>
       </c>
@@ -3427,18 +3456,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C174" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>228</v>
       </c>
@@ -3449,7 +3478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>229</v>
       </c>
@@ -3460,7 +3489,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>231</v>
       </c>
@@ -3471,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>232</v>
       </c>
@@ -3482,7 +3511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>233</v>
       </c>
@@ -3493,7 +3522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>234</v>
       </c>
@@ -3504,62 +3533,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C181" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C182" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C183" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C184" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C185" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>240</v>
       </c>
@@ -3570,7 +3599,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>241</v>
       </c>
@@ -3581,29 +3610,29 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C188" s="8">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C189" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>244</v>
       </c>
@@ -3614,40 +3643,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C191" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>246</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C192" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>248</v>
       </c>
@@ -3658,7 +3687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>249</v>
       </c>
@@ -3669,7 +3698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>249</v>
       </c>
@@ -3680,7 +3709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>250</v>
       </c>
@@ -3691,29 +3720,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>251</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C198" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C199" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>254</v>
       </c>
@@ -3724,29 +3753,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>256</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C201" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
         <v>257</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C202" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>258</v>
       </c>
@@ -3757,7 +3786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>259</v>
       </c>
@@ -3768,7 +3797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>260</v>
       </c>
@@ -3779,7 +3808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>261</v>
       </c>
@@ -3790,7 +3819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>261</v>
       </c>
@@ -3801,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>262</v>
       </c>
@@ -3812,7 +3841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>263</v>
       </c>
@@ -3823,18 +3852,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C210" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>265</v>
       </c>
@@ -3845,18 +3874,18 @@
         <v>266</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C212" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>268</v>
       </c>
@@ -3867,7 +3896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>269</v>
       </c>
@@ -3878,7 +3907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>270</v>
       </c>
@@ -3889,7 +3918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>272</v>
       </c>
@@ -3900,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>273</v>
       </c>
@@ -3911,7 +3940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>274</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>275</v>
       </c>
@@ -3933,7 +3962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>276</v>
       </c>
@@ -3944,7 +3973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>277</v>
       </c>
@@ -3955,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>278</v>
       </c>
@@ -3966,7 +3995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>280</v>
       </c>
@@ -3977,7 +4006,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>281</v>
       </c>
@@ -3988,18 +4017,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>282</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C225" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>283</v>
       </c>
@@ -4010,7 +4039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>285</v>
       </c>
@@ -4021,7 +4050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>287</v>
       </c>
@@ -4032,18 +4061,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>288</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C229" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>288</v>
       </c>
@@ -4054,7 +4083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>289</v>
       </c>
@@ -4065,7 +4094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>290</v>
       </c>
@@ -4076,40 +4105,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>291</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C233" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C234" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>293</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C235" s="7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>293</v>
       </c>
@@ -4120,7 +4149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>294</v>
       </c>
@@ -4131,7 +4160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>296</v>
       </c>
@@ -4142,7 +4171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>297</v>
       </c>
@@ -4153,18 +4182,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>298</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>299</v>
       </c>
@@ -4175,7 +4204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>299</v>
       </c>
@@ -4186,18 +4215,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>300</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C243" s="7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>301</v>
       </c>
@@ -4208,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>301</v>
       </c>
@@ -4219,7 +4248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>302</v>
       </c>
@@ -4230,7 +4259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>302</v>
       </c>
@@ -4241,7 +4270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>303</v>
       </c>
@@ -4252,7 +4281,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>303</v>
       </c>
@@ -4263,7 +4292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>303</v>
       </c>
@@ -4274,7 +4303,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>303</v>
       </c>
@@ -4285,7 +4314,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>303</v>
       </c>
@@ -4296,7 +4325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>307</v>
       </c>
@@ -4307,7 +4336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>308</v>
       </c>
@@ -4318,7 +4347,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -4329,7 +4358,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>310</v>
       </c>
@@ -4340,7 +4369,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>310</v>
       </c>
@@ -4351,7 +4380,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>310</v>
       </c>
@@ -4362,7 +4391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>313</v>
       </c>
@@ -4374,24 +4403,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5170,7 +5200,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -5949,7 +5979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -6724,7 +6754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>314</v>
       </c>
@@ -6732,10 +6762,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
+    <row r="5" spans="1:259" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808FD941-1753-408D-9E96-EC56707BACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09199394-EC72-436B-ABB8-7EACCA490196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="318">
   <si>
     <t>고객사</t>
   </si>
@@ -484,9 +484,6 @@
   </si>
   <si>
     <t>듀폰코리아 동탄</t>
-  </si>
-  <si>
-    <t>400, 600</t>
   </si>
   <si>
     <t>레고켐바이오</t>
@@ -1040,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1115,24 +1112,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,9 +1162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1519,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1596,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2705,12 +2686,12 @@
         <v>153</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>12</v>
@@ -2721,7 +2702,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>12</v>
@@ -2732,7 +2713,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>12</v>
@@ -2743,7 +2724,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>25</v>
@@ -2754,7 +2735,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>25</v>
@@ -2765,10 +2746,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>28</v>
@@ -2776,18 +2757,18 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>52</v>
@@ -2798,10 +2779,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>166</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>74</v>
@@ -2809,18 +2790,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>12</v>
@@ -2831,7 +2812,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>137</v>
@@ -2842,7 +2823,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>25</v>
@@ -2853,7 +2834,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>31</v>
@@ -2864,7 +2845,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>92</v>
@@ -2875,10 +2856,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>8</v>
@@ -2886,7 +2867,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>12</v>
@@ -2897,7 +2878,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>20</v>
@@ -2908,7 +2889,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>7</v>
@@ -2919,7 +2900,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>7</v>
@@ -2930,7 +2911,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>7</v>
@@ -2941,18 +2922,18 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>18</v>
@@ -2963,10 +2944,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>8</v>
@@ -2974,7 +2955,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>43</v>
@@ -2985,18 +2966,18 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>43</v>
@@ -3007,29 +2988,29 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>43</v>
@@ -3040,7 +3021,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>43</v>
@@ -3051,7 +3032,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>43</v>
@@ -3062,7 +3043,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>43</v>
@@ -3073,7 +3054,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>7</v>
@@ -3084,7 +3065,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>43</v>
@@ -3095,7 +3076,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>43</v>
@@ -3106,7 +3087,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>43</v>
@@ -3117,7 +3098,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>43</v>
@@ -3128,7 +3109,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>43</v>
@@ -3139,7 +3120,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>7</v>
@@ -3150,7 +3131,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>7</v>
@@ -3161,7 +3142,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>7</v>
@@ -3172,7 +3153,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>112</v>
@@ -3183,7 +3164,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>123</v>
@@ -3194,7 +3175,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>47</v>
@@ -3205,7 +3186,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>43</v>
@@ -3216,7 +3197,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>90</v>
@@ -3227,7 +3208,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>52</v>
@@ -3238,7 +3219,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>52</v>
@@ -3249,7 +3230,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>92</v>
@@ -3260,7 +3241,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>153</v>
@@ -3271,7 +3252,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>153</v>
@@ -3282,7 +3263,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>153</v>
@@ -3293,10 +3274,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B159" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>8</v>
@@ -3304,7 +3285,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>7</v>
@@ -3315,10 +3296,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>8</v>
@@ -3326,7 +3307,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>43</v>
@@ -3337,7 +3318,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>43</v>
@@ -3348,7 +3329,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>43</v>
@@ -3359,10 +3340,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>71</v>
@@ -3370,10 +3351,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>8</v>
@@ -3381,10 +3362,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>8</v>
@@ -3392,7 +3373,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>18</v>
@@ -3403,7 +3384,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>153</v>
@@ -3414,7 +3395,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>31</v>
@@ -3425,7 +3406,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>31</v>
@@ -3436,7 +3417,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>43</v>
@@ -3447,7 +3428,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>43</v>
@@ -3458,7 +3439,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>31</v>
@@ -3469,7 +3450,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>31</v>
@@ -3480,18 +3461,18 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>31</v>
@@ -3502,7 +3483,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>31</v>
@@ -3513,7 +3494,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>47</v>
@@ -3524,7 +3505,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>90</v>
@@ -3535,7 +3516,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>153</v>
@@ -3546,7 +3527,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>76</v>
@@ -3557,7 +3538,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>43</v>
@@ -3568,7 +3549,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>43</v>
@@ -3579,7 +3560,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>43</v>
@@ -3590,7 +3571,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>43</v>
@@ -3601,7 +3582,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>43</v>
@@ -3612,7 +3593,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>92</v>
@@ -3623,7 +3604,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>92</v>
@@ -3634,7 +3615,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>16</v>
@@ -3645,7 +3626,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>33</v>
@@ -3656,7 +3637,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>52</v>
@@ -3667,7 +3648,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>20</v>
@@ -3678,7 +3659,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>47</v>
@@ -3689,7 +3670,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>47</v>
@@ -3700,7 +3681,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>47</v>
@@ -3711,7 +3692,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>43</v>
@@ -3722,10 +3703,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>8</v>
@@ -3733,10 +3714,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>26</v>
@@ -3744,10 +3725,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>41</v>
@@ -3755,7 +3736,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>25</v>
@@ -3766,7 +3747,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>25</v>
@@ -3777,7 +3758,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>55</v>
@@ -3788,7 +3769,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>55</v>
@@ -3799,7 +3780,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>25</v>
@@ -3810,7 +3791,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>25</v>
@@ -3821,7 +3802,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>25</v>
@@ -3832,7 +3813,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>25</v>
@@ -3843,7 +3824,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>25</v>
@@ -3854,7 +3835,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>25</v>
@@ -3865,21 +3846,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>8</v>
@@ -3887,7 +3868,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>90</v>
@@ -3898,7 +3879,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>70</v>
@@ -3909,10 +3890,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>71</v>
@@ -3920,7 +3901,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>43</v>
@@ -3931,7 +3912,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>31</v>
@@ -3942,7 +3923,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>47</v>
@@ -3953,7 +3934,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>43</v>
@@ -3964,7 +3945,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>153</v>
@@ -3975,7 +3956,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>18</v>
@@ -3986,10 +3967,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>39</v>
@@ -3997,7 +3978,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>25</v>
@@ -4008,7 +3989,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>43</v>
@@ -4019,7 +4000,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>103</v>
@@ -4030,10 +4011,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>8</v>
@@ -4041,10 +4022,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>41</v>
@@ -4052,7 +4033,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>47</v>
@@ -4063,7 +4044,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>153</v>
@@ -4074,7 +4055,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>153</v>
@@ -4085,7 +4066,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>25</v>
@@ -4096,7 +4077,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>43</v>
@@ -4107,7 +4088,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>43</v>
@@ -4118,7 +4099,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>90</v>
@@ -4129,7 +4110,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>90</v>
@@ -4140,7 +4121,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>90</v>
@@ -4151,10 +4132,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="C237" s="9">
         <v>300</v>
@@ -4162,7 +4143,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>25</v>
@@ -4173,7 +4154,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>25</v>
@@ -4184,7 +4165,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>18</v>
@@ -4195,7 +4176,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>62</v>
@@ -4206,7 +4187,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>62</v>
@@ -4217,10 +4198,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>35</v>
@@ -4228,7 +4209,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>153</v>
@@ -4239,29 +4220,29 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>55</v>
@@ -4272,18 +4253,18 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>25</v>
@@ -4294,29 +4275,29 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>25</v>
@@ -4327,7 +4308,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>31</v>
@@ -4338,7 +4319,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>31</v>
@@ -4349,7 +4330,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>31</v>
@@ -4360,29 +4341,29 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>25</v>
@@ -4393,7 +4374,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>47</v>
@@ -4412,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="DQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="ED6" sqref="ED6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4738,466 +4719,466 @@
         <v>155</v>
       </c>
       <c r="DB1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="DC1" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DD1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="DD1" s="14" t="s">
+      <c r="DE1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DF1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="DG1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="DF1" s="14" t="s">
+      <c r="DH1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="DG1" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="DH1" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="DI1" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DJ1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="DJ1" s="14" t="s">
-        <v>165</v>
-      </c>
       <c r="DK1" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="DL1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="DM1" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DN1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="DN1" s="14" t="s">
+      <c r="DO1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DP1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="DP1" s="14" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="DQ1" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="DR1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS1" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DT1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="DT1" s="14" t="s">
+      <c r="DU1" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DV1" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="DV1" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="DW1" s="13" t="s">
-        <v>180</v>
-      </c>
       <c r="DX1" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="DY1" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="DY1" s="13" t="s">
-        <v>183</v>
-      </c>
       <c r="DZ1" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="EA1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="EA1" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="EB1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="EC1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="EC1" s="15" t="s">
+      <c r="ED1" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="ED1" s="14" t="s">
+      <c r="EE1" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="EE1" s="15" t="s">
+      <c r="EF1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="EF1" s="15" t="s">
+      <c r="EG1" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="EH1" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="EG1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="EH1" s="14" t="s">
+      <c r="EI1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="EI1" s="13" t="s">
+      <c r="EJ1" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="EJ1" s="14" t="s">
+      <c r="EK1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="EK1" s="13" t="s">
+      <c r="EL1" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="EM1" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="EL1" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="EM1" s="13" t="s">
+      <c r="EN1" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="EN1" s="14" t="s">
+      <c r="EO1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="EO1" s="15" t="s">
+      <c r="EP1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="EP1" s="14" t="s">
+      <c r="EQ1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="EQ1" s="13" t="s">
+      <c r="ER1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="ER1" s="14" t="s">
+      <c r="ES1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="ES1" s="13" t="s">
+      <c r="ET1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="ET1" s="14" t="s">
+      <c r="EU1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="EU1" s="13" t="s">
+      <c r="EV1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="EV1" s="14" t="s">
+      <c r="EW1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="EW1" s="13" t="s">
+      <c r="EX1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="EY1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="EX1" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="EY1" s="13" t="s">
+      <c r="EZ1" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="EZ1" s="14" t="s">
+      <c r="FA1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="FA1" s="13" t="s">
+      <c r="FB1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="FC1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="FB1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="FC1" s="13" t="s">
-        <v>211</v>
-      </c>
       <c r="FD1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="FE1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="FE1" s="13" t="s">
-        <v>214</v>
-      </c>
       <c r="FF1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="FG1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="FH1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="FI1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="FG1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="FH1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="FI1" s="13" t="s">
-        <v>217</v>
-      </c>
       <c r="FJ1" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="FK1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="FK1" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="FL1" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="FM1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="FM1" s="13" t="s">
+      <c r="FN1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="FN1" s="14" t="s">
+      <c r="FO1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="FO1" s="13" t="s">
+      <c r="FP1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="FP1" s="14" t="s">
+      <c r="FQ1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="FR1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="FQ1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="FR1" s="14" t="s">
+      <c r="FS1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="FS1" s="13" t="s">
+      <c r="FT1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="FT1" s="14" t="s">
-        <v>229</v>
-      </c>
       <c r="FU1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="FV1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="FV1" s="14" t="s">
+      <c r="FW1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="FW1" s="13" t="s">
+      <c r="FX1" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="FX1" s="14" t="s">
+      <c r="FY1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="FY1" s="13" t="s">
+      <c r="FZ1" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="FZ1" s="14" t="s">
+      <c r="GA1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="GA1" s="13" t="s">
+      <c r="GB1" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="GB1" s="14" t="s">
+      <c r="GC1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="GC1" s="13" t="s">
+      <c r="GD1" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="GD1" s="14" t="s">
+      <c r="GE1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="GE1" s="13" t="s">
+      <c r="GF1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="GF1" s="15" t="s">
+      <c r="GG1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="GG1" s="13" t="s">
+      <c r="GH1" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="GH1" s="15" t="s">
+      <c r="GI1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="GI1" s="13" t="s">
+      <c r="GJ1" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="GJ1" s="14" t="s">
+      <c r="GK1" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="GK1" s="13" t="s">
+      <c r="GL1" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="GL1" s="14" t="s">
+      <c r="GM1" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="GM1" s="13" t="s">
+      <c r="GN1" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="GO1" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="GN1" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="GO1" s="13" t="s">
+      <c r="GP1" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="GP1" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="GQ1" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="GR1" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="GR1" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="GS1" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="GT1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="GT1" s="15" t="s">
+      <c r="GU1" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="GU1" s="13" t="s">
+      <c r="GV1" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="GV1" s="14" t="s">
+      <c r="GW1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="GW1" s="13" t="s">
+      <c r="GX1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="GX1" s="14" t="s">
+      <c r="GY1" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="GZ1" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="GY1" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="GZ1" s="14" t="s">
+      <c r="HA1" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="HA1" s="13" t="s">
+      <c r="HB1" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="HB1" s="14" t="s">
+      <c r="HC1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="HC1" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="HD1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="HE1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="HE1" s="13" t="s">
+      <c r="HF1" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="HF1" s="14" t="s">
+      <c r="HG1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="HG1" s="13" t="s">
-        <v>270</v>
-      </c>
       <c r="HH1" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="HI1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="HI1" s="13" t="s">
+      <c r="HJ1" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="HJ1" s="14" t="s">
+      <c r="HK1" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="HK1" s="13" t="s">
+      <c r="HL1" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="HL1" s="14" t="s">
+      <c r="HM1" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="HM1" s="13" t="s">
+      <c r="HN1" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="HN1" s="14" t="s">
-        <v>278</v>
-      </c>
       <c r="HO1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="HP1" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="HP1" s="14" t="s">
+      <c r="HQ1" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="HQ1" s="13" t="s">
+      <c r="HR1" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="HR1" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="HS1" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="HT1" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="HU1" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="HU1" s="13" t="s">
+      <c r="HV1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="HW1" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="HV1" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="HW1" s="13" t="s">
+      <c r="HX1" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="HX1" s="14" t="s">
+      <c r="HY1" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="HY1" s="13" t="s">
+      <c r="HZ1" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="HZ1" s="14" t="s">
+      <c r="IA1" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="IA1" s="13" t="s">
+      <c r="IB1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="IC1" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="IB1" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="IC1" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="ID1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="IE1" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="IE1" s="13" t="s">
+      <c r="IF1" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="IF1" s="14" t="s">
+      <c r="IG1" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="IG1" s="13" t="s">
+      <c r="IH1" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="II1" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="IH1" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="II1" s="13" t="s">
+      <c r="IJ1" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="IJ1" s="14" t="s">
+      <c r="IK1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="IL1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="IK1" s="13" t="s">
+      <c r="IM1" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="IL1" s="14" t="s">
+      <c r="IN1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="IM1" s="13" t="s">
+      <c r="IO1" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="IN1" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="IO1" s="13" t="s">
-        <v>303</v>
-      </c>
       <c r="IP1" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="IQ1" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="IR1" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="IS1" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="IT1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="IT1" s="14" t="s">
+      <c r="IU1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="IU1" s="13" t="s">
+      <c r="IV1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="IV1" s="14" t="s">
-        <v>310</v>
-      </c>
       <c r="IW1" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="IX1" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="IY1" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:259" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -5532,16 +5513,16 @@
         <v>25</v>
       </c>
       <c r="DG2" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DI2" s="13" t="s">
         <v>52</v>
       </c>
       <c r="DJ2" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DK2" s="13" t="s">
         <v>25</v>
@@ -5562,7 +5543,7 @@
         <v>92</v>
       </c>
       <c r="DQ2" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DR2" s="13" t="s">
         <v>12</v>
@@ -5586,7 +5567,7 @@
         <v>18</v>
       </c>
       <c r="DY2" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="DZ2" s="13" t="s">
         <v>43</v>
@@ -5676,13 +5657,13 @@
         <v>153</v>
       </c>
       <c r="FC2" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="FD2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="FE2" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FF2" s="13" t="s">
         <v>43</v>
@@ -5694,13 +5675,13 @@
         <v>43</v>
       </c>
       <c r="FI2" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="FJ2" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="FK2" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="FL2" s="13" t="s">
         <v>18</v>
@@ -5793,13 +5774,13 @@
         <v>43</v>
       </c>
       <c r="GP2" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="GQ2" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="GR2" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="GS2" s="13" t="s">
         <v>25</v>
@@ -5835,7 +5816,7 @@
         <v>25</v>
       </c>
       <c r="HD2" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="HE2" s="13" t="s">
         <v>90</v>
@@ -5844,7 +5825,7 @@
         <v>70</v>
       </c>
       <c r="HG2" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="HH2" s="13" t="s">
         <v>43</v>
@@ -5865,7 +5846,7 @@
         <v>18</v>
       </c>
       <c r="HN2" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="HO2" s="13" t="s">
         <v>25</v>
@@ -5877,10 +5858,10 @@
         <v>103</v>
       </c>
       <c r="HR2" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="HS2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="HT2" s="13" t="s">
         <v>47</v>
@@ -5910,7 +5891,7 @@
         <v>90</v>
       </c>
       <c r="IC2" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="ID2" s="13" t="s">
         <v>25</v>
@@ -5928,7 +5909,7 @@
         <v>62</v>
       </c>
       <c r="II2" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="IJ2" s="13" t="s">
         <v>153</v>
@@ -5983,23 +5964,23 @@
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>400</v>
-      </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="7">
-        <v>600</v>
-      </c>
-      <c r="F3" s="4">
-        <v>400</v>
-      </c>
-      <c r="G3" s="7">
-        <v>400</v>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>8</v>
@@ -6013,20 +5994,20 @@
       <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="4">
-        <v>400</v>
-      </c>
-      <c r="M3" s="7">
-        <v>500</v>
-      </c>
-      <c r="N3" s="4">
-        <v>400</v>
-      </c>
-      <c r="O3" s="7">
-        <v>600</v>
-      </c>
-      <c r="P3" s="4">
-        <v>600</v>
+      <c r="L3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>35</v>
@@ -6040,8 +6021,8 @@
       <c r="T3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="9">
-        <v>600</v>
+      <c r="U3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="V3" s="8">
         <v>700</v>
@@ -6058,14 +6039,14 @@
       <c r="Z3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="7">
-        <v>400</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>500</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>500</v>
+      <c r="AA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>23</v>
@@ -6076,14 +6057,14 @@
       <c r="AF3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="9">
-        <v>400</v>
+      <c r="AG3" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="7">
-        <v>500</v>
+      <c r="AI3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>41</v>
@@ -6103,50 +6084,50 @@
       <c r="AO3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AP3" s="4">
-        <v>400</v>
+      <c r="AP3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="AQ3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AR3" s="4">
-        <v>400</v>
-      </c>
-      <c r="AS3" s="9">
-        <v>400</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>500</v>
-      </c>
-      <c r="AU3" s="7">
-        <v>500</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>600</v>
+      <c r="AR3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="AW3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AX3" s="4">
-        <v>600</v>
+      <c r="AX3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="AY3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AZ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="BA3" s="7">
-        <v>400</v>
+      <c r="AZ3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BB3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BC3" s="7">
-        <v>400</v>
-      </c>
-      <c r="BD3" s="4">
-        <v>400</v>
+      <c r="BC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="BE3" s="7" t="s">
         <v>35</v>
@@ -6158,8 +6139,8 @@
         <v>26</v>
       </c>
       <c r="BH3" s="8"/>
-      <c r="BI3" s="7">
-        <v>400</v>
+      <c r="BI3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BJ3" s="4" t="s">
         <v>8</v>
@@ -6176,8 +6157,8 @@
       <c r="BN3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BO3" s="9">
-        <v>500</v>
+      <c r="BO3" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="BP3" s="4" t="s">
         <v>108</v>
@@ -6188,8 +6169,8 @@
       <c r="BR3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BS3" s="9">
-        <v>600</v>
+      <c r="BS3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="BT3" s="4" t="s">
         <v>71</v>
@@ -6200,8 +6181,8 @@
       <c r="BV3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BW3" s="7">
-        <v>400</v>
+      <c r="BW3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="BX3" s="4" t="s">
         <v>8</v>
@@ -6209,17 +6190,17 @@
       <c r="BY3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="BZ3" s="4">
-        <v>500</v>
+      <c r="BZ3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="CA3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="CB3" s="4">
-        <v>400</v>
-      </c>
-      <c r="CC3" s="7">
-        <v>400</v>
+      <c r="CB3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="CD3" s="4" t="s">
         <v>8</v>
@@ -6236,11 +6217,11 @@
       <c r="CH3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CI3" s="9">
-        <v>400</v>
-      </c>
-      <c r="CJ3" s="8">
-        <v>400</v>
+      <c r="CI3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="CK3" s="7" t="s">
         <v>26</v>
@@ -6251,38 +6232,38 @@
       <c r="CM3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="CN3" s="4">
-        <v>500</v>
+      <c r="CN3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="CO3" s="7">
         <v>300</v>
       </c>
-      <c r="CP3" s="4">
-        <v>400</v>
-      </c>
-      <c r="CQ3" s="7">
-        <v>600</v>
-      </c>
-      <c r="CR3" s="8">
-        <v>400</v>
-      </c>
-      <c r="CS3" s="9">
-        <v>500</v>
-      </c>
-      <c r="CT3" s="4">
-        <v>400</v>
-      </c>
-      <c r="CU3" s="7">
-        <v>400</v>
-      </c>
-      <c r="CV3" s="4">
-        <v>500</v>
-      </c>
-      <c r="CW3" s="7">
-        <v>400</v>
-      </c>
-      <c r="CX3" s="4">
-        <v>600</v>
+      <c r="CP3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="CT3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="CW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="CY3" s="7" t="s">
         <v>35</v>
@@ -6291,10 +6272,10 @@
         <v>35</v>
       </c>
       <c r="DA3" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB3" s="8">
-        <v>400</v>
+        <v>317</v>
+      </c>
+      <c r="DB3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="DC3" s="7" t="s">
         <v>8</v>
@@ -6312,16 +6293,16 @@
         <v>28</v>
       </c>
       <c r="DH3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI3" s="9">
-        <v>600</v>
+        <v>162</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="DJ3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="DK3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="DL3" s="4" t="s">
         <v>35</v>
@@ -6329,14 +6310,14 @@
       <c r="DM3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="DN3" s="4">
-        <v>400</v>
+      <c r="DN3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="DO3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="DP3" s="4">
-        <v>400</v>
+      <c r="DP3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="DQ3" s="7" t="s">
         <v>8</v>
@@ -6344,8 +6325,8 @@
       <c r="DR3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="DS3" s="7">
-        <v>400</v>
+      <c r="DS3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="DT3" s="4" t="s">
         <v>26</v>
@@ -6357,7 +6338,7 @@
         <v>118</v>
       </c>
       <c r="DW3" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="DX3" s="4" t="s">
         <v>26</v>
@@ -6369,14 +6350,16 @@
         <v>8</v>
       </c>
       <c r="EA3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="EB3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="EC3" s="9"/>
+      <c r="EC3" s="9" t="s">
+        <v>316</v>
+      </c>
       <c r="ED3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="EE3" s="9">
         <v>850</v>
@@ -6402,8 +6385,8 @@
       <c r="EL3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="EM3" s="7">
-        <v>400</v>
+      <c r="EM3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="EN3" s="4" t="s">
         <v>71</v>
@@ -6411,8 +6394,8 @@
       <c r="EO3" s="9">
         <v>700</v>
       </c>
-      <c r="EP3" s="4">
-        <v>400</v>
+      <c r="EP3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="EQ3" s="7" t="s">
         <v>26</v>
@@ -6429,8 +6412,8 @@
       <c r="EU3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="EV3" s="4">
-        <v>400</v>
+      <c r="EV3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="EW3" s="7" t="s">
         <v>41</v>
@@ -6438,11 +6421,11 @@
       <c r="EX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="EY3" s="7">
-        <v>400</v>
-      </c>
-      <c r="EZ3" s="4">
-        <v>400</v>
+      <c r="EY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="EZ3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="FA3" s="7" t="s">
         <v>8</v>
@@ -6456,8 +6439,8 @@
       <c r="FD3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="FE3" s="7">
-        <v>400</v>
+      <c r="FE3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="FF3" s="4" t="s">
         <v>8</v>
@@ -6474,11 +6457,11 @@
       <c r="FJ3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FK3" s="7">
-        <v>400</v>
-      </c>
-      <c r="FL3" s="4">
-        <v>600</v>
+      <c r="FK3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FL3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="FM3" s="7" t="s">
         <v>8</v>
@@ -6495,14 +6478,14 @@
       <c r="FQ3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="FR3" s="4">
-        <v>400</v>
+      <c r="FR3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="FS3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="FT3" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="FU3" s="7" t="s">
         <v>8</v>
@@ -6516,20 +6499,20 @@
       <c r="FX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="FY3" s="7">
-        <v>400</v>
-      </c>
-      <c r="FZ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GA3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GB3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GC3" s="7">
-        <v>400</v>
+      <c r="FY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FZ3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="GA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GB3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="GC3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="GD3" s="4" t="s">
         <v>66</v>
@@ -6537,23 +6520,23 @@
       <c r="GE3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="GF3" s="8">
-        <v>400</v>
-      </c>
-      <c r="GG3" s="7">
-        <v>400</v>
+      <c r="GF3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GG3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="GH3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="GI3" s="7">
-        <v>400</v>
-      </c>
-      <c r="GJ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GK3" s="7">
-        <v>400</v>
+      <c r="GI3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="GK3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="GL3" s="4" t="s">
         <v>8</v>
@@ -6567,20 +6550,20 @@
       <c r="GO3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="GP3" s="4">
-        <v>400</v>
-      </c>
-      <c r="GQ3" s="7">
-        <v>500</v>
+      <c r="GP3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="GR3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="GS3" s="9">
-        <v>400</v>
-      </c>
-      <c r="GT3" s="8">
-        <v>600</v>
+      <c r="GS3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="GT3" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="GU3" s="7" t="s">
         <v>121</v>
@@ -6603,14 +6586,14 @@
       <c r="HA3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="HB3" s="4">
-        <v>600</v>
+      <c r="HB3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="HC3" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="HD3" s="4">
-        <v>400</v>
+        <v>265</v>
+      </c>
+      <c r="HD3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="HE3" s="7" t="s">
         <v>39</v>
@@ -6648,8 +6631,8 @@
       <c r="HP3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="HQ3" s="7">
-        <v>400</v>
+      <c r="HQ3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="HR3" s="4" t="s">
         <v>8</v>
@@ -6660,8 +6643,8 @@
       <c r="HT3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HU3" s="7">
-        <v>500</v>
+      <c r="HU3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="HV3" s="4">
         <v>300</v>
@@ -6672,14 +6655,14 @@
       <c r="HX3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="HY3" s="7">
-        <v>400</v>
-      </c>
-      <c r="HZ3" s="4">
-        <v>400</v>
-      </c>
-      <c r="IA3" s="7">
-        <v>400</v>
+      <c r="HY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HZ3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="IA3" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="IB3" s="4" t="s">
         <v>41</v>
@@ -6693,8 +6676,8 @@
       <c r="IE3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="IF3" s="4">
-        <v>400</v>
+      <c r="IF3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="IG3" s="7" t="s">
         <v>26</v>
@@ -6702,32 +6685,32 @@
       <c r="IH3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="II3" s="7">
-        <v>600</v>
+      <c r="II3" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="IJ3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="IK3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="IL3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="IM3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="IN3" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="IO3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="IP3" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="IO3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="IP3" s="4" t="s">
+      <c r="IQ3" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="IQ3" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="IR3" s="4" t="s">
         <v>28</v>
@@ -6742,10 +6725,10 @@
         <v>35</v>
       </c>
       <c r="IV3" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="IW3" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="IW3" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="IX3" s="4" t="s">
         <v>71</v>
@@ -6756,7 +6739,7 @@
     </row>
     <row r="4" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09199394-EC72-436B-ABB8-7EACCA490196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750F714-DBE9-427F-89A8-069D615ADDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="일정" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="321">
   <si>
     <t>고객사</t>
   </si>
@@ -973,6 +973,16 @@
   </si>
   <si>
     <t>A400, A600</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1116,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,6 +1172,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1500,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C259"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H246" sqref="H246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1774,8 +1793,8 @@
       <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="8">
-        <v>700</v>
+      <c r="C22" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2170,8 +2189,8 @@
       <c r="B58" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="4">
-        <v>300</v>
+      <c r="C58" s="17" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2192,7 +2211,9 @@
       <c r="B60" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
@@ -2553,8 +2574,8 @@
       <c r="B93" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="7">
-        <v>300</v>
+      <c r="C93" s="18" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -3015,8 +3036,8 @@
       <c r="B135" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C135" s="9">
-        <v>850</v>
+      <c r="C135" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3070,8 +3091,8 @@
       <c r="B140" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C140" s="4">
-        <v>700</v>
+      <c r="C140" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3125,8 +3146,8 @@
       <c r="B145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C145" s="9">
-        <v>700</v>
+      <c r="C145" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,8 +4081,8 @@
       <c r="B230" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C230" s="4">
-        <v>300</v>
+      <c r="C230" s="17" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4137,8 +4158,8 @@
       <c r="B237" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C237" s="9">
-        <v>300</v>
+      <c r="C237" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4393,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="ED6" sqref="ED6"/>
+    <sheetView topLeftCell="EE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EO12" sqref="EO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6024,8 +6045,8 @@
       <c r="U3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="8">
-        <v>700</v>
+      <c r="V3" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>23</v>
@@ -6132,13 +6153,15 @@
       <c r="BE3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BF3" s="4">
-        <v>300</v>
+      <c r="BF3" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="BG3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BH3" s="8"/>
+      <c r="BH3" s="8" t="s">
+        <v>320</v>
+      </c>
       <c r="BI3" s="7" t="s">
         <v>8</v>
       </c>
@@ -6235,8 +6258,8 @@
       <c r="CN3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="CO3" s="7">
-        <v>300</v>
+      <c r="CO3" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="CP3" s="4" t="s">
         <v>8</v>
@@ -6361,8 +6384,8 @@
       <c r="ED3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="EE3" s="9">
-        <v>850</v>
+      <c r="EE3" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="EF3" s="8" t="s">
         <v>35</v>
@@ -6376,8 +6399,8 @@
       <c r="EI3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="EJ3" s="4">
-        <v>700</v>
+      <c r="EJ3" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="EK3" s="7" t="s">
         <v>26</v>
@@ -6391,8 +6414,8 @@
       <c r="EN3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="EO3" s="9">
-        <v>700</v>
+      <c r="EO3" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="EP3" s="4" t="s">
         <v>8</v>
@@ -6646,8 +6669,8 @@
       <c r="HU3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="HV3" s="4">
-        <v>300</v>
+      <c r="HV3" s="17" t="s">
+        <v>318</v>
       </c>
       <c r="HW3" s="7" t="s">
         <v>8</v>
@@ -6667,8 +6690,8 @@
       <c r="IB3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="IC3" s="9">
-        <v>300</v>
+      <c r="IC3" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="ID3" s="4" t="s">
         <v>35</v>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6750F714-DBE9-427F-89A8-069D615ADDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{988D3161-6A92-45B6-9D52-C3FD60C98A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H246" sqref="H246"/>
+    <sheetView tabSelected="1" topLeftCell="A225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1530,10 +1530,9 @@
     <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1552,12 +1551,8 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1594,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1610,7 +1605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1632,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1665,7 +1660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +1693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -1709,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F134BD72-EBB4-406D-B510-0E545561AD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDECDF-0C00-418B-B302-074F8D8ED1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3EBF27A3-FC62-4D99-9C22-70FCF9A745DD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="319">
   <si>
     <t>고객사</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>A400</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
   </si>
   <si>
     <t>ADD 400</t>
@@ -1553,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E91487A-EA7C-4212-800A-67E4D4E41531}">
   <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1597,55 +1591,47 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6">
-        <v>6</v>
-      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1653,10 +1639,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -1664,10 +1650,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -1675,43 +1661,43 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1719,21 +1705,21 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -1741,142 +1727,142 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>8</v>
@@ -1884,43 +1870,43 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>8</v>
@@ -1928,21 +1914,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>8</v>
@@ -1950,10 +1936,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
@@ -1961,84 +1947,84 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>7</v>
@@ -2049,21 +2035,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>8</v>
@@ -2071,10 +2057,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>8</v>
@@ -2082,65 +2068,65 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>8</v>
@@ -2148,10 +2134,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>8</v>
@@ -2159,10 +2145,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>8</v>
@@ -2170,21 +2156,21 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>8</v>
@@ -2192,10 +2178,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>8</v>
@@ -2203,54 +2189,54 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>8</v>
@@ -2258,7 +2244,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
@@ -2269,43 +2255,43 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>8</v>
@@ -2313,98 +2299,98 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>8</v>
@@ -2412,10 +2398,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
@@ -2423,43 +2409,43 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>8</v>
@@ -2467,10 +2453,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>8</v>
@@ -2478,10 +2464,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>8</v>
@@ -2489,54 +2475,54 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>8</v>
@@ -2544,10 +2530,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>8</v>
@@ -2555,65 +2541,65 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>8</v>
@@ -2621,21 +2607,21 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>8</v>
@@ -2643,21 +2629,21 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
@@ -2665,10 +2651,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>8</v>
@@ -2676,21 +2662,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>8</v>
@@ -2698,54 +2684,54 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>8</v>
@@ -2753,10 +2739,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>8</v>
@@ -2764,32 +2750,32 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>8</v>
@@ -2797,87 +2783,87 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>8</v>
@@ -2885,10 +2871,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>8</v>
@@ -2896,10 +2882,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>8</v>
@@ -2907,10 +2893,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>8</v>
@@ -2918,10 +2904,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>8</v>
@@ -2929,10 +2915,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>8</v>
@@ -2940,65 +2926,65 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>8</v>
@@ -3006,10 +2992,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>8</v>
@@ -3017,76 +3003,76 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>8</v>
@@ -3094,65 +3080,65 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>8</v>
@@ -3160,29 +3146,29 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>7</v>
@@ -3193,32 +3179,32 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>8</v>
@@ -3226,10 +3212,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>8</v>
@@ -3237,21 +3223,21 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>8</v>
@@ -3259,21 +3245,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>8</v>
@@ -3281,10 +3267,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>8</v>
@@ -3292,10 +3278,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>8</v>
@@ -3303,10 +3289,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>8</v>
@@ -3314,21 +3300,21 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>8</v>
@@ -3336,21 +3322,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>8</v>
@@ -3358,10 +3344,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>8</v>
@@ -3369,43 +3355,43 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>8</v>
@@ -3413,10 +3399,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>8</v>
@@ -3424,21 +3410,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>8</v>
@@ -3446,10 +3432,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>8</v>
@@ -3457,43 +3443,43 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>8</v>
@@ -3501,32 +3487,32 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>8</v>
@@ -3534,21 +3520,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>8</v>
@@ -3556,10 +3542,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>8</v>
@@ -3567,10 +3553,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>8</v>
@@ -3578,10 +3564,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>8</v>
@@ -3589,10 +3575,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>8</v>
@@ -3600,10 +3586,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>8</v>
@@ -3611,10 +3597,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>8</v>
@@ -3622,32 +3608,32 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>8</v>
@@ -3655,10 +3641,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>8</v>
@@ -3666,10 +3652,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>8</v>
@@ -3677,10 +3663,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>8</v>
@@ -3688,10 +3674,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>8</v>
@@ -3699,10 +3685,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>8</v>
@@ -3710,10 +3696,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>8</v>
@@ -3721,43 +3707,43 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>8</v>
@@ -3765,32 +3751,32 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>8</v>
@@ -3798,54 +3784,54 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>8</v>
@@ -3853,10 +3839,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>8</v>
@@ -3864,21 +3850,21 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>8</v>
@@ -3886,32 +3872,32 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>8</v>
@@ -3919,43 +3905,43 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>8</v>
@@ -3963,54 +3949,54 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>8</v>
@@ -4018,43 +4004,43 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>8</v>
@@ -4062,10 +4048,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>8</v>
@@ -4073,21 +4059,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>8</v>
@@ -4095,32 +4081,32 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>8</v>
@@ -4128,10 +4114,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>8</v>
@@ -4139,10 +4125,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>8</v>
@@ -4150,10 +4136,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>8</v>
@@ -4161,10 +4147,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>8</v>
@@ -4172,54 +4158,54 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>8</v>
@@ -4227,43 +4213,43 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>8</v>
@@ -4271,54 +4257,54 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>8</v>
@@ -4326,112 +4312,112 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C250" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C257" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4445,7 +4431,7 @@
   <dimension ref="A1:IY4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4463,775 +4449,775 @@
         <v>6</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="M1" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>39</v>
-      </c>
       <c r="T1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="X1" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="AC1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AG1" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="AH1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AJ1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="AL1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AO1" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AS1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AT1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AW1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AU1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW1" s="16" t="s">
+      <c r="AX1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AY1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="BA1" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BC1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="BC1" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="BD1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BF1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="BF1" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="BG1" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BH1" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BI1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BK1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="BJ1" s="17" t="s">
+      <c r="BL1" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BM1" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="BL1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BN1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BN1" s="17" t="s">
+      <c r="BO1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="BO1" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="BP1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BQ1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BR1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="BQ1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="BR1" s="17" t="s">
+      <c r="BS1" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="BS1" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="BT1" s="17" t="s">
+      <c r="BU1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BV1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BX1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BY1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="BX1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="BY1" s="16" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BZ1" s="17" t="s">
-        <v>123</v>
-      </c>
       <c r="CA1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="CB1" s="17" t="s">
+      <c r="CC1" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="CC1" s="16" t="s">
+      <c r="CD1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE1" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="CD1" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE1" s="16" t="s">
+      <c r="CF1" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="CF1" s="17" t="s">
+      <c r="CG1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CH1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="CG1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="CH1" s="17" t="s">
+      <c r="CI1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="CI1" s="18" t="s">
+      <c r="CJ1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="CJ1" s="18" t="s">
+      <c r="CK1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="CK1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="CL1" s="17" t="s">
+      <c r="CM1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="CM1" s="16" t="s">
+      <c r="CN1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO1" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="CN1" s="17" t="s">
+      <c r="CP1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="CO1" s="16" t="s">
+      <c r="CQ1" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="CP1" s="17" t="s">
+      <c r="CR1" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="CQ1" s="16" t="s">
+      <c r="CS1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="CR1" s="18" t="s">
+      <c r="CT1" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="CS1" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="CT1" s="17" t="s">
+      <c r="CU1" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="CU1" s="16" t="s">
+      <c r="CV1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="CV1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="CW1" s="16" t="s">
+      <c r="CX1" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="CX1" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="CY1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="CZ1" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="CZ1" s="17" t="s">
-        <v>158</v>
-      </c>
       <c r="DA1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="DB1" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="DB1" s="18" t="s">
+      <c r="DC1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="DC1" s="16" t="s">
+      <c r="DE1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="DD1" s="17" t="s">
+      <c r="DF1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="DG1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="DE1" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="DF1" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="DG1" s="16" t="s">
-        <v>165</v>
-      </c>
       <c r="DH1" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DI1" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="DJ1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="DK1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="DK1" s="16" t="s">
+      <c r="DL1" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="DL1" s="17" t="s">
+      <c r="DM1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN1" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="DM1" s="16" t="s">
+      <c r="DO1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="DN1" s="17" t="s">
+      <c r="DP1" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="DO1" s="16" t="s">
+      <c r="DQ1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="DP1" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DQ1" s="16" t="s">
+      <c r="DR1" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="DR1" s="17" t="s">
+      <c r="DS1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT1" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="DS1" s="16" t="s">
+      <c r="DU1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="DT1" s="17" t="s">
+      <c r="DV1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="DW1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="DU1" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="DV1" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="DW1" s="16" t="s">
+      <c r="DX1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="DX1" s="17" t="s">
-        <v>186</v>
-      </c>
       <c r="DY1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="DZ1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="DZ1" s="17" t="s">
-        <v>189</v>
-      </c>
       <c r="EA1" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="EB1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="EB1" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="EC1" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="ED1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="ED1" s="17" t="s">
-        <v>195</v>
-      </c>
       <c r="EE1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="EF1" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="EF1" s="18" t="s">
+      <c r="EG1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="EH1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="EI1" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="EG1" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="EI1" s="16" t="s">
+      <c r="EK1" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="EM1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="EK1" s="16" t="s">
+      <c r="EN1" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="EL1" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="EM1" s="16" t="s">
+      <c r="EO1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="EO1" s="18" t="s">
+      <c r="EQ1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="EQ1" s="16" t="s">
+      <c r="ES1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="ET1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="ES1" s="16" t="s">
+      <c r="EU1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="ET1" s="17" t="s">
+      <c r="EV1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="EU1" s="16" t="s">
+      <c r="EW1" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="EY1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="EW1" s="16" t="s">
+      <c r="EZ1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="EX1" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="EY1" s="16" t="s">
+      <c r="FA1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="EZ1" s="17" t="s">
+      <c r="FB1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="FC1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="FA1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="FB1" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="FC1" s="16" t="s">
+      <c r="FD1" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="FD1" s="17" t="s">
-        <v>219</v>
-      </c>
       <c r="FE1" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="FF1" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="FF1" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="FG1" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="FH1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="FI1" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="FJ1" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="FJ1" s="17" t="s">
-        <v>225</v>
-      </c>
       <c r="FK1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="FL1" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="FL1" s="17" t="s">
+      <c r="FM1" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="FN1" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="FM1" s="16" t="s">
+      <c r="FO1" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="FN1" s="17" t="s">
+      <c r="FP1" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="FO1" s="16" t="s">
+      <c r="FQ1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="FR1" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="FP1" s="17" t="s">
+      <c r="FS1" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="FQ1" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="FR1" s="17" t="s">
+      <c r="FT1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="FS1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="FT1" s="17" t="s">
+      <c r="FU1" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="FU1" s="16" t="s">
+      <c r="FV1" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="FW1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="FV1" s="17" t="s">
+      <c r="FX1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="FW1" s="16" t="s">
+      <c r="FY1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="FX1" s="17" t="s">
+      <c r="FZ1" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="FY1" s="16" t="s">
+      <c r="GA1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="FZ1" s="17" t="s">
+      <c r="GB1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="GA1" s="16" t="s">
+      <c r="GC1" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="GB1" s="17" t="s">
+      <c r="GD1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="GC1" s="16" t="s">
+      <c r="GE1" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="GD1" s="17" t="s">
+      <c r="GF1" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="GE1" s="16" t="s">
+      <c r="GG1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="GF1" s="18" t="s">
+      <c r="GH1" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="GG1" s="16" t="s">
+      <c r="GI1" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="GH1" s="18" t="s">
+      <c r="GJ1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="GI1" s="16" t="s">
+      <c r="GK1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="GJ1" s="17" t="s">
+      <c r="GL1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="GK1" s="16" t="s">
+      <c r="GM1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="GL1" s="17" t="s">
+      <c r="GN1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="GO1" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="GM1" s="16" t="s">
+      <c r="GP1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="GN1" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="GO1" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="GP1" s="17" t="s">
+      <c r="GQ1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="GQ1" s="16" t="s">
-        <v>259</v>
-      </c>
       <c r="GR1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="GS1" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="GS1" s="18" t="s">
+      <c r="GT1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="GU1" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="GT1" s="18" t="s">
+      <c r="GV1" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="GU1" s="16" t="s">
+      <c r="GW1" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="GV1" s="17" t="s">
+      <c r="GX1" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="GW1" s="16" t="s">
+      <c r="GY1" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="GZ1" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="GX1" s="17" t="s">
+      <c r="HA1" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="GY1" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="GZ1" s="17" t="s">
+      <c r="HB1" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="HA1" s="16" t="s">
+      <c r="HC1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="HB1" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="HC1" s="16" t="s">
+      <c r="HD1" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="HD1" s="17" t="s">
+      <c r="HE1" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="HF1" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="HE1" s="16" t="s">
+      <c r="HG1" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="HF1" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="HG1" s="16" t="s">
+      <c r="HH1" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="HH1" s="17" t="s">
+      <c r="HI1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="HJ1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="HI1" s="16" t="s">
+      <c r="HK1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="HJ1" s="17" t="s">
+      <c r="HL1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="HK1" s="16" t="s">
+      <c r="HM1" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="HL1" s="17" t="s">
+      <c r="HN1" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="HM1" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="HN1" s="17" t="s">
+      <c r="HO1" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="HO1" s="16" t="s">
+      <c r="HP1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="HQ1" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="HP1" s="17" t="s">
+      <c r="HR1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="HQ1" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="HR1" s="17" t="s">
+      <c r="HS1" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="HS1" s="16" t="s">
+      <c r="HT1" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="HT1" s="17" t="s">
+      <c r="HU1" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="HV1" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="HW1" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="HU1" s="16" t="s">
+      <c r="HX1" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="HV1" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW1" s="16" t="s">
+      <c r="HY1" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="HX1" s="17" t="s">
+      <c r="HZ1" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="HY1" s="16" t="s">
+      <c r="IA1" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="HZ1" s="17" t="s">
+      <c r="IB1" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="IC1" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="IA1" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="IB1" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="IC1" s="18" t="s">
+      <c r="ID1" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="ID1" s="17" t="s">
+      <c r="IE1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="IF1" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="IE1" s="16" t="s">
+      <c r="IG1" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="IF1" s="17" t="s">
+      <c r="IH1" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="II1" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="IG1" s="16" t="s">
+      <c r="IJ1" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="IH1" s="17" t="s">
+      <c r="IK1" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="II1" s="16" t="s">
+      <c r="IL1" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="IJ1" s="17" t="s">
+      <c r="IM1" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="IN1" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="IK1" s="16" t="s">
+      <c r="IO1" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="IL1" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="IM1" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="IN1" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="IO1" s="16" t="s">
-        <v>309</v>
-      </c>
       <c r="IP1" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="IQ1" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="IR1" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="IS1" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="IT1" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="IU1" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="IT1" s="17" t="s">
+      <c r="IV1" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="IU1" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="IV1" s="17" t="s">
-        <v>316</v>
-      </c>
       <c r="IW1" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="IX1" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="IY1" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:259" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -5242,106 +5228,106 @@
         <v>7</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="Q2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W2" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="X2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="16" t="s">
         <v>7</v>
@@ -5356,7 +5342,7 @@
         <v>7</v>
       </c>
       <c r="AO2" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="16" t="s">
         <v>7</v>
@@ -5365,58 +5351,58 @@
         <v>7</v>
       </c>
       <c r="AR2" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AU2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB2" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BC2" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BD2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="BE2" s="16" t="s">
+      <c r="BF2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="BF2" s="16" t="s">
-        <v>96</v>
-      </c>
       <c r="BG2" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BI2" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BJ2" s="16" t="s">
         <v>7</v>
@@ -5428,181 +5414,181 @@
         <v>7</v>
       </c>
       <c r="BM2" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BN2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="BN2" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="BO2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BP2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BQ2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BR2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BS2" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BT2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BU2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BV2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BW2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BX2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BY2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BZ2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CA2" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="CB2" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CC2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="CD2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="CE2" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CH2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CI2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="CJ2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="CK2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="CM2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CO2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CP2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CQ2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CR2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="CT2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="CU2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="CW2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="CX2" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="CY2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CZ2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="DB2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DC2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DD2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DE2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="DF2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="DG2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="DH2" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="DI2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="DJ2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="DK2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="DL2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="DM2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="DO2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="DP2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="CF2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="CG2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CH2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CI2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="CJ2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="CK2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="CM2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="CN2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="CO2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CP2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CQ2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CR2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="CS2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT2" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="CU2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="CV2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="CW2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CX2" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="CY2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="CZ2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DA2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="DB2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="DC2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="DD2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="DE2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="DF2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="DG2" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="DH2" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="DI2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="DJ2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="DK2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="DL2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="DM2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="DN2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="DO2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="DP2" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="DQ2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DR2" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="DS2" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="DT2" s="16" t="s">
         <v>7</v>
@@ -5617,55 +5603,55 @@
         <v>7</v>
       </c>
       <c r="DX2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="DY2" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="DZ2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EA2" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="EB2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EC2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="ED2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EE2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EF2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EG2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EH2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EI2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="EJ2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EK2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EL2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EM2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EN2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EO2" s="16" t="s">
         <v>7</v>
@@ -5677,340 +5663,340 @@
         <v>7</v>
       </c>
       <c r="ER2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="ES2" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="ET2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="EU2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="EV2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="EW2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="EX2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="EY2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="EW2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="EX2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="EY2" s="16" t="s">
-        <v>94</v>
-      </c>
       <c r="EZ2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="FA2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="FB2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="FC2" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="FD2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="FE2" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="FF2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="FG2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="FH2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="FI2" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FJ2" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FK2" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="FL2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="FM2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="FN2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FO2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FP2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="FQ2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="FR2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FS2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FT2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FU2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FV2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="FW2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="FX2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="FY2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="FZ2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="GA2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GB2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GC2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GD2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GE2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GF2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="GG2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="GH2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="GI2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="GJ2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="GK2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="FM2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="FN2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FO2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FP2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="FQ2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="FR2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FS2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FT2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FU2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FV2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="FW2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="FX2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="FY2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="FZ2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="GA2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GB2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GC2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GD2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GE2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GF2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="GG2" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="GH2" s="16" t="s">
+      <c r="GL2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="GM2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="GN2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="GO2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="GP2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="GQ2" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="GR2" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="GS2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="GT2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="GU2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="GV2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="GW2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="GX2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="GY2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="GZ2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="HA2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="HB2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="HC2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="HD2" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="HE2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="HF2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="HG2" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="HH2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="HI2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="HJ2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="HK2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="HL2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="HM2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="GI2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="GJ2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="GK2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="GL2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="GM2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="GN2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="GO2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="GP2" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="GQ2" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="GR2" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="GS2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="GT2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="GU2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="GV2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="GW2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="GX2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="GY2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="GZ2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HA2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HB2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HC2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="HD2" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="HE2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="HF2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="HG2" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="HH2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="HI2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="HJ2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="HK2" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="HL2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="HM2" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="HN2" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="HO2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="HP2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="HQ2" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="HR2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="HS2" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="HS2" s="16" t="s">
-        <v>292</v>
-      </c>
       <c r="HT2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="HU2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="HV2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="HW2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="HX2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="HY2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="HZ2" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="IA2" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="IB2" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="IC2" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="ID2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IE2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IF2" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="IG2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="IH2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="II2" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="IJ2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="IK2" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="IL2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="IM2" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="IN2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IO2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IP2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IQ2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IR2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IS2" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="IT2" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="IU2" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="IV2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IW2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IX2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="IY2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6021,14 +6007,14 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6039,766 +6025,764 @@
         <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CO3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="CR3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CY3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="DB3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="DE3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="DG3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="DH3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="DK3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DM3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="7" t="s">
+      <c r="DN3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="DQ3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="DS3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DU3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="DV3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="DW3" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="DY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EA3" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="EB3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="EC3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="EE3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="EF3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="EG3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="EH3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="EI3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="EK3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="EM3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="EN3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="EO3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EP3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EQ3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="ES3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="ET3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EU3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="EV3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EW3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="EX3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="EZ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FB3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="FC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FD3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="FE3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FF3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FG3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="FH3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="FI3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="FJ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FK3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FL3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="FM3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FN3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FO3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="FP3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="FQ3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="FR3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FS3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="FT3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="FU3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FV3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="FW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FX3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="FY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="FZ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GB3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GC3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GD3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="GE3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="GF3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GG3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GH3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GI3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GK3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GL3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GM3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="GN3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="GO3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="GP3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="GR3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="GS3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="GT3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="GU3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="GV3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="GW3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="GX3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="GY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GZ3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HB3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="HC3" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="HD3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="HE3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="HF3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="HG3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="HH3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="HI3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="HJ3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="HK3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="HL3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="HM3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HN3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="HO3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="HP3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="HQ3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HR3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="HS3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="HT3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="HU3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="HV3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="HW3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HX3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="HY3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="HZ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="IA3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="IB3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="IC3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="ID3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="IE3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="IF3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="IG3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="IH3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="II3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="IJ3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="IK3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="IL3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="IM3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="IN3" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="IO3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="IP3" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="IQ3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="IR3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BC3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="BF3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BM3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BW3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CM3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CO3" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="CR3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CS3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="CU3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CW3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="CY3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="DA3" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="DB3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="DC3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="DE3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="DG3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="DI3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="DK3" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="DM3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="DO3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="DQ3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="DS3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="DU3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="DY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DZ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EA3" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="EC3" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EE3" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="EF3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="EG3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="EI3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="EK3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="EM3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="EN3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="EO3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="EP3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EQ3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="ER3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="ES3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="ET3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EU3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="EV3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EW3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="EX3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="EZ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FB3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FC3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FD3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="FE3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FF3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FG3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="FH3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="FI3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="FJ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FK3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FL3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FM3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FN3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FO3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="FP3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FQ3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="FR3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FS3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="FT3" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="FU3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FV3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="FW3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FX3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="FY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="FZ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GB3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GC3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GD3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="GE3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="GF3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="GG3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GH3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="GI3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GJ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GK3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GL3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GM3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="GN3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="GO3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GQ3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="GR3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="GS3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="GT3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="GU3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="GV3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="GW3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="GX3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="GY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GZ3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="HA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="HB3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="HC3" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="HD3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="HE3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="HF3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="HG3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="HH3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="HI3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="HJ3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="HK3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="HL3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="HM3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="HN3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="HO3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="HP3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="HQ3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="HR3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="HS3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="HT3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="HU3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="HV3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="HW3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="HX3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="HY3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="HZ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="IA3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="IB3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="IC3" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="ID3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="IE3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="IF3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="IG3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="IH3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="II3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="IJ3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="IK3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="IL3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="IM3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="IN3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="IO3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="IP3" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="IQ3" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="IR3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="IS3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="IT3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="IU3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="IV3" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="IW3" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="IX3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="IY3" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:259" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB0BD6-91C4-4E90-AD22-6CAC99B930C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D5A637-B91D-4D9F-9B21-2A3192716121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="320">
   <si>
     <t>고객사</t>
   </si>
@@ -982,6 +982,10 @@
   </si>
   <si>
     <t>충진기록</t>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1481,7 +1485,7 @@
   <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1508,7 +1512,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>236</v>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="1470" yWindow="2475" windowWidth="17775" windowHeight="6885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="일정" state="visible" r:id="rId4"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="322">
   <si>
     <t>고객사</t>
   </si>
@@ -44,6 +44,12 @@
     <t>A400</t>
   </si>
   <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
     <t>ADD 400</t>
   </si>
   <si>
@@ -230,6 +236,12 @@
     <t>SDI 미래기술 소재단지 400WB</t>
   </si>
   <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
     <t>SDI 미래기술 소재단지 600</t>
   </si>
   <si>
@@ -966,6 +978,9 @@
   </si>
   <si>
     <t>충진기록</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
   </si>
 </sst>
 </file>
@@ -1445,7 +1460,7 @@
   <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -1480,16 +1495,22 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>8</v>
@@ -1500,13 +1521,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1514,13 +1535,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1528,10 +1549,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1542,10 +1563,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -1556,10 +1577,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1570,13 +1591,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1584,13 +1605,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1598,13 +1619,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1612,10 +1633,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -1626,13 +1647,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1640,10 +1661,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1654,13 +1675,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1668,13 +1689,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1682,13 +1703,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1696,13 +1717,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1710,13 +1731,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1724,13 +1745,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1738,13 +1759,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1752,13 +1773,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1766,13 +1787,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1780,13 +1801,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1794,13 +1815,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1808,13 +1829,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1822,10 +1843,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>8</v>
@@ -1836,13 +1857,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1850,13 +1871,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1864,13 +1885,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1878,10 +1899,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -1892,13 +1913,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1906,10 +1927,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>8</v>
@@ -1920,10 +1941,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -1934,13 +1955,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1948,13 +1969,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1962,13 +1983,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1976,13 +1997,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1990,13 +2011,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2004,13 +2025,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2018,13 +2039,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2032,7 +2053,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>7</v>
@@ -2040,19 +2061,25 @@
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2060,10 +2087,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
@@ -2074,10 +2101,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>8</v>
@@ -2088,13 +2115,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2102,13 +2129,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2116,13 +2143,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2130,13 +2157,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2144,13 +2171,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2158,10 +2185,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>8</v>
@@ -2172,10 +2199,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -2186,10 +2213,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>8</v>
@@ -2200,13 +2227,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2214,10 +2241,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>8</v>
@@ -2228,10 +2255,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -2242,13 +2269,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2256,13 +2283,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2270,13 +2297,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2284,13 +2311,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -2298,10 +2325,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>8</v>
@@ -2312,7 +2339,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>7</v>
@@ -2326,13 +2353,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2340,13 +2367,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2354,13 +2381,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -2368,10 +2395,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -2382,13 +2409,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -2396,13 +2423,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -2410,13 +2437,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -2424,13 +2451,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -2438,13 +2465,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -2452,13 +2479,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -2466,13 +2493,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2480,13 +2507,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2494,10 +2521,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>8</v>
@@ -2508,10 +2535,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
@@ -2522,13 +2549,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2536,13 +2563,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2550,13 +2577,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2564,10 +2591,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>8</v>
@@ -2578,10 +2605,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>8</v>
@@ -2592,10 +2619,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
@@ -2606,13 +2633,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2620,13 +2647,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2634,13 +2661,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2648,13 +2675,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2662,10 +2689,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>8</v>
@@ -2676,10 +2703,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>8</v>
@@ -2690,13 +2717,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2704,13 +2731,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2718,13 +2745,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2732,13 +2759,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -2746,13 +2773,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2760,10 +2787,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
@@ -2774,13 +2801,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2788,10 +2815,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>8</v>
@@ -2802,13 +2829,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2816,10 +2843,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
@@ -2830,10 +2857,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>8</v>
@@ -2844,13 +2871,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2858,10 +2885,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>8</v>
@@ -2872,13 +2899,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2886,13 +2913,13 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2900,13 +2927,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2914,13 +2941,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2928,10 +2955,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>8</v>
@@ -2942,10 +2969,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>8</v>
@@ -2956,13 +2983,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2970,13 +2997,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2984,10 +3011,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
@@ -2998,13 +3025,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3012,13 +3039,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3026,13 +3053,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3040,13 +3067,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -3054,13 +3081,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -3068,13 +3095,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -3082,13 +3109,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -3096,10 +3123,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
@@ -3110,10 +3137,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>8</v>
@@ -3124,10 +3151,10 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
@@ -3138,10 +3165,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>8</v>
@@ -3152,10 +3179,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
@@ -3166,10 +3193,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>8</v>
@@ -3180,13 +3207,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -3194,13 +3221,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -3208,13 +3235,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -3222,13 +3249,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -3236,13 +3263,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -3250,10 +3277,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>8</v>
@@ -3264,10 +3291,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
@@ -3278,13 +3305,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -3292,13 +3319,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -3306,13 +3333,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -3320,13 +3347,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -3334,13 +3361,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -3348,13 +3375,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -3362,10 +3389,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>8</v>
@@ -3376,13 +3403,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -3390,13 +3417,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -3404,13 +3431,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -3418,13 +3445,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -3432,13 +3459,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -3446,10 +3473,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>8</v>
@@ -3460,13 +3487,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -3474,13 +3501,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -3488,7 +3515,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>7</v>
@@ -3502,13 +3529,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -3516,13 +3543,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -3530,10 +3557,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>8</v>
@@ -3544,10 +3571,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
@@ -3558,13 +3585,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -3572,10 +3599,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
@@ -3586,13 +3613,13 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -3600,10 +3627,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
@@ -3614,10 +3641,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>8</v>
@@ -3628,10 +3655,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
@@ -3642,10 +3669,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>8</v>
@@ -3656,13 +3683,13 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -3670,10 +3697,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>8</v>
@@ -3684,13 +3711,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -3698,10 +3725,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>8</v>
@@ -3712,10 +3739,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
@@ -3726,13 +3753,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -3740,13 +3767,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -3754,13 +3781,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -3768,10 +3795,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -3782,10 +3809,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>8</v>
@@ -3796,13 +3823,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -3810,10 +3837,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>8</v>
@@ -3824,10 +3851,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
@@ -3838,13 +3865,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -3852,13 +3879,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -3866,13 +3893,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -3880,10 +3907,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -3894,13 +3921,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -3908,13 +3935,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -3922,10 +3949,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>8</v>
@@ -3936,13 +3963,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -3950,10 +3977,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>8</v>
@@ -3964,10 +3991,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -3978,10 +4005,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>8</v>
@@ -3992,10 +4019,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
@@ -4006,10 +4033,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>8</v>
@@ -4020,10 +4047,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -4034,10 +4061,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>8</v>
@@ -4048,13 +4075,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -4062,13 +4089,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -4076,10 +4103,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>8</v>
@@ -4090,10 +4117,10 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>8</v>
@@ -4104,10 +4131,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>8</v>
@@ -4118,10 +4145,10 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>8</v>
@@ -4132,10 +4159,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
@@ -4146,10 +4173,10 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>8</v>
@@ -4160,10 +4187,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
@@ -4174,13 +4201,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -4188,13 +4215,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -4202,13 +4229,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -4216,10 +4243,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
@@ -4230,13 +4257,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -4244,13 +4271,13 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -4258,10 +4285,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>8</v>
@@ -4272,13 +4299,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -4286,13 +4313,13 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -4300,13 +4327,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -4314,13 +4341,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -4328,10 +4355,10 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
@@ -4342,10 +4369,10 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>8</v>
@@ -4356,13 +4383,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -4370,10 +4397,10 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>8</v>
@@ -4384,13 +4411,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -4398,13 +4425,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -4412,10 +4439,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
@@ -4426,13 +4453,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -4440,13 +4467,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -4454,13 +4481,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -4468,10 +4495,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
@@ -4482,13 +4509,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -4496,13 +4523,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -4510,13 +4537,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -4524,13 +4551,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -4538,10 +4565,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>8</v>
@@ -4552,13 +4579,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -4566,13 +4593,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -4580,13 +4607,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -4594,10 +4621,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>8</v>
@@ -4608,10 +4635,10 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
@@ -4622,13 +4649,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -4636,10 +4663,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
@@ -4650,13 +4677,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -4664,13 +4691,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -4678,10 +4705,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>8</v>
@@ -4692,10 +4719,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
@@ -4706,10 +4733,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>8</v>
@@ -4720,10 +4747,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
@@ -4734,10 +4761,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>8</v>
@@ -4748,13 +4775,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -4762,13 +4789,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -4776,13 +4803,13 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -4790,13 +4817,13 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -4804,10 +4831,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
@@ -4818,13 +4845,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -4832,13 +4859,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -4846,13 +4873,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -4860,10 +4887,10 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
@@ -4874,13 +4901,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -4888,13 +4915,13 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -4902,13 +4929,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -4916,13 +4943,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -4930,10 +4957,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>8</v>
@@ -4944,13 +4971,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -4958,13 +4985,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -4972,13 +4999,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -4986,13 +5013,13 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -5000,13 +5027,13 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -5014,13 +5041,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -5028,13 +5055,13 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -5042,13 +5069,13 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -5056,13 +5083,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -5070,13 +5097,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -5084,20 +5111,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY4"/>
+  <dimension ref="A1:IY6"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="1" ht="16.5" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5105,778 +5133,778 @@
         <v>6</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AE1" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF1" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG1" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AN1" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AQ1" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AR1" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AS1" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AT1" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AU1" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AV1" s="12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AW1" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AX1" s="12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AY1" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BA1" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BB1" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="BC1" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BE1" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BF1" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="BG1" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="BH1" s="13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="BI1" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BJ1" s="12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="BK1" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="BL1" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="BM1" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BN1" s="12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="BO1" s="13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BP1" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BQ1" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BR1" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BS1" s="13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BT1" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="BV1" s="12" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BW1" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BX1" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="BY1" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="BZ1" s="12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="CA1" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="CB1" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="CC1" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="CD1" s="12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="CE1" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="CF1" s="12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="CG1" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="CH1" s="12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="CI1" s="13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="CJ1" s="13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="CK1" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="CL1" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="CM1" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="CN1" s="12" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="CO1" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="CP1" s="12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="CQ1" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="CR1" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="CS1" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="CT1" s="12" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="CU1" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="CV1" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="CW1" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="CX1" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="CY1" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="CZ1" s="12" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="DA1" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="DB1" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="DC1" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="DD1" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="DE1" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DF1" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DG1" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DH1" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="DI1" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="DJ1" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="DK1" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="DL1" s="12" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="DM1" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="DN1" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DO1" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="DP1" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="DQ1" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="DR1" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="DS1" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="DT1" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="DU1" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="DV1" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="DW1" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="DX1" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DY1" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="DZ1" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="EA1" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="EB1" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="EC1" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="ED1" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="EE1" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="EF1" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EG1" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="EH1" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="EI1" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="EJ1" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="EK1" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="EL1" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="EM1" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="EN1" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="EO1" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="EP1" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="EQ1" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="ER1" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="ES1" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="ET1" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="EU1" s="11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="EV1" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="EW1" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="EX1" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="EY1" s="11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EZ1" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="FA1" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="FB1" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="FC1" s="11" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="FD1" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="FE1" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="FF1" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="FG1" s="11" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="FH1" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="FI1" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="FJ1" s="12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="FK1" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="FL1" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="FM1" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="FN1" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="FO1" s="11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="FP1" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="FQ1" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="FR1" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="FS1" s="11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="FT1" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="FU1" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="FV1" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="FW1" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="FX1" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="FY1" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="FZ1" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="GA1" s="11" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="GB1" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="GC1" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="GD1" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="GE1" s="11" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="GF1" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="GG1" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="GH1" s="13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="GI1" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="GJ1" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="GK1" s="11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="GL1" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="GM1" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="GN1" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="GO1" s="11" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="GP1" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="GQ1" s="11" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="GR1" s="12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="GS1" s="13" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="GT1" s="13" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="GU1" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="GV1" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="GW1" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="GX1" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="GY1" s="11" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="GZ1" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="HA1" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="HB1" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="HC1" s="11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="HD1" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="HE1" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="HF1" s="12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="HG1" s="11" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="HH1" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="HI1" s="11" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="HJ1" s="12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="HK1" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="HL1" s="12" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="HM1" s="11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="HN1" s="12" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="HO1" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="HP1" s="12" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="HQ1" s="11" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="HR1" s="12" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="HS1" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="HT1" s="12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="HU1" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="HV1" s="12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="HW1" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="HX1" s="12" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="HY1" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="HZ1" s="12" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="IA1" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="IB1" s="12" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="IC1" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="ID1" s="12" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="IE1" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="IF1" s="12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="IG1" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="IH1" s="12" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="II1" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="IJ1" s="12" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="IK1" s="11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="IL1" s="12" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="IM1" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="IN1" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="IO1" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="IP1" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="IQ1" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="IR1" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="IS1" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="IT1" s="12" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="IU1" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="IV1" s="12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="IW1" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="IX1" s="12" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="IY1" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -5884,106 +5912,106 @@
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="X2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="11" t="s">
         <v>7</v>
@@ -5998,7 +6026,7 @@
         <v>7</v>
       </c>
       <c r="AO2" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="11" t="s">
         <v>7</v>
@@ -6007,58 +6035,58 @@
         <v>7</v>
       </c>
       <c r="AR2" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AS2" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AT2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB2" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BC2" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="BD2" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BE2" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="BF2" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BG2" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="BH2" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BI2" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BJ2" s="11" t="s">
         <v>7</v>
@@ -6070,181 +6098,181 @@
         <v>7</v>
       </c>
       <c r="BM2" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="BN2" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BO2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BT2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV2" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="BY2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="BZ2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="CD2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="CE2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CF2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="CG2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CK2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="CM2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CO2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="CV2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="CW2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="CX2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="CY2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="CZ2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DA2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="DB2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DC2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DD2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DE2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DH2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="DI2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="DJ2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DL2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="DN2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="DO2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="DP2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="DQ2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="DR2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="DS2" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="BP2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BU2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BV2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="BW2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="BX2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="BY2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="BZ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="CC2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CD2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE2" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="CG2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="CH2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="CI2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="CK2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="CM2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="CN2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="CO2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="CP2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="CQ2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="CR2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="CS2" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="CT2" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="CU2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="CV2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="CW2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="CX2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="CY2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="CZ2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="DA2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="DB2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="DC2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="DD2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="DF2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="DG2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="DH2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="DI2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="DJ2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="DL2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="DM2" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="DN2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="DO2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="DP2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="DQ2" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="DR2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="DS2" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="DT2" s="11" t="s">
         <v>7</v>
@@ -6259,55 +6287,55 @@
         <v>7</v>
       </c>
       <c r="DX2" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="DY2" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DZ2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EA2" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EC2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="ED2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EE2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EF2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EG2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EH2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EI2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="EJ2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EK2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EL2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EM2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EN2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EO2" s="11" t="s">
         <v>7</v>
@@ -6319,343 +6347,343 @@
         <v>7</v>
       </c>
       <c r="ER2" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="ES2" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="ET2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="EU2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EV2" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="EW2" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="EX2" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="EY2" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="EZ2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="FA2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="FB2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="FC2" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="FD2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="FE2" s="11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="FF2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FG2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FH2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FI2" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="FJ2" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="FK2" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="FL2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="FM2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="FN2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FO2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FP2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="FQ2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="FR2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FS2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FT2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FU2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FV2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="FW2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="FX2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="FY2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="FZ2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="GA2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GB2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GC2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GD2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GE2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GF2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="GG2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="GH2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="FM2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="FN2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FO2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FP2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FQ2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="FR2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FS2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FT2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FU2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FV2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="FW2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="FX2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="FY2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="FZ2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="GA2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GB2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GC2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GD2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GE2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GF2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="GG2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="GH2" s="11" t="s">
-        <v>16</v>
-      </c>
       <c r="GI2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="GJ2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="GK2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="GL2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="GM2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="GN2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="GO2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="GP2" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="GQ2" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="GR2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="GS2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="GT2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="GU2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="GV2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="GW2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="GX2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="GY2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="GZ2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="HB2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="HC2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="HD2" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="HE2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="HF2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="HG2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="HH2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="HI2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="GJ2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="GK2" s="11" t="s">
+      <c r="HJ2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="HK2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="HL2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="HM2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="GL2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="GM2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="GN2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="GO2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP2" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="GQ2" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="GR2" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="GS2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="GT2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="GU2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="GV2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="GW2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="GX2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="GY2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="GZ2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="HA2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="HB2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="HC2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="HD2" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="HE2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="HF2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="HG2" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="HH2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HI2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="HJ2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="HK2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="HL2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="HM2" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="HN2" s="11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="HO2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HP2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HQ2" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="HR2" s="11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="HS2" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="HT2" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="HU2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="HV2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="HW2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HX2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HY2" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HZ2" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="IA2" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="IB2" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="IC2" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="ID2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IE2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IF2" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="IG2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="IH2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="II2" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="IJ2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="IK2" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="IL2" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="IM2" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="IN2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IO2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IP2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IQ2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IR2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IS2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IT2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IU2" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IV2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IW2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IX2" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IY2" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:259" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -6666,779 +6694,803 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="AC3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="7" t="s">
+      <c r="AD3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="BN3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="CB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CI3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CL3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="CN3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="CP3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CR3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="CS3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DA3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="DB3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="DC3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DD3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="DE3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="DF3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DG3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="DH3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="DI3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="DJ3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="DK3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="DL3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="DM3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="DN3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DP3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DQ3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DR3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="DS3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DT3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DU3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="DV3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="DX3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="DY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DZ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EA3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="EC3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="ED3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="EE3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="EF3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="EG3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="EH3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="EI3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="EJ3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="EK3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="EL3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="EM3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EN3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="EO3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="EP3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EQ3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="ER3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="ES3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="ET3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EU3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="EV3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EW3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="EX3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="EY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EZ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FB3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="FC3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FD3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="FE3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FF3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FG3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="FH3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="FI3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="FJ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FK3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FL3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="FM3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FN3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FO3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="FP3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="FQ3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="FR3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FS3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="FT3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="FU3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FV3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="FW3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FX3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="FY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FZ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GC3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GD3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="GE3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="GF3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GG3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GH3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="GI3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GJ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GK3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GL3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GM3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="GN3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="GO3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" s="2" t="s">
+      <c r="GP3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GQ3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV3" s="2" t="s">
+      <c r="GR3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="GS3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="GT3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="GU3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="GV3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="GW3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AW3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX3" s="2" t="s">
+      <c r="GX3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="GY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GZ3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE3" s="6" t="s">
+      <c r="HA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HB3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HC3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="HD3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HE3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="HF3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="BF3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="BH3" s="7" t="s">
+      <c r="HG3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="HH3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HI3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="HJ3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HK3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="HL3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HM3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HN3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HO3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="HP3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HQ3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HR3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HS3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="HT3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HU3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="HV3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BI3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BO3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="BR3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS3" s="8" t="s">
+      <c r="HW3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HX3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="HY3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HZ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="IA3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="IB3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IC3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="ID3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="IE3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="IF3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="IG3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BT3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU3" s="6" t="s">
+      <c r="IH3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="II3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="IJ3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="IK3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="IL3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="IM3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="IN3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="IO3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="IP3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="IQ3" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="IR3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="IS3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="IT3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="IU3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="IV3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="IW3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="IX3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="IY3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BV3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BY3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="BZ3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="CD3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CE3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="CI3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="CJ3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CK3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CL3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CM3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="CN3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CO3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="CP3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CQ3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CR3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="CS3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CT3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="CU3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="CV3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="CW3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="CX3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="CY3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="CZ3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DA3" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="DB3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="DC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="DD3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="DE3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DF3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DG3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="DH3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="DJ3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="DK3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="DL3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="DM3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="DN3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DO3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="DP3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DQ3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="DR3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="DS3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="DT3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DU3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="DV3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DW3" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="DX3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="DY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="DZ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EA3" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="EB3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="EC3" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="ED3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="EE3" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="EF3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="EG3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="EH3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="EI3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="EJ3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="EK3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="EL3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="EM3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="EN3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="EO3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="EP3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EQ3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="ER3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="ES3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="ET3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EU3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="EV3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EW3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="EX3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="EY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="EZ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FB3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="FC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FD3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="FE3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FF3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FG3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="FH3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="FI3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="FJ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FK3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FL3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="FM3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FN3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FO3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="FP3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="FQ3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="FR3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FS3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="FT3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="FU3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FV3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="FW3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FX3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="FY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="FZ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GB3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GC3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GD3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="GE3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="GF3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GG3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GH3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="GI3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GJ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GK3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GL3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GM3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="GN3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="GO3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="GP3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GQ3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="GR3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="GS3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="GT3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="GU3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="GV3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="GW3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="GX3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="GY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="GZ3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="HA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="HB3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="HC3" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="HD3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HE3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="HF3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="HG3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="HH3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HI3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="HJ3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HK3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="HL3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HM3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="HN3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="HO3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="HP3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="HQ3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="HR3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HS3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="HT3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HU3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="HV3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="HW3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="HX3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="HY3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="HZ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="IA3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="IB3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="IC3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="ID3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="IE3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="IF3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="IG3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="IH3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="II3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="IJ3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="IK3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="IL3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="IM3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="IN3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="IO3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="IP3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="IQ3" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="IR3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="IS3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="IT3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="IU3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="IV3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="IW3" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="IX3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="IY3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" ht="16.5" customHeight="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -454,13 +454,13 @@
         <v>A400</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>2025-03-31</v>
       </c>
       <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
+        <v>2025-09-30</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7941,6 +7941,9 @@
       <c r="B4" t="str">
         <v>2025-03-30</v>
       </c>
+      <c r="C4" t="str">
+        <v>2025-03-31</v>
+      </c>
       <c r="AM4" t="str">
         <v>2025-05-30</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -434,10 +434,10 @@
         <v>A400</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-04-30</v>
+        <v>2025-04-06</v>
       </c>
       <c r="E2" t="str">
-        <v>2025-10-30</v>
+        <v>2025-10-06</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -1174,10 +1174,10 @@
         <v>A600 Aeon</v>
       </c>
       <c r="D39" t="str">
-        <v>2025-05-30</v>
+        <v>2025-04-09</v>
       </c>
       <c r="E39" t="str">
-        <v>2025-11-30</v>
+        <v>2025-10-09</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -8066,6 +8066,9 @@
       <c r="AL5" t="str">
         <v/>
       </c>
+      <c r="AM5" t="str">
+        <v>2025-04-02</v>
+      </c>
       <c r="AP5" t="str">
         <v>2025-04-30</v>
       </c>
@@ -8833,6 +8836,9 @@
       <c r="AL6" t="str">
         <v/>
       </c>
+      <c r="AM6" t="str">
+        <v>2025-04-09</v>
+      </c>
       <c r="AP6" t="str">
         <v>2025-03-30</v>
       </c>
@@ -9489,6 +9495,9 @@
       <c r="A7" t="str">
         <v/>
       </c>
+      <c r="B7" t="str">
+        <v>2025-04-01</v>
+      </c>
       <c r="C7" t="str">
         <v/>
       </c>
@@ -10249,6 +10258,9 @@
     <row r="8">
       <c r="A8" t="str">
         <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>2025-04-06</v>
       </c>
       <c r="C8" t="str">
         <v/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -1119,7 +1119,7 @@
       <c r="E36" t="str">
         <v>2025-10-03</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="str">
         <v>6</v>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       <c r="E54" t="str">
         <v>2025-10-03</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="str">
         <v>6</v>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       <c r="E210" t="str">
         <v>2025-10-02</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="str">
         <v>6</v>
       </c>
     </row>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -1117,10 +1117,10 @@
         <v>2025-04-03</v>
       </c>
       <c r="E36" t="str">
-        <v>2025-10-03</v>
+        <v>2025-04-03</v>
       </c>
       <c r="F36" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7958,14 +7958,143 @@
       <c r="A4" t="str">
         <v>충진기록</v>
       </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
       <c r="AJ4" t="str">
         <v>2025-04-03</v>
       </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <v/>
+      </c>
       <c r="BB4" t="str">
         <v>2025-04-03</v>
       </c>
+      <c r="BP4" t="str">
+        <v/>
+      </c>
+      <c r="BW4" t="str">
+        <v/>
+      </c>
+      <c r="CI4" t="str">
+        <v/>
+      </c>
+      <c r="CY4" t="str">
+        <v/>
+      </c>
+      <c r="DB4" t="str">
+        <v/>
+      </c>
+      <c r="DE4" t="str">
+        <v/>
+      </c>
+      <c r="DG4" t="str">
+        <v/>
+      </c>
+      <c r="DU4" t="str">
+        <v/>
+      </c>
+      <c r="EF4" t="str">
+        <v/>
+      </c>
+      <c r="EK4" t="str">
+        <v/>
+      </c>
+      <c r="EW4" t="str">
+        <v/>
+      </c>
+      <c r="EZ4" t="str">
+        <v/>
+      </c>
+      <c r="FF4" t="str">
+        <v/>
+      </c>
+      <c r="FG4" t="str">
+        <v/>
+      </c>
+      <c r="FP4" t="str">
+        <v/>
+      </c>
+      <c r="GA4" t="str">
+        <v/>
+      </c>
+      <c r="GB4" t="str">
+        <v/>
+      </c>
+      <c r="GD4" t="str">
+        <v/>
+      </c>
+      <c r="GF4" t="str">
+        <v/>
+      </c>
+      <c r="GM4" t="str">
+        <v/>
+      </c>
+      <c r="GX4" t="str">
+        <v/>
+      </c>
       <c r="HB4" t="str">
         <v>2025-04-02</v>
+      </c>
+      <c r="HU4" t="str">
+        <v/>
+      </c>
+      <c r="HX4" t="str">
+        <v/>
+      </c>
+      <c r="HZ4" t="str">
+        <v/>
+      </c>
+      <c r="ID4" t="str">
+        <v/>
+      </c>
+      <c r="IG4" t="str">
+        <v/>
+      </c>
+      <c r="IJ4" t="str">
+        <v/>
+      </c>
+      <c r="IL4" t="str">
+        <v/>
+      </c>
+      <c r="IN4" t="str">
+        <v/>
+      </c>
+      <c r="IO4" t="str">
+        <v/>
+      </c>
+      <c r="IP4" t="str">
+        <v/>
+      </c>
+      <c r="IQ4" t="str">
+        <v/>
+      </c>
+      <c r="IV4" t="str">
+        <v/>
+      </c>
+      <c r="IW4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -1117,10 +1117,10 @@
         <v>2025-04-03</v>
       </c>
       <c r="E36" t="str">
-        <v>2025-04-03</v>
-      </c>
-      <c r="F36" t="str">
-        <v>0</v>
+        <v>2025-10-03</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1479,7 +1479,7 @@
       <c r="E54" t="str">
         <v>2025-10-03</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54">
         <v>6</v>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       <c r="E210" t="str">
         <v>2025-10-02</v>
       </c>
-      <c r="F210" t="str">
+      <c r="F210">
         <v>6</v>
       </c>
     </row>
@@ -7958,16 +7958,106 @@
       <c r="A4" t="str">
         <v>충진기록</v>
       </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4" t="str">
         <v/>
       </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v/>
+      </c>
       <c r="Q4" t="str">
         <v/>
       </c>
+      <c r="R4" t="str">
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
       <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
         <v/>
       </c>
       <c r="AJ4" t="str">
@@ -7982,102 +8072,630 @@
       <c r="AM4" t="str">
         <v/>
       </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
       <c r="AT4" t="str">
         <v/>
       </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <v/>
+      </c>
       <c r="AZ4" t="str">
+        <v/>
+      </c>
+      <c r="BA4" t="str">
         <v/>
       </c>
       <c r="BB4" t="str">
         <v>2025-04-03</v>
       </c>
+      <c r="BC4" t="str">
+        <v/>
+      </c>
+      <c r="BD4" t="str">
+        <v/>
+      </c>
+      <c r="BE4" t="str">
+        <v/>
+      </c>
+      <c r="BF4" t="str">
+        <v/>
+      </c>
+      <c r="BG4" t="str">
+        <v/>
+      </c>
+      <c r="BH4" t="str">
+        <v/>
+      </c>
+      <c r="BI4" t="str">
+        <v/>
+      </c>
+      <c r="BJ4" t="str">
+        <v/>
+      </c>
+      <c r="BK4" t="str">
+        <v/>
+      </c>
+      <c r="BL4" t="str">
+        <v/>
+      </c>
+      <c r="BM4" t="str">
+        <v/>
+      </c>
+      <c r="BN4" t="str">
+        <v/>
+      </c>
+      <c r="BO4" t="str">
+        <v/>
+      </c>
       <c r="BP4" t="str">
         <v/>
       </c>
+      <c r="BQ4" t="str">
+        <v/>
+      </c>
+      <c r="BR4" t="str">
+        <v/>
+      </c>
+      <c r="BS4" t="str">
+        <v/>
+      </c>
+      <c r="BT4" t="str">
+        <v/>
+      </c>
+      <c r="BU4" t="str">
+        <v/>
+      </c>
+      <c r="BV4" t="str">
+        <v/>
+      </c>
       <c r="BW4" t="str">
         <v/>
       </c>
+      <c r="BX4" t="str">
+        <v/>
+      </c>
+      <c r="BY4" t="str">
+        <v/>
+      </c>
+      <c r="BZ4" t="str">
+        <v/>
+      </c>
+      <c r="CA4" t="str">
+        <v/>
+      </c>
+      <c r="CB4" t="str">
+        <v/>
+      </c>
+      <c r="CC4" t="str">
+        <v/>
+      </c>
+      <c r="CD4" t="str">
+        <v/>
+      </c>
+      <c r="CE4" t="str">
+        <v/>
+      </c>
+      <c r="CF4" t="str">
+        <v/>
+      </c>
+      <c r="CG4" t="str">
+        <v/>
+      </c>
+      <c r="CH4" t="str">
+        <v/>
+      </c>
       <c r="CI4" t="str">
         <v/>
       </c>
+      <c r="CJ4" t="str">
+        <v/>
+      </c>
+      <c r="CK4" t="str">
+        <v/>
+      </c>
+      <c r="CL4" t="str">
+        <v/>
+      </c>
+      <c r="CM4" t="str">
+        <v/>
+      </c>
+      <c r="CN4" t="str">
+        <v/>
+      </c>
+      <c r="CO4" t="str">
+        <v/>
+      </c>
+      <c r="CP4" t="str">
+        <v/>
+      </c>
+      <c r="CQ4" t="str">
+        <v/>
+      </c>
+      <c r="CR4" t="str">
+        <v/>
+      </c>
+      <c r="CS4" t="str">
+        <v/>
+      </c>
+      <c r="CT4" t="str">
+        <v/>
+      </c>
+      <c r="CU4" t="str">
+        <v/>
+      </c>
+      <c r="CV4" t="str">
+        <v/>
+      </c>
+      <c r="CW4" t="str">
+        <v/>
+      </c>
+      <c r="CX4" t="str">
+        <v/>
+      </c>
       <c r="CY4" t="str">
         <v/>
       </c>
+      <c r="CZ4" t="str">
+        <v/>
+      </c>
+      <c r="DA4" t="str">
+        <v/>
+      </c>
       <c r="DB4" t="str">
         <v/>
       </c>
+      <c r="DC4" t="str">
+        <v/>
+      </c>
+      <c r="DD4" t="str">
+        <v/>
+      </c>
       <c r="DE4" t="str">
         <v/>
       </c>
+      <c r="DF4" t="str">
+        <v/>
+      </c>
       <c r="DG4" t="str">
         <v/>
       </c>
+      <c r="DH4" t="str">
+        <v/>
+      </c>
+      <c r="DI4" t="str">
+        <v/>
+      </c>
+      <c r="DJ4" t="str">
+        <v/>
+      </c>
+      <c r="DK4" t="str">
+        <v/>
+      </c>
+      <c r="DL4" t="str">
+        <v/>
+      </c>
+      <c r="DM4" t="str">
+        <v/>
+      </c>
+      <c r="DN4" t="str">
+        <v/>
+      </c>
+      <c r="DO4" t="str">
+        <v/>
+      </c>
+      <c r="DP4" t="str">
+        <v/>
+      </c>
+      <c r="DQ4" t="str">
+        <v/>
+      </c>
+      <c r="DR4" t="str">
+        <v/>
+      </c>
+      <c r="DS4" t="str">
+        <v/>
+      </c>
+      <c r="DT4" t="str">
+        <v/>
+      </c>
       <c r="DU4" t="str">
         <v/>
       </c>
+      <c r="DV4" t="str">
+        <v/>
+      </c>
+      <c r="DW4" t="str">
+        <v/>
+      </c>
+      <c r="DX4" t="str">
+        <v/>
+      </c>
+      <c r="DY4" t="str">
+        <v/>
+      </c>
+      <c r="DZ4" t="str">
+        <v/>
+      </c>
+      <c r="EA4" t="str">
+        <v/>
+      </c>
+      <c r="EB4" t="str">
+        <v/>
+      </c>
+      <c r="EC4" t="str">
+        <v/>
+      </c>
+      <c r="ED4" t="str">
+        <v/>
+      </c>
+      <c r="EE4" t="str">
+        <v/>
+      </c>
       <c r="EF4" t="str">
         <v/>
       </c>
+      <c r="EG4" t="str">
+        <v/>
+      </c>
+      <c r="EH4" t="str">
+        <v/>
+      </c>
+      <c r="EI4" t="str">
+        <v/>
+      </c>
+      <c r="EJ4" t="str">
+        <v/>
+      </c>
       <c r="EK4" t="str">
         <v/>
       </c>
+      <c r="EL4" t="str">
+        <v/>
+      </c>
+      <c r="EM4" t="str">
+        <v/>
+      </c>
+      <c r="EN4" t="str">
+        <v/>
+      </c>
+      <c r="EO4" t="str">
+        <v/>
+      </c>
+      <c r="EP4" t="str">
+        <v/>
+      </c>
+      <c r="EQ4" t="str">
+        <v/>
+      </c>
+      <c r="ER4" t="str">
+        <v/>
+      </c>
+      <c r="ES4" t="str">
+        <v/>
+      </c>
+      <c r="ET4" t="str">
+        <v/>
+      </c>
+      <c r="EU4" t="str">
+        <v/>
+      </c>
+      <c r="EV4" t="str">
+        <v/>
+      </c>
       <c r="EW4" t="str">
         <v/>
       </c>
+      <c r="EX4" t="str">
+        <v/>
+      </c>
+      <c r="EY4" t="str">
+        <v/>
+      </c>
       <c r="EZ4" t="str">
         <v/>
       </c>
+      <c r="FA4" t="str">
+        <v/>
+      </c>
+      <c r="FB4" t="str">
+        <v/>
+      </c>
+      <c r="FC4" t="str">
+        <v/>
+      </c>
+      <c r="FD4" t="str">
+        <v/>
+      </c>
+      <c r="FE4" t="str">
+        <v/>
+      </c>
       <c r="FF4" t="str">
         <v/>
       </c>
       <c r="FG4" t="str">
         <v/>
       </c>
+      <c r="FH4" t="str">
+        <v/>
+      </c>
+      <c r="FI4" t="str">
+        <v/>
+      </c>
+      <c r="FJ4" t="str">
+        <v/>
+      </c>
+      <c r="FK4" t="str">
+        <v/>
+      </c>
+      <c r="FL4" t="str">
+        <v/>
+      </c>
+      <c r="FM4" t="str">
+        <v/>
+      </c>
+      <c r="FN4" t="str">
+        <v/>
+      </c>
+      <c r="FO4" t="str">
+        <v/>
+      </c>
       <c r="FP4" t="str">
         <v/>
       </c>
+      <c r="FQ4" t="str">
+        <v/>
+      </c>
+      <c r="FR4" t="str">
+        <v/>
+      </c>
+      <c r="FS4" t="str">
+        <v/>
+      </c>
+      <c r="FT4" t="str">
+        <v/>
+      </c>
+      <c r="FU4" t="str">
+        <v/>
+      </c>
+      <c r="FV4" t="str">
+        <v/>
+      </c>
+      <c r="FW4" t="str">
+        <v/>
+      </c>
+      <c r="FX4" t="str">
+        <v/>
+      </c>
+      <c r="FY4" t="str">
+        <v/>
+      </c>
+      <c r="FZ4" t="str">
+        <v/>
+      </c>
       <c r="GA4" t="str">
         <v/>
       </c>
       <c r="GB4" t="str">
         <v/>
       </c>
+      <c r="GC4" t="str">
+        <v/>
+      </c>
       <c r="GD4" t="str">
         <v/>
       </c>
+      <c r="GE4" t="str">
+        <v/>
+      </c>
       <c r="GF4" t="str">
         <v/>
       </c>
+      <c r="GG4" t="str">
+        <v/>
+      </c>
+      <c r="GH4" t="str">
+        <v/>
+      </c>
+      <c r="GI4" t="str">
+        <v/>
+      </c>
+      <c r="GJ4" t="str">
+        <v/>
+      </c>
+      <c r="GK4" t="str">
+        <v/>
+      </c>
+      <c r="GL4" t="str">
+        <v/>
+      </c>
       <c r="GM4" t="str">
         <v/>
       </c>
+      <c r="GN4" t="str">
+        <v/>
+      </c>
+      <c r="GO4" t="str">
+        <v/>
+      </c>
+      <c r="GP4" t="str">
+        <v/>
+      </c>
+      <c r="GQ4" t="str">
+        <v/>
+      </c>
+      <c r="GR4" t="str">
+        <v/>
+      </c>
+      <c r="GS4" t="str">
+        <v/>
+      </c>
+      <c r="GT4" t="str">
+        <v/>
+      </c>
+      <c r="GU4" t="str">
+        <v/>
+      </c>
+      <c r="GV4" t="str">
+        <v/>
+      </c>
+      <c r="GW4" t="str">
+        <v/>
+      </c>
       <c r="GX4" t="str">
+        <v/>
+      </c>
+      <c r="GY4" t="str">
+        <v/>
+      </c>
+      <c r="GZ4" t="str">
+        <v/>
+      </c>
+      <c r="HA4" t="str">
         <v/>
       </c>
       <c r="HB4" t="str">
         <v>2025-04-02</v>
       </c>
+      <c r="HC4" t="str">
+        <v/>
+      </c>
+      <c r="HD4" t="str">
+        <v/>
+      </c>
+      <c r="HE4" t="str">
+        <v/>
+      </c>
+      <c r="HF4" t="str">
+        <v/>
+      </c>
+      <c r="HG4" t="str">
+        <v/>
+      </c>
+      <c r="HH4" t="str">
+        <v/>
+      </c>
+      <c r="HI4" t="str">
+        <v/>
+      </c>
+      <c r="HJ4" t="str">
+        <v/>
+      </c>
+      <c r="HK4" t="str">
+        <v/>
+      </c>
+      <c r="HL4" t="str">
+        <v/>
+      </c>
+      <c r="HM4" t="str">
+        <v/>
+      </c>
+      <c r="HN4" t="str">
+        <v/>
+      </c>
+      <c r="HO4" t="str">
+        <v/>
+      </c>
+      <c r="HP4" t="str">
+        <v/>
+      </c>
+      <c r="HQ4" t="str">
+        <v/>
+      </c>
+      <c r="HR4" t="str">
+        <v/>
+      </c>
+      <c r="HS4" t="str">
+        <v/>
+      </c>
+      <c r="HT4" t="str">
+        <v/>
+      </c>
       <c r="HU4" t="str">
         <v/>
       </c>
+      <c r="HV4" t="str">
+        <v/>
+      </c>
+      <c r="HW4" t="str">
+        <v/>
+      </c>
       <c r="HX4" t="str">
         <v/>
       </c>
+      <c r="HY4" t="str">
+        <v/>
+      </c>
       <c r="HZ4" t="str">
         <v/>
       </c>
+      <c r="IA4" t="str">
+        <v/>
+      </c>
+      <c r="IB4" t="str">
+        <v/>
+      </c>
+      <c r="IC4" t="str">
+        <v/>
+      </c>
       <c r="ID4" t="str">
         <v/>
       </c>
+      <c r="IE4" t="str">
+        <v/>
+      </c>
+      <c r="IF4" t="str">
+        <v/>
+      </c>
       <c r="IG4" t="str">
         <v/>
       </c>
+      <c r="IH4" t="str">
+        <v/>
+      </c>
+      <c r="II4" t="str">
+        <v/>
+      </c>
       <c r="IJ4" t="str">
         <v/>
       </c>
+      <c r="IK4" t="str">
+        <v/>
+      </c>
       <c r="IL4" t="str">
         <v/>
       </c>
+      <c r="IM4" t="str">
+        <v/>
+      </c>
       <c r="IN4" t="str">
         <v/>
       </c>
@@ -8090,10 +8708,28 @@
       <c r="IQ4" t="str">
         <v/>
       </c>
+      <c r="IR4" t="str">
+        <v/>
+      </c>
+      <c r="IS4" t="str">
+        <v/>
+      </c>
+      <c r="IT4" t="str">
+        <v/>
+      </c>
+      <c r="IU4" t="str">
+        <v/>
+      </c>
       <c r="IV4" t="str">
         <v/>
       </c>
       <c r="IW4" t="str">
+        <v/>
+      </c>
+      <c r="IX4" t="str">
+        <v/>
+      </c>
+      <c r="IY4" t="str">
         <v/>
       </c>
     </row>
@@ -8982,6 +9618,9 @@
       <c r="AI6" t="str">
         <v/>
       </c>
+      <c r="AJ6" t="str">
+        <v>2025-04-03</v>
+      </c>
       <c r="AK6" t="str">
         <v/>
       </c>
@@ -9032,6 +9671,9 @@
       </c>
       <c r="BA6" t="str">
         <v/>
+      </c>
+      <c r="BB6" t="str">
+        <v>2025-04-03</v>
       </c>
       <c r="BC6" t="str">
         <v/>
@@ -9755,6 +10397,9 @@
       <c r="AI7" t="str">
         <v/>
       </c>
+      <c r="AJ7" t="str">
+        <v>2025-04-03</v>
+      </c>
       <c r="AK7" t="str">
         <v/>
       </c>
@@ -9807,7 +10452,7 @@
         <v/>
       </c>
       <c r="BB7" t="str">
-        <v/>
+        <v>2025-04-03</v>
       </c>
       <c r="BC7" t="str">
         <v/>
@@ -10531,6 +11176,9 @@
       <c r="AI8" t="str">
         <v/>
       </c>
+      <c r="AJ8" t="str">
+        <v>2025-04-03</v>
+      </c>
       <c r="AK8" t="str">
         <v/>
       </c>
@@ -11306,6 +11954,9 @@
       </c>
       <c r="AI9" t="str">
         <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <v>2025-04-02</v>
       </c>
       <c r="AK9" t="str">
         <v/>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="324">
   <si>
     <t>고객사</t>
   </si>
@@ -1364,7 +1364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4270,7 +4270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6633,6 +6633,9 @@
       <c r="BB5" t="s">
         <v>64</v>
       </c>
+      <c r="BK5" t="s">
+        <v>104</v>
+      </c>
       <c r="HB5" t="s">
         <v>272</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="324">
   <si>
     <t>고객사</t>
   </si>
@@ -2095,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -2104,6 +2104,15 @@
       </c>
       <c r="C64" t="s">
         <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,6 +6631,9 @@
       <c r="BK4" t="s">
         <v>104</v>
       </c>
+      <c r="BL4" t="s">
+        <v>104</v>
+      </c>
       <c r="HB4" t="s">
         <v>272</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="324">
   <si>
     <t>고객사</t>
   </si>
@@ -6648,6 +6648,9 @@
       <c r="BK5" t="s">
         <v>104</v>
       </c>
+      <c r="BL5" t="s">
+        <v>104</v>
+      </c>
       <c r="HB5" t="s">
         <v>272</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="326">
   <si>
     <t>고객사</t>
   </si>
@@ -326,13 +326,19 @@
     <t>경기바이오 신준호</t>
   </si>
   <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>경기바이오700</t>
+  </si>
+  <si>
     <t>2025-04-28</t>
   </si>
   <si>
     <t>2025-10-28</t>
-  </si>
-  <si>
-    <t>경기바이오700</t>
   </si>
   <si>
     <t>경농</t>
@@ -1364,7 +1370,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2106,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2117,10 +2123,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
@@ -2128,10 +2134,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -2139,7 +2145,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -2150,29 +2156,29 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -2183,7 +2189,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
         <v>22</v>
@@ -2194,10 +2200,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -2205,10 +2211,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -2216,10 +2222,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
         <v>119</v>
-      </c>
-      <c r="B74" t="s">
-        <v>117</v>
       </c>
       <c r="C74" t="s">
         <v>75</v>
@@ -2227,7 +2233,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
         <v>41</v>
@@ -2238,7 +2244,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
         <v>41</v>
@@ -2249,18 +2255,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
         <v>41</v>
@@ -2271,21 +2277,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
         <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2293,7 +2299,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
         <v>41</v>
@@ -2304,7 +2310,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B82" t="s">
         <v>91</v>
@@ -2315,10 +2321,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>75</v>
@@ -2326,7 +2332,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
@@ -2337,7 +2343,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
@@ -2348,21 +2354,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2370,10 +2376,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -2392,10 +2398,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -2403,7 +2409,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
         <v>77</v>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
         <v>46</v>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
@@ -2447,7 +2453,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
@@ -2458,7 +2464,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
         <v>30</v>
@@ -2469,10 +2475,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2480,10 +2486,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2491,7 +2497,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
         <v>71</v>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
@@ -2513,10 +2519,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2524,10 +2530,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -2535,10 +2541,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -2546,10 +2552,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -2557,18 +2563,18 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" t="s">
         <v>160</v>
       </c>
-      <c r="B105" t="s">
-        <v>158</v>
-      </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -2579,7 +2585,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -2601,7 +2607,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
@@ -2612,7 +2618,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
         <v>25</v>
@@ -2623,10 +2629,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -2634,18 +2640,18 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
         <v>51</v>
@@ -2656,10 +2662,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
         <v>75</v>
@@ -2667,18 +2673,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B115" t="s">
         <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -2689,10 +2695,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C117" t="s">
         <v>39</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -2711,7 +2717,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
         <v>30</v>
@@ -2722,7 +2728,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
         <v>93</v>
@@ -2733,10 +2739,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -2744,7 +2750,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -2755,7 +2761,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
@@ -2766,7 +2772,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -2777,7 +2783,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -2788,29 +2794,29 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -2821,10 +2827,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2832,7 +2838,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B130" t="s">
         <v>41</v>
@@ -2843,18 +2849,18 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B131" t="s">
         <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
         <v>41</v>
@@ -2865,40 +2871,40 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
         <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
         <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B135" t="s">
         <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
         <v>41</v>
@@ -2909,7 +2915,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
         <v>41</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B138" t="s">
         <v>41</v>
@@ -2931,7 +2937,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -2953,7 +2959,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -2964,18 +2970,18 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -2986,7 +2992,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B144" t="s">
         <v>41</v>
@@ -2997,7 +3003,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3008,7 +3014,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3019,7 +3025,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3030,10 +3036,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B148" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -3041,10 +3047,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B150" t="s">
         <v>46</v>
@@ -3063,7 +3069,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B151" t="s">
         <v>41</v>
@@ -3074,7 +3080,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B152" t="s">
         <v>91</v>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
         <v>51</v>
@@ -3107,7 +3113,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B155" t="s">
         <v>93</v>
@@ -3118,10 +3124,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -3129,10 +3135,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3140,10 +3146,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -3151,10 +3157,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -3173,10 +3179,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3184,7 +3190,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B162" t="s">
         <v>41</v>
@@ -3195,7 +3201,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
         <v>41</v>
@@ -3206,7 +3212,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
@@ -3217,10 +3223,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C165" t="s">
         <v>72</v>
@@ -3228,10 +3234,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C166" t="s">
         <v>8</v>
@@ -3239,10 +3245,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3250,7 +3256,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -3261,10 +3267,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
@@ -3283,7 +3289,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
         <v>30</v>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B172" t="s">
         <v>41</v>
@@ -3305,7 +3311,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
@@ -3316,7 +3322,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B174" t="s">
         <v>30</v>
@@ -3327,7 +3333,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
         <v>30</v>
@@ -3338,18 +3344,18 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B176" t="s">
         <v>30</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B177" t="s">
         <v>30</v>
@@ -3360,7 +3366,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B178" t="s">
         <v>30</v>
@@ -3371,7 +3377,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B180" t="s">
         <v>91</v>
@@ -3393,10 +3399,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B181" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
@@ -3404,7 +3410,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -3415,7 +3421,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B183" t="s">
         <v>41</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B184" t="s">
         <v>41</v>
@@ -3437,7 +3443,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B185" t="s">
         <v>41</v>
@@ -3448,7 +3454,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B186" t="s">
         <v>41</v>
@@ -3459,7 +3465,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B187" t="s">
         <v>41</v>
@@ -3470,7 +3476,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B188" t="s">
         <v>93</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B189" t="s">
         <v>93</v>
@@ -3492,7 +3498,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -3503,7 +3509,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -3514,7 +3520,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B192" t="s">
         <v>51</v>
@@ -3525,7 +3531,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -3536,7 +3542,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B194" t="s">
         <v>46</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B195" t="s">
         <v>46</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B196" t="s">
         <v>46</v>
@@ -3569,7 +3575,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B197" t="s">
         <v>41</v>
@@ -3580,10 +3586,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B198" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -3591,10 +3597,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B199" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
@@ -3602,10 +3608,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B200" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C200" t="s">
         <v>39</v>
@@ -3613,7 +3619,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -3624,7 +3630,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B202" t="s">
         <v>25</v>
@@ -3635,18 +3641,18 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B203" t="s">
         <v>54</v>
       </c>
       <c r="C203" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B204" t="s">
         <v>54</v>
@@ -3657,7 +3663,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B206" t="s">
         <v>25</v>
@@ -3679,7 +3685,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B207" t="s">
         <v>25</v>
@@ -3690,7 +3696,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B208" t="s">
         <v>25</v>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B209" t="s">
         <v>25</v>
@@ -3712,7 +3718,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B210" t="s">
         <v>25</v>
@@ -3721,10 +3727,10 @@
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E210" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F210" t="s">
         <v>66</v>
@@ -3732,21 +3738,21 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B211" t="s">
         <v>25</v>
       </c>
       <c r="C211" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B212" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
@@ -3754,7 +3760,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B213" t="s">
         <v>91</v>
@@ -3765,7 +3771,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
         <v>71</v>
@@ -3776,10 +3782,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B215" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C215" t="s">
         <v>72</v>
@@ -3787,7 +3793,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B216" t="s">
         <v>41</v>
@@ -3798,7 +3804,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B217" t="s">
         <v>30</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
         <v>46</v>
@@ -3820,7 +3826,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B219" t="s">
         <v>41</v>
@@ -3831,10 +3837,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B220" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C220" t="s">
         <v>37</v>
@@ -3842,7 +3848,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -3853,10 +3859,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B222" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C222" t="s">
         <v>37</v>
@@ -3864,18 +3870,18 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B223" t="s">
         <v>25</v>
       </c>
       <c r="C223" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B224" t="s">
         <v>41</v>
@@ -3886,10 +3892,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -3897,10 +3903,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B226" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C226" t="s">
         <v>8</v>
@@ -3908,10 +3914,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B227" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C227" t="s">
         <v>39</v>
@@ -3919,7 +3925,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B228" t="s">
         <v>46</v>
@@ -3930,10 +3936,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B229" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
@@ -3941,10 +3947,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B230" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C230" t="s">
         <v>96</v>
@@ -3952,7 +3958,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -3963,7 +3969,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B232" t="s">
         <v>41</v>
@@ -3974,7 +3980,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B233" t="s">
         <v>41</v>
@@ -3985,7 +3991,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B234" t="s">
         <v>91</v>
@@ -3996,7 +4002,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B235" t="s">
         <v>91</v>
@@ -4007,7 +4013,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B236" t="s">
         <v>91</v>
@@ -4018,10 +4024,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C237" t="s">
         <v>96</v>
@@ -4029,7 +4035,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B238" t="s">
         <v>25</v>
@@ -4040,7 +4046,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B239" t="s">
         <v>25</v>
@@ -4051,7 +4057,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -4062,7 +4068,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B241" t="s">
         <v>61</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B242" t="s">
         <v>61</v>
@@ -4084,10 +4090,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B243" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -4095,10 +4101,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B244" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -4106,29 +4112,29 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B245" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C245" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B246" t="s">
         <v>54</v>
       </c>
       <c r="C246" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B247" t="s">
         <v>54</v>
@@ -4139,18 +4145,18 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B248" t="s">
         <v>25</v>
       </c>
       <c r="C248" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B249" t="s">
         <v>25</v>
@@ -4161,29 +4167,29 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B251" t="s">
         <v>25</v>
       </c>
       <c r="C251" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B252" t="s">
         <v>25</v>
@@ -4194,7 +4200,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B253" t="s">
         <v>30</v>
@@ -4205,18 +4211,18 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B254" t="s">
         <v>30</v>
       </c>
       <c r="C254" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B255" t="s">
         <v>30</v>
@@ -4227,29 +4233,29 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B256" t="s">
         <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B257" t="s">
         <v>25</v>
       </c>
       <c r="C257" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B258" t="s">
         <v>25</v>
@@ -4260,7 +4266,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B259" t="s">
         <v>46</v>
@@ -4279,7 +4285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4475,589 +4481,589 @@
         <v>106</v>
       </c>
       <c r="BM1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BN1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BO1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BP1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BQ1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BR1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BS1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BT1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BU1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BV1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BW1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BX1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BY1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BZ1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="CA1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="CB1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CC1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CD1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CE1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CF1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CG1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CH1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CI1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="CJ1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CK1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CL1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="CM1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="CN1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CO1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="CP1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="CQ1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CR1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CS1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CT1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CU1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CV1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CW1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="CX1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CY1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CZ1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="DA1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="DB1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DC1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DD1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="DE1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DF1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DG1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DH1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DI1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DJ1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DK1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DL1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DM1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="DN1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DO1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DP1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="DQ1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DR1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DS1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="DT1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DU1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DV1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DW1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="DX1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="DY1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DZ1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EA1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="EB1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="EC1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="ED1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="EE1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="EF1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EG1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EH1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="EI1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="EJ1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="EK1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EL1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EM1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="EN1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="EO1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="EP1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="EQ1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="ER1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="ES1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="ET1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="EU1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="EV1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="EW1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="EX1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="EY1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EZ1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="FA1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="FB1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="FC1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="FD1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="FE1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="FF1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FG1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FH1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FI1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FJ1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FK1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FL1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FM1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FN1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="FO1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="FP1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="FQ1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="FR1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="FS1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="FT1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="FU1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="FV1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="FW1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="FX1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="FY1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="FZ1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="GA1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="GB1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="GC1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="GD1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="GE1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="GF1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="GG1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="GH1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="GI1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="GJ1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="GK1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="GL1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="GM1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="GN1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="GO1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="GP1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="GQ1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="GR1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="GS1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="GT1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="GU1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="GV1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="GW1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="GX1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="GY1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="GZ1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="HA1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HB1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="HC1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="HD1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="HE1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="HF1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="HG1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="HH1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="HI1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="HJ1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="HK1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="HL1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HM1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="HN1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="HO1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="HP1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HQ1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HR1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="HT1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HU1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="HV1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="HW1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="HX1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="HY1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="HZ1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="IA1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="IB1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="IC1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="ID1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="IE1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="IF1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="IG1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="IH1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="II1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="IJ1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="IK1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="IL1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="IM1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="IN1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IO1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IP1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IQ1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IR1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IS1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IT1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="IU1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="IV1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="IW1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="IX1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="IY1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:259" x14ac:dyDescent="0.25">
@@ -5254,10 +5260,10 @@
         <v>7</v>
       </c>
       <c r="BM2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="BN2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BO2" t="s">
         <v>22</v>
@@ -5275,13 +5281,13 @@
         <v>22</v>
       </c>
       <c r="BT2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BU2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BV2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BW2" t="s">
         <v>41</v>
@@ -5299,7 +5305,7 @@
         <v>77</v>
       </c>
       <c r="CB2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CC2" t="s">
         <v>41</v>
@@ -5308,7 +5314,7 @@
         <v>91</v>
       </c>
       <c r="CE2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CF2" t="s">
         <v>71</v>
@@ -5320,16 +5326,16 @@
         <v>25</v>
       </c>
       <c r="CI2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CJ2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CK2" t="s">
         <v>46</v>
       </c>
       <c r="CL2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="CM2" t="s">
         <v>77</v>
@@ -5350,10 +5356,10 @@
         <v>30</v>
       </c>
       <c r="CS2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CT2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CU2" t="s">
         <v>71</v>
@@ -5362,19 +5368,19 @@
         <v>41</v>
       </c>
       <c r="CW2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CX2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CY2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CZ2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DA2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DB2" t="s">
         <v>10</v>
@@ -5392,16 +5398,16 @@
         <v>25</v>
       </c>
       <c r="DG2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DH2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DI2" t="s">
         <v>51</v>
       </c>
       <c r="DJ2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DK2" t="s">
         <v>25</v>
@@ -5410,7 +5416,7 @@
         <v>10</v>
       </c>
       <c r="DM2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="DN2" t="s">
         <v>25</v>
@@ -5422,7 +5428,7 @@
         <v>93</v>
       </c>
       <c r="DQ2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DR2" t="s">
         <v>10</v>
@@ -5446,7 +5452,7 @@
         <v>18</v>
       </c>
       <c r="DY2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DZ2" t="s">
         <v>41</v>
@@ -5503,10 +5509,10 @@
         <v>7</v>
       </c>
       <c r="ER2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="ES2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="ET2" t="s">
         <v>46</v>
@@ -5527,22 +5533,22 @@
         <v>93</v>
       </c>
       <c r="EZ2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="FA2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="FB2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="FC2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="FD2" t="s">
         <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="FF2" t="s">
         <v>41</v>
@@ -5554,19 +5560,19 @@
         <v>41</v>
       </c>
       <c r="FI2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FJ2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FK2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FL2" t="s">
         <v>18</v>
       </c>
       <c r="FM2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="FN2" t="s">
         <v>30</v>
@@ -5602,7 +5608,7 @@
         <v>91</v>
       </c>
       <c r="FY2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="FZ2" t="s">
         <v>77</v>
@@ -5653,13 +5659,13 @@
         <v>41</v>
       </c>
       <c r="GP2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GQ2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GR2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="GS2" t="s">
         <v>25</v>
@@ -5695,7 +5701,7 @@
         <v>25</v>
       </c>
       <c r="HD2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="HE2" t="s">
         <v>91</v>
@@ -5704,7 +5710,7 @@
         <v>71</v>
       </c>
       <c r="HG2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="HH2" t="s">
         <v>41</v>
@@ -5719,13 +5725,13 @@
         <v>41</v>
       </c>
       <c r="HL2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="HM2" t="s">
         <v>18</v>
       </c>
       <c r="HN2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="HO2" t="s">
         <v>25</v>
@@ -5734,22 +5740,22 @@
         <v>41</v>
       </c>
       <c r="HQ2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="HR2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HS2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="HT2" t="s">
         <v>46</v>
       </c>
       <c r="HU2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="HV2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="HW2" t="s">
         <v>25</v>
@@ -5770,7 +5776,7 @@
         <v>91</v>
       </c>
       <c r="IC2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="ID2" t="s">
         <v>25</v>
@@ -5788,13 +5794,13 @@
         <v>61</v>
       </c>
       <c r="II2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="IJ2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="IK2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="IL2" t="s">
         <v>54</v>
@@ -6042,10 +6048,10 @@
         <v>12</v>
       </c>
       <c r="BP3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BQ3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BR3" t="s">
         <v>43</v>
@@ -6069,13 +6075,13 @@
         <v>8</v>
       </c>
       <c r="BY3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BZ3" t="s">
         <v>12</v>
       </c>
       <c r="CA3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CB3" t="s">
         <v>8</v>
@@ -6096,7 +6102,7 @@
         <v>14</v>
       </c>
       <c r="CH3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="CI3" t="s">
         <v>8</v>
@@ -6153,7 +6159,7 @@
         <v>14</v>
       </c>
       <c r="DA3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="DB3" t="s">
         <v>8</v>
@@ -6174,7 +6180,7 @@
         <v>27</v>
       </c>
       <c r="DH3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DI3" t="s">
         <v>14</v>
@@ -6183,7 +6189,7 @@
         <v>75</v>
       </c>
       <c r="DK3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DL3" t="s">
         <v>14</v>
@@ -6216,10 +6222,10 @@
         <v>14</v>
       </c>
       <c r="DV3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="DW3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DX3" t="s">
         <v>12</v>
@@ -6231,19 +6237,19 @@
         <v>8</v>
       </c>
       <c r="EA3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="EB3" t="s">
         <v>39</v>
       </c>
       <c r="EC3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="ED3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="EE3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EF3" t="s">
         <v>14</v>
@@ -6264,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="EL3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="EM3" t="s">
         <v>8</v>
@@ -6366,7 +6372,7 @@
         <v>39</v>
       </c>
       <c r="FT3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FU3" t="s">
         <v>8</v>
@@ -6447,7 +6453,7 @@
         <v>14</v>
       </c>
       <c r="GU3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="GV3" t="s">
         <v>27</v>
@@ -6471,7 +6477,7 @@
         <v>14</v>
       </c>
       <c r="HC3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="HD3" t="s">
         <v>8</v>
@@ -6507,7 +6513,7 @@
         <v>37</v>
       </c>
       <c r="HO3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="HP3" t="s">
         <v>39</v>
@@ -6573,25 +6579,25 @@
         <v>8</v>
       </c>
       <c r="IK3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="IL3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="IM3" t="s">
         <v>14</v>
       </c>
       <c r="IN3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="IO3" t="s">
         <v>8</v>
       </c>
       <c r="IP3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IQ3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="IR3" t="s">
         <v>27</v>
@@ -6600,16 +6606,16 @@
         <v>72</v>
       </c>
       <c r="IT3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="IU3" t="s">
         <v>14</v>
       </c>
       <c r="IV3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="IW3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="IX3" t="s">
         <v>72</v>
@@ -6620,7 +6626,7 @@
     </row>
     <row r="4" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ4" t="s">
         <v>64</v>
@@ -6629,13 +6635,13 @@
         <v>64</v>
       </c>
       <c r="BK4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BL4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="HB4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="36:210" x14ac:dyDescent="0.25">
@@ -6646,13 +6652,13 @@
         <v>64</v>
       </c>
       <c r="BK5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BL5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="HB5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="36:210" x14ac:dyDescent="0.25">
@@ -6662,8 +6668,11 @@
       <c r="BB6" t="s">
         <v>64</v>
       </c>
+      <c r="BK6" t="s">
+        <v>104</v>
+      </c>
       <c r="HB6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="36:210" x14ac:dyDescent="0.25">
@@ -6674,7 +6683,7 @@
         <v>64</v>
       </c>
       <c r="HB7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="36:36" x14ac:dyDescent="0.25">
@@ -6684,7 +6693,7 @@
     </row>
     <row r="9" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="328">
   <si>
     <t>고객사</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>서울대차세대융합기술원,융기원</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t xml:space="preserve">서울대학교 자연과학대 </t>
@@ -2935,7 +2941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>203</v>
       </c>
@@ -2945,10 +2951,19 @@
       <c r="C139" t="s">
         <v>14</v>
       </c>
+      <c r="D139" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" t="s">
+        <v>205</v>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
         <v>41</v>
@@ -2959,7 +2974,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B141" t="s">
         <v>41</v>
@@ -2970,7 +2985,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B142" t="s">
         <v>41</v>
@@ -2981,7 +2996,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
         <v>41</v>
@@ -2992,7 +3007,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
         <v>41</v>
@@ -3003,7 +3018,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3014,7 +3029,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3025,7 +3040,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3036,7 +3051,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B148" t="s">
         <v>119</v>
@@ -3047,7 +3062,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B149" t="s">
         <v>130</v>
@@ -3058,7 +3073,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B150" t="s">
         <v>46</v>
@@ -3069,7 +3084,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B151" t="s">
         <v>41</v>
@@ -3080,7 +3095,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B152" t="s">
         <v>91</v>
@@ -3091,7 +3106,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B153" t="s">
         <v>51</v>
@@ -3102,7 +3117,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" t="s">
         <v>51</v>
@@ -3113,7 +3128,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B155" t="s">
         <v>93</v>
@@ -3124,7 +3139,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B156" t="s">
         <v>160</v>
@@ -3135,7 +3150,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B157" t="s">
         <v>160</v>
@@ -3146,7 +3161,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B158" t="s">
         <v>160</v>
@@ -3157,10 +3172,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3168,7 +3183,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -3179,10 +3194,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3190,7 +3205,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B162" t="s">
         <v>41</v>
@@ -3201,7 +3216,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B163" t="s">
         <v>41</v>
@@ -3212,7 +3227,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
         <v>41</v>
@@ -3223,10 +3238,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
         <v>72</v>
@@ -3234,10 +3249,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C166" t="s">
         <v>8</v>
@@ -3245,10 +3260,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3256,7 +3271,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B168" t="s">
         <v>18</v>
@@ -3267,7 +3282,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B169" t="s">
         <v>160</v>
@@ -3278,7 +3293,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
         <v>30</v>
@@ -3289,7 +3304,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
         <v>30</v>
@@ -3300,7 +3315,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B172" t="s">
         <v>41</v>
@@ -3311,7 +3326,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
         <v>41</v>
@@ -3322,7 +3337,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B174" t="s">
         <v>30</v>
@@ -3333,7 +3348,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
         <v>30</v>
@@ -3344,18 +3359,18 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
         <v>30</v>
       </c>
       <c r="C176" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
         <v>30</v>
@@ -3366,7 +3381,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
         <v>30</v>
@@ -3377,7 +3392,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
         <v>46</v>
@@ -3388,7 +3403,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B180" t="s">
         <v>91</v>
@@ -3399,7 +3414,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B181" t="s">
         <v>160</v>
@@ -3410,7 +3425,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B182" t="s">
         <v>77</v>
@@ -3421,7 +3436,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B183" t="s">
         <v>41</v>
@@ -3432,7 +3447,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B184" t="s">
         <v>41</v>
@@ -3443,7 +3458,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B185" t="s">
         <v>41</v>
@@ -3454,7 +3469,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B186" t="s">
         <v>41</v>
@@ -3465,7 +3480,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B187" t="s">
         <v>41</v>
@@ -3476,7 +3491,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B188" t="s">
         <v>93</v>
@@ -3487,7 +3502,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B189" t="s">
         <v>93</v>
@@ -3498,7 +3513,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -3509,7 +3524,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B191" t="s">
         <v>32</v>
@@ -3520,7 +3535,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B192" t="s">
         <v>51</v>
@@ -3531,7 +3546,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
@@ -3542,7 +3557,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B194" t="s">
         <v>46</v>
@@ -3553,7 +3568,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B195" t="s">
         <v>46</v>
@@ -3564,7 +3579,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B196" t="s">
         <v>46</v>
@@ -3575,7 +3590,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B197" t="s">
         <v>41</v>
@@ -3586,10 +3601,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B198" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -3597,10 +3612,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B199" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
@@ -3608,10 +3623,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B200" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C200" t="s">
         <v>39</v>
@@ -3619,7 +3634,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -3630,7 +3645,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B202" t="s">
         <v>25</v>
@@ -3641,7 +3656,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B203" t="s">
         <v>54</v>
@@ -3652,7 +3667,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B204" t="s">
         <v>54</v>
@@ -3663,7 +3678,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
@@ -3674,7 +3689,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B206" t="s">
         <v>25</v>
@@ -3685,7 +3700,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B207" t="s">
         <v>25</v>
@@ -3696,7 +3711,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B208" t="s">
         <v>25</v>
@@ -3707,7 +3722,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B209" t="s">
         <v>25</v>
@@ -3718,7 +3733,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B210" t="s">
         <v>25</v>
@@ -3727,10 +3742,10 @@
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E210" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F210" t="s">
         <v>66</v>
@@ -3738,18 +3753,18 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B211" t="s">
         <v>25</v>
       </c>
       <c r="C211" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B212" t="s">
         <v>191</v>
@@ -3760,7 +3775,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B213" t="s">
         <v>91</v>
@@ -3771,7 +3786,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B214" t="s">
         <v>71</v>
@@ -3782,10 +3797,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B215" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C215" t="s">
         <v>72</v>
@@ -3793,7 +3808,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B216" t="s">
         <v>41</v>
@@ -3804,7 +3819,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B217" t="s">
         <v>30</v>
@@ -3815,7 +3830,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B218" t="s">
         <v>46</v>
@@ -3826,7 +3841,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B219" t="s">
         <v>41</v>
@@ -3837,7 +3852,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B220" t="s">
         <v>160</v>
@@ -3848,7 +3863,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -3859,10 +3874,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B222" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C222" t="s">
         <v>37</v>
@@ -3870,7 +3885,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B223" t="s">
         <v>25</v>
@@ -3881,7 +3896,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B224" t="s">
         <v>41</v>
@@ -3892,7 +3907,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B225" t="s">
         <v>110</v>
@@ -3903,10 +3918,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B226" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C226" t="s">
         <v>8</v>
@@ -3914,10 +3929,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B227" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C227" t="s">
         <v>39</v>
@@ -3925,7 +3940,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B228" t="s">
         <v>46</v>
@@ -3936,7 +3951,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B229" t="s">
         <v>160</v>
@@ -3947,7 +3962,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B230" t="s">
         <v>160</v>
@@ -3958,7 +3973,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -3969,7 +3984,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B232" t="s">
         <v>41</v>
@@ -3980,7 +3995,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B233" t="s">
         <v>41</v>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B234" t="s">
         <v>91</v>
@@ -4002,7 +4017,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B235" t="s">
         <v>91</v>
@@ -4013,7 +4028,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B236" t="s">
         <v>91</v>
@@ -4024,10 +4039,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B237" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C237" t="s">
         <v>96</v>
@@ -4035,7 +4050,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B238" t="s">
         <v>25</v>
@@ -4046,7 +4061,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B239" t="s">
         <v>25</v>
@@ -4057,7 +4072,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -4068,7 +4083,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B241" t="s">
         <v>61</v>
@@ -4079,7 +4094,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B242" t="s">
         <v>61</v>
@@ -4090,7 +4105,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B243" t="s">
         <v>182</v>
@@ -4101,7 +4116,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B244" t="s">
         <v>160</v>
@@ -4112,7 +4127,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B245" t="s">
         <v>160</v>
@@ -4123,7 +4138,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B246" t="s">
         <v>54</v>
@@ -4134,7 +4149,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B247" t="s">
         <v>54</v>
@@ -4145,18 +4160,18 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B248" t="s">
         <v>25</v>
       </c>
       <c r="C248" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B249" t="s">
         <v>25</v>
@@ -4167,29 +4182,29 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B251" t="s">
         <v>25</v>
       </c>
       <c r="C251" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B252" t="s">
         <v>25</v>
@@ -4200,7 +4215,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B253" t="s">
         <v>30</v>
@@ -4211,7 +4226,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B254" t="s">
         <v>30</v>
@@ -4222,7 +4237,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B255" t="s">
         <v>30</v>
@@ -4233,29 +4248,29 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B256" t="s">
         <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B257" t="s">
         <v>25</v>
       </c>
       <c r="C257" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B258" t="s">
         <v>25</v>
@@ -4266,7 +4281,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B259" t="s">
         <v>46</v>
@@ -4706,364 +4721,364 @@
         <v>203</v>
       </c>
       <c r="EJ1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="EK1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="EL1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="EM1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="EN1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="EO1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="EP1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="EQ1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="ER1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="ES1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="ET1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="EU1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="EV1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EW1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="EX1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="EY1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="EZ1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="FA1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="FB1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="FC1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="FD1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="FE1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FF1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FG1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FH1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FI1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FJ1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FK1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FL1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="FM1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="FN1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="FO1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="FP1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="FQ1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="FR1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="FS1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FT1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="FU1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="FV1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="FW1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="FX1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="FY1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="FZ1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="GA1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="GB1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="GC1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="GD1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="GE1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="GF1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="GG1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="GH1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="GI1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="GJ1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="GK1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="GL1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="GM1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="GN1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="GO1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GP1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="GQ1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="GR1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="GS1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="GT1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="GU1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="GV1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="GW1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GX1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GY1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GZ1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="HA1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="HB1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="HC1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="HD1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="HE1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="HF1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="HG1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="HH1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="HI1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="HJ1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HK1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="HL1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="HM1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="HN1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="HO1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HP1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HQ1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HR1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="HS1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HT1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="HU1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="HV1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="HW1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="HX1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="HY1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="HZ1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="IA1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="IB1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="IC1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="ID1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="IE1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="IF1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="IG1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="IH1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="II1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="IJ1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IK1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IL1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="IM1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="IN1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IO1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IP1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IQ1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IR1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IS1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="IT1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="IU1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="IV1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="IW1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="IX1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="IY1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:259" x14ac:dyDescent="0.25">
@@ -5542,13 +5557,13 @@
         <v>160</v>
       </c>
       <c r="FC2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="FD2" t="s">
         <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FF2" t="s">
         <v>41</v>
@@ -5560,13 +5575,13 @@
         <v>41</v>
       </c>
       <c r="FI2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FJ2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FK2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FL2" t="s">
         <v>18</v>
@@ -5659,13 +5674,13 @@
         <v>41</v>
       </c>
       <c r="GP2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="GQ2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="GR2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="GS2" t="s">
         <v>25</v>
@@ -5710,7 +5725,7 @@
         <v>71</v>
       </c>
       <c r="HG2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="HH2" t="s">
         <v>41</v>
@@ -5731,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="HN2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HO2" t="s">
         <v>25</v>
@@ -5743,10 +5758,10 @@
         <v>110</v>
       </c>
       <c r="HR2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="HS2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="HT2" t="s">
         <v>46</v>
@@ -5776,7 +5791,7 @@
         <v>91</v>
       </c>
       <c r="IC2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="ID2" t="s">
         <v>25</v>
@@ -6372,7 +6387,7 @@
         <v>39</v>
       </c>
       <c r="FT3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="FU3" t="s">
         <v>8</v>
@@ -6477,7 +6492,7 @@
         <v>14</v>
       </c>
       <c r="HC3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="HD3" t="s">
         <v>8</v>
@@ -6588,16 +6603,16 @@
         <v>14</v>
       </c>
       <c r="IN3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="IO3" t="s">
         <v>8</v>
       </c>
       <c r="IP3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IQ3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="IR3" t="s">
         <v>27</v>
@@ -6612,10 +6627,10 @@
         <v>14</v>
       </c>
       <c r="IV3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="IW3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="IX3" t="s">
         <v>72</v>
@@ -6626,7 +6641,7 @@
     </row>
     <row r="4" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AJ4" t="s">
         <v>64</v>
@@ -6640,8 +6655,11 @@
       <c r="BL4" t="s">
         <v>107</v>
       </c>
+      <c r="EI4" t="s">
+        <v>204</v>
+      </c>
       <c r="HB4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="36:210" x14ac:dyDescent="0.25">
@@ -6658,7 +6676,7 @@
         <v>107</v>
       </c>
       <c r="HB5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="36:210" x14ac:dyDescent="0.25">
@@ -6672,7 +6690,7 @@
         <v>104</v>
       </c>
       <c r="HB6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="36:210" x14ac:dyDescent="0.25">
@@ -6683,7 +6701,7 @@
         <v>64</v>
       </c>
       <c r="HB7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="36:36" x14ac:dyDescent="0.25">
@@ -6693,7 +6711,7 @@
     </row>
     <row r="9" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="329">
   <si>
     <t>고객사</t>
   </si>
@@ -626,376 +626,379 @@
     <t>서울대차세대융합기술원,융기원</t>
   </si>
   <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울대학교 자연과학대 </t>
+  </si>
+  <si>
+    <t>서울대화학</t>
+  </si>
+  <si>
+    <t>서울대화학생물공학,화생공</t>
+  </si>
+  <si>
+    <t>서울여대</t>
+  </si>
+  <si>
+    <t>성균관대 공기원</t>
+  </si>
+  <si>
+    <t>성균관대 약대</t>
+  </si>
+  <si>
+    <t>성균관대 화학(카이럴소재)</t>
+  </si>
+  <si>
+    <t>세라믹기술원</t>
+  </si>
+  <si>
+    <t>솔브레인 공주</t>
+  </si>
+  <si>
+    <t>솔브레인 용인</t>
+  </si>
+  <si>
+    <t>숙명여대</t>
+  </si>
+  <si>
+    <t>신풍제약</t>
+  </si>
+  <si>
+    <t>아데카 Adeka</t>
+  </si>
+  <si>
+    <t>업테라</t>
+  </si>
+  <si>
+    <t>에스텍파마</t>
+  </si>
+  <si>
+    <t>엔씨켐 NC chem</t>
+  </si>
+  <si>
+    <t>엠케미칼 메카로 음성</t>
+  </si>
+  <si>
+    <t>음성</t>
+  </si>
+  <si>
+    <t>연성정밀</t>
+  </si>
+  <si>
+    <t>연세대 미래캠퍼스</t>
+  </si>
+  <si>
+    <t>원주</t>
+  </si>
+  <si>
+    <t>연세대 신촌캠퍼스</t>
+  </si>
+  <si>
+    <t>영남대 공실관</t>
+  </si>
+  <si>
+    <t>경산</t>
+  </si>
+  <si>
+    <t>영남대약대</t>
+  </si>
+  <si>
+    <t>오션브릿지</t>
+  </si>
+  <si>
+    <t>보은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오스코텍 </t>
+  </si>
+  <si>
+    <t>우정바이오</t>
+  </si>
+  <si>
+    <t>울산대 공기원</t>
+  </si>
+  <si>
+    <t>울산대 화학과</t>
+  </si>
+  <si>
+    <t>원자력병원 KIRAMS</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 400</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 400E</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 500WB</t>
+  </si>
+  <si>
+    <t>500WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유니스트 UNIST 400 </t>
+  </si>
+  <si>
+    <t>유니스트 UNIST 600</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>유한화학 안산</t>
+  </si>
+  <si>
+    <t>유한화학 화성</t>
+  </si>
+  <si>
+    <t>이지켐</t>
+  </si>
+  <si>
+    <t>이화여대 바이오융합</t>
+  </si>
+  <si>
+    <t>이화여대 약대 양희정 Agilent 400 Magnet</t>
+  </si>
+  <si>
+    <t>이화여대 약대 양희정 Bruker 400</t>
+  </si>
+  <si>
+    <t>이화여대기초 황소정 300</t>
+  </si>
+  <si>
+    <t>이화여대기초 황소정 New 300</t>
+  </si>
+  <si>
+    <t>인천대</t>
+  </si>
+  <si>
+    <t>인하대</t>
+  </si>
+  <si>
+    <t>일동유노비아</t>
+  </si>
+  <si>
+    <t>전남대</t>
+  </si>
+  <si>
+    <t>전북대</t>
+  </si>
+  <si>
+    <t>전자부품연구원</t>
+  </si>
+  <si>
+    <t>제일약품</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종근당 </t>
+  </si>
+  <si>
+    <t>중앙대</t>
+  </si>
+  <si>
+    <t>중외씨앤씨</t>
+  </si>
+  <si>
+    <t>과천</t>
+  </si>
+  <si>
+    <t>중외제약</t>
+  </si>
+  <si>
+    <t>창원대</t>
+  </si>
+  <si>
+    <t>창원</t>
+  </si>
+  <si>
+    <t>충남대공실관400</t>
+  </si>
+  <si>
+    <t>충남대공실관600</t>
+  </si>
+  <si>
+    <t>충북대 공실관 400</t>
+  </si>
+  <si>
+    <t>충북대 공실관 500</t>
+  </si>
+  <si>
+    <t>카이스트 IBS</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV3HD</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV4</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV4N</t>
+  </si>
+  <si>
+    <t>카이스트 중앙분석센터</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>카이스트400WB 신재선</t>
+  </si>
+  <si>
+    <t>US400WB</t>
+  </si>
+  <si>
+    <t>케이머트리얼즈, 데이스타</t>
+  </si>
+  <si>
+    <t>켐트로스</t>
+  </si>
+  <si>
+    <t>코오롱 구미</t>
+  </si>
+  <si>
+    <t>코오롱 충주</t>
+  </si>
+  <si>
+    <t>충주</t>
+  </si>
+  <si>
+    <t>코오롱생명과학(마곡)</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>티씨노바이오사이언스</t>
+  </si>
+  <si>
+    <t>파로스아이바이오</t>
+  </si>
+  <si>
+    <t>파마코스텍</t>
+  </si>
+  <si>
+    <t>파스퇴르연구소</t>
+  </si>
+  <si>
+    <t>팜한농</t>
+  </si>
+  <si>
+    <t>논산</t>
+  </si>
+  <si>
+    <t>표준과학연구원</t>
+  </si>
+  <si>
+    <t>퓨처캠</t>
+  </si>
+  <si>
+    <t>하이닉스</t>
+  </si>
+  <si>
+    <t>한경대</t>
+  </si>
+  <si>
+    <t>안성</t>
+  </si>
+  <si>
+    <t>한국에너지공과대학교</t>
+  </si>
+  <si>
+    <t>전남</t>
+  </si>
+  <si>
+    <t>한국외대</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>한밭대</t>
+  </si>
+  <si>
+    <t>한양대 서울</t>
+  </si>
+  <si>
+    <t>한양대 서울 Agilent</t>
+  </si>
+  <si>
+    <t>한양대 에리카 공기원</t>
+  </si>
+  <si>
+    <t>한양대 에리카 화학과</t>
+  </si>
+  <si>
+    <t>한켐</t>
+  </si>
+  <si>
+    <t>충청</t>
+  </si>
+  <si>
+    <t>한화솔루션 대전  Old</t>
+  </si>
+  <si>
+    <t>한화솔루션 대전 New</t>
+  </si>
+  <si>
+    <t>한화큐셀,한화미래기술연구소 판교</t>
+  </si>
+  <si>
+    <t>한화토탈 대산</t>
+  </si>
+  <si>
+    <t>해양과학기술원 부산</t>
+  </si>
+  <si>
+    <t>현대자동차</t>
+  </si>
+  <si>
+    <t>화학물질안전원 NICS</t>
+  </si>
+  <si>
+    <t>화학연구원 대전 김태승</t>
+  </si>
+  <si>
+    <t>US700</t>
+  </si>
+  <si>
+    <t>A500①</t>
+  </si>
+  <si>
+    <t>A500②</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 300</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 500</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 600</t>
+  </si>
+  <si>
+    <t>화학연구원대전 김진희</t>
+  </si>
+  <si>
+    <t>A400①</t>
+  </si>
+  <si>
+    <t>A400②</t>
+  </si>
+  <si>
+    <t>환인제약</t>
+  </si>
+  <si>
+    <t>충진기록</t>
+  </si>
+  <si>
     <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울대학교 자연과학대 </t>
-  </si>
-  <si>
-    <t>서울대화학</t>
-  </si>
-  <si>
-    <t>서울대화학생물공학,화생공</t>
-  </si>
-  <si>
-    <t>서울여대</t>
-  </si>
-  <si>
-    <t>성균관대 공기원</t>
-  </si>
-  <si>
-    <t>성균관대 약대</t>
-  </si>
-  <si>
-    <t>성균관대 화학(카이럴소재)</t>
-  </si>
-  <si>
-    <t>세라믹기술원</t>
-  </si>
-  <si>
-    <t>솔브레인 공주</t>
-  </si>
-  <si>
-    <t>솔브레인 용인</t>
-  </si>
-  <si>
-    <t>숙명여대</t>
-  </si>
-  <si>
-    <t>신풍제약</t>
-  </si>
-  <si>
-    <t>아데카 Adeka</t>
-  </si>
-  <si>
-    <t>업테라</t>
-  </si>
-  <si>
-    <t>에스텍파마</t>
-  </si>
-  <si>
-    <t>엔씨켐 NC chem</t>
-  </si>
-  <si>
-    <t>엠케미칼 메카로 음성</t>
-  </si>
-  <si>
-    <t>음성</t>
-  </si>
-  <si>
-    <t>연성정밀</t>
-  </si>
-  <si>
-    <t>연세대 미래캠퍼스</t>
-  </si>
-  <si>
-    <t>원주</t>
-  </si>
-  <si>
-    <t>연세대 신촌캠퍼스</t>
-  </si>
-  <si>
-    <t>영남대 공실관</t>
-  </si>
-  <si>
-    <t>경산</t>
-  </si>
-  <si>
-    <t>영남대약대</t>
-  </si>
-  <si>
-    <t>오션브릿지</t>
-  </si>
-  <si>
-    <t>보은</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오스코텍 </t>
-  </si>
-  <si>
-    <t>우정바이오</t>
-  </si>
-  <si>
-    <t>울산대 공기원</t>
-  </si>
-  <si>
-    <t>울산대 화학과</t>
-  </si>
-  <si>
-    <t>원자력병원 KIRAMS</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 400</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 400E</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 500WB</t>
-  </si>
-  <si>
-    <t>500WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유니스트 UNIST 400 </t>
-  </si>
-  <si>
-    <t>유니스트 UNIST 600</t>
-  </si>
-  <si>
-    <t>유한양행</t>
-  </si>
-  <si>
-    <t>유한화학 안산</t>
-  </si>
-  <si>
-    <t>유한화학 화성</t>
-  </si>
-  <si>
-    <t>이지켐</t>
-  </si>
-  <si>
-    <t>이화여대 바이오융합</t>
-  </si>
-  <si>
-    <t>이화여대 약대 양희정 Agilent 400 Magnet</t>
-  </si>
-  <si>
-    <t>이화여대 약대 양희정 Bruker 400</t>
-  </si>
-  <si>
-    <t>이화여대기초 황소정 300</t>
-  </si>
-  <si>
-    <t>이화여대기초 황소정 New 300</t>
-  </si>
-  <si>
-    <t>인천대</t>
-  </si>
-  <si>
-    <t>인하대</t>
-  </si>
-  <si>
-    <t>일동유노비아</t>
-  </si>
-  <si>
-    <t>전남대</t>
-  </si>
-  <si>
-    <t>전북대</t>
-  </si>
-  <si>
-    <t>전자부품연구원</t>
-  </si>
-  <si>
-    <t>제일약품</t>
-  </si>
-  <si>
-    <t xml:space="preserve">종근당 </t>
-  </si>
-  <si>
-    <t>중앙대</t>
-  </si>
-  <si>
-    <t>중외씨앤씨</t>
-  </si>
-  <si>
-    <t>과천</t>
-  </si>
-  <si>
-    <t>중외제약</t>
-  </si>
-  <si>
-    <t>창원대</t>
-  </si>
-  <si>
-    <t>창원</t>
-  </si>
-  <si>
-    <t>충남대공실관400</t>
-  </si>
-  <si>
-    <t>충남대공실관600</t>
-  </si>
-  <si>
-    <t>충북대 공실관 400</t>
-  </si>
-  <si>
-    <t>충북대 공실관 500</t>
-  </si>
-  <si>
-    <t>카이스트 IBS</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV3HD</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV4</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV4N</t>
-  </si>
-  <si>
-    <t>카이스트 중앙분석센터</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
-    <t>카이스트400WB 신재선</t>
-  </si>
-  <si>
-    <t>US400WB</t>
-  </si>
-  <si>
-    <t>케이머트리얼즈, 데이스타</t>
-  </si>
-  <si>
-    <t>켐트로스</t>
-  </si>
-  <si>
-    <t>코오롱 구미</t>
-  </si>
-  <si>
-    <t>코오롱 충주</t>
-  </si>
-  <si>
-    <t>충주</t>
-  </si>
-  <si>
-    <t>코오롱생명과학(마곡)</t>
-  </si>
-  <si>
-    <t>태광산업</t>
-  </si>
-  <si>
-    <t>티씨노바이오사이언스</t>
-  </si>
-  <si>
-    <t>파로스아이바이오</t>
-  </si>
-  <si>
-    <t>파마코스텍</t>
-  </si>
-  <si>
-    <t>파스퇴르연구소</t>
-  </si>
-  <si>
-    <t>팜한농</t>
-  </si>
-  <si>
-    <t>논산</t>
-  </si>
-  <si>
-    <t>표준과학연구원</t>
-  </si>
-  <si>
-    <t>퓨처캠</t>
-  </si>
-  <si>
-    <t>하이닉스</t>
-  </si>
-  <si>
-    <t>한경대</t>
-  </si>
-  <si>
-    <t>안성</t>
-  </si>
-  <si>
-    <t>한국에너지공과대학교</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>한국외대</t>
-  </si>
-  <si>
-    <t>한미약품</t>
-  </si>
-  <si>
-    <t>한밭대</t>
-  </si>
-  <si>
-    <t>한양대 서울</t>
-  </si>
-  <si>
-    <t>한양대 서울 Agilent</t>
-  </si>
-  <si>
-    <t>한양대 에리카 공기원</t>
-  </si>
-  <si>
-    <t>한양대 에리카 화학과</t>
-  </si>
-  <si>
-    <t>한켐</t>
-  </si>
-  <si>
-    <t>충청</t>
-  </si>
-  <si>
-    <t>한화솔루션 대전  Old</t>
-  </si>
-  <si>
-    <t>한화솔루션 대전 New</t>
-  </si>
-  <si>
-    <t>한화큐셀,한화미래기술연구소 판교</t>
-  </si>
-  <si>
-    <t>한화토탈 대산</t>
-  </si>
-  <si>
-    <t>해양과학기술원 부산</t>
-  </si>
-  <si>
-    <t>현대자동차</t>
-  </si>
-  <si>
-    <t>화학물질안전원 NICS</t>
-  </si>
-  <si>
-    <t>화학연구원 대전 김태승</t>
-  </si>
-  <si>
-    <t>US700</t>
-  </si>
-  <si>
-    <t>A500①</t>
-  </si>
-  <si>
-    <t>A500②</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 300</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 500</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 600</t>
-  </si>
-  <si>
-    <t>화학연구원대전 김진희</t>
-  </si>
-  <si>
-    <t>A400①</t>
-  </si>
-  <si>
-    <t>A400②</t>
-  </si>
-  <si>
-    <t>환인제약</t>
-  </si>
-  <si>
-    <t>충진기록</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4300,7 +4303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6656,7 +6659,7 @@
         <v>107</v>
       </c>
       <c r="EI4" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="HB4" t="s">
         <v>276</v>
@@ -6675,6 +6678,9 @@
       <c r="BL5" t="s">
         <v>107</v>
       </c>
+      <c r="EI5" t="s">
+        <v>204</v>
+      </c>
       <c r="HB5" t="s">
         <v>276</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="329">
   <si>
     <t>고객사</t>
   </si>
@@ -626,379 +626,379 @@
     <t>서울대차세대융합기술원,융기원</t>
   </si>
   <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서울대학교 자연과학대 </t>
+  </si>
+  <si>
+    <t>서울대화학</t>
+  </si>
+  <si>
+    <t>서울대화학생물공학,화생공</t>
+  </si>
+  <si>
+    <t>서울여대</t>
+  </si>
+  <si>
+    <t>성균관대 공기원</t>
+  </si>
+  <si>
+    <t>성균관대 약대</t>
+  </si>
+  <si>
+    <t>성균관대 화학(카이럴소재)</t>
+  </si>
+  <si>
+    <t>세라믹기술원</t>
+  </si>
+  <si>
+    <t>솔브레인 공주</t>
+  </si>
+  <si>
+    <t>솔브레인 용인</t>
+  </si>
+  <si>
+    <t>숙명여대</t>
+  </si>
+  <si>
+    <t>신풍제약</t>
+  </si>
+  <si>
+    <t>아데카 Adeka</t>
+  </si>
+  <si>
+    <t>업테라</t>
+  </si>
+  <si>
+    <t>에스텍파마</t>
+  </si>
+  <si>
+    <t>엔씨켐 NC chem</t>
+  </si>
+  <si>
+    <t>엠케미칼 메카로 음성</t>
+  </si>
+  <si>
+    <t>음성</t>
+  </si>
+  <si>
+    <t>연성정밀</t>
+  </si>
+  <si>
+    <t>연세대 미래캠퍼스</t>
+  </si>
+  <si>
+    <t>원주</t>
+  </si>
+  <si>
+    <t>연세대 신촌캠퍼스</t>
+  </si>
+  <si>
+    <t>영남대 공실관</t>
+  </si>
+  <si>
+    <t>경산</t>
+  </si>
+  <si>
+    <t>영남대약대</t>
+  </si>
+  <si>
+    <t>오션브릿지</t>
+  </si>
+  <si>
+    <t>보은</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오스코텍 </t>
+  </si>
+  <si>
+    <t>우정바이오</t>
+  </si>
+  <si>
+    <t>울산대 공기원</t>
+  </si>
+  <si>
+    <t>울산대 화학과</t>
+  </si>
+  <si>
+    <t>원자력병원 KIRAMS</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 400</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 400E</t>
+  </si>
+  <si>
+    <t>유니스트 IBS 500WB</t>
+  </si>
+  <si>
+    <t>500WB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유니스트 UNIST 400 </t>
+  </si>
+  <si>
+    <t>유니스트 UNIST 600</t>
+  </si>
+  <si>
+    <t>유한양행</t>
+  </si>
+  <si>
+    <t>유한화학 안산</t>
+  </si>
+  <si>
+    <t>유한화학 화성</t>
+  </si>
+  <si>
+    <t>이지켐</t>
+  </si>
+  <si>
+    <t>이화여대 바이오융합</t>
+  </si>
+  <si>
+    <t>이화여대 약대 양희정 Agilent 400 Magnet</t>
+  </si>
+  <si>
+    <t>이화여대 약대 양희정 Bruker 400</t>
+  </si>
+  <si>
+    <t>이화여대기초 황소정 300</t>
+  </si>
+  <si>
+    <t>이화여대기초 황소정 New 300</t>
+  </si>
+  <si>
+    <t>인천대</t>
+  </si>
+  <si>
+    <t>인하대</t>
+  </si>
+  <si>
+    <t>일동유노비아</t>
+  </si>
+  <si>
+    <t>전남대</t>
+  </si>
+  <si>
+    <t>전북대</t>
+  </si>
+  <si>
+    <t>전자부품연구원</t>
+  </si>
+  <si>
+    <t>제일약품</t>
+  </si>
+  <si>
+    <t xml:space="preserve">종근당 </t>
+  </si>
+  <si>
+    <t>중앙대</t>
+  </si>
+  <si>
+    <t>중외씨앤씨</t>
+  </si>
+  <si>
+    <t>과천</t>
+  </si>
+  <si>
+    <t>중외제약</t>
+  </si>
+  <si>
+    <t>창원대</t>
+  </si>
+  <si>
+    <t>창원</t>
+  </si>
+  <si>
+    <t>충남대공실관400</t>
+  </si>
+  <si>
+    <t>충남대공실관600</t>
+  </si>
+  <si>
+    <t>충북대 공실관 400</t>
+  </si>
+  <si>
+    <t>충북대 공실관 500</t>
+  </si>
+  <si>
+    <t>카이스트 IBS</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV3HD</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV4</t>
+  </si>
+  <si>
+    <t>카이스트 kaist화학과 신재선 AV4N</t>
+  </si>
+  <si>
+    <t>카이스트 중앙분석센터</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>카이스트400WB 신재선</t>
+  </si>
+  <si>
+    <t>US400WB</t>
+  </si>
+  <si>
+    <t>케이머트리얼즈, 데이스타</t>
+  </si>
+  <si>
+    <t>켐트로스</t>
+  </si>
+  <si>
+    <t>코오롱 구미</t>
+  </si>
+  <si>
+    <t>코오롱 충주</t>
+  </si>
+  <si>
+    <t>충주</t>
+  </si>
+  <si>
+    <t>코오롱생명과학(마곡)</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>티씨노바이오사이언스</t>
+  </si>
+  <si>
+    <t>파로스아이바이오</t>
+  </si>
+  <si>
+    <t>파마코스텍</t>
+  </si>
+  <si>
+    <t>파스퇴르연구소</t>
+  </si>
+  <si>
+    <t>팜한농</t>
+  </si>
+  <si>
+    <t>논산</t>
+  </si>
+  <si>
+    <t>표준과학연구원</t>
+  </si>
+  <si>
+    <t>퓨처캠</t>
+  </si>
+  <si>
+    <t>하이닉스</t>
+  </si>
+  <si>
+    <t>한경대</t>
+  </si>
+  <si>
+    <t>안성</t>
+  </si>
+  <si>
+    <t>한국에너지공과대학교</t>
+  </si>
+  <si>
+    <t>전남</t>
+  </si>
+  <si>
+    <t>한국외대</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>한밭대</t>
+  </si>
+  <si>
+    <t>한양대 서울</t>
+  </si>
+  <si>
+    <t>한양대 서울 Agilent</t>
+  </si>
+  <si>
+    <t>한양대 에리카 공기원</t>
+  </si>
+  <si>
+    <t>한양대 에리카 화학과</t>
+  </si>
+  <si>
+    <t>한켐</t>
+  </si>
+  <si>
+    <t>충청</t>
+  </si>
+  <si>
+    <t>한화솔루션 대전  Old</t>
+  </si>
+  <si>
+    <t>한화솔루션 대전 New</t>
+  </si>
+  <si>
+    <t>한화큐셀,한화미래기술연구소 판교</t>
+  </si>
+  <si>
+    <t>한화토탈 대산</t>
+  </si>
+  <si>
+    <t>해양과학기술원 부산</t>
+  </si>
+  <si>
+    <t>현대자동차</t>
+  </si>
+  <si>
+    <t>화학물질안전원 NICS</t>
+  </si>
+  <si>
+    <t>화학연구원 대전 김태승</t>
+  </si>
+  <si>
+    <t>US700</t>
+  </si>
+  <si>
+    <t>A500①</t>
+  </si>
+  <si>
+    <t>A500②</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 300</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 500</t>
+  </si>
+  <si>
+    <t>화학연구원 울산 600</t>
+  </si>
+  <si>
+    <t>화학연구원대전 김진희</t>
+  </si>
+  <si>
+    <t>A400①</t>
+  </si>
+  <si>
+    <t>A400②</t>
+  </si>
+  <si>
+    <t>환인제약</t>
+  </si>
+  <si>
+    <t>충진기록</t>
+  </si>
+  <si>
     <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">서울대학교 자연과학대 </t>
-  </si>
-  <si>
-    <t>서울대화학</t>
-  </si>
-  <si>
-    <t>서울대화학생물공학,화생공</t>
-  </si>
-  <si>
-    <t>서울여대</t>
-  </si>
-  <si>
-    <t>성균관대 공기원</t>
-  </si>
-  <si>
-    <t>성균관대 약대</t>
-  </si>
-  <si>
-    <t>성균관대 화학(카이럴소재)</t>
-  </si>
-  <si>
-    <t>세라믹기술원</t>
-  </si>
-  <si>
-    <t>솔브레인 공주</t>
-  </si>
-  <si>
-    <t>솔브레인 용인</t>
-  </si>
-  <si>
-    <t>숙명여대</t>
-  </si>
-  <si>
-    <t>신풍제약</t>
-  </si>
-  <si>
-    <t>아데카 Adeka</t>
-  </si>
-  <si>
-    <t>업테라</t>
-  </si>
-  <si>
-    <t>에스텍파마</t>
-  </si>
-  <si>
-    <t>엔씨켐 NC chem</t>
-  </si>
-  <si>
-    <t>엠케미칼 메카로 음성</t>
-  </si>
-  <si>
-    <t>음성</t>
-  </si>
-  <si>
-    <t>연성정밀</t>
-  </si>
-  <si>
-    <t>연세대 미래캠퍼스</t>
-  </si>
-  <si>
-    <t>원주</t>
-  </si>
-  <si>
-    <t>연세대 신촌캠퍼스</t>
-  </si>
-  <si>
-    <t>영남대 공실관</t>
-  </si>
-  <si>
-    <t>경산</t>
-  </si>
-  <si>
-    <t>영남대약대</t>
-  </si>
-  <si>
-    <t>오션브릿지</t>
-  </si>
-  <si>
-    <t>보은</t>
-  </si>
-  <si>
-    <t xml:space="preserve">오스코텍 </t>
-  </si>
-  <si>
-    <t>우정바이오</t>
-  </si>
-  <si>
-    <t>울산대 공기원</t>
-  </si>
-  <si>
-    <t>울산대 화학과</t>
-  </si>
-  <si>
-    <t>원자력병원 KIRAMS</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 400</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 400E</t>
-  </si>
-  <si>
-    <t>유니스트 IBS 500WB</t>
-  </si>
-  <si>
-    <t>500WB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">유니스트 UNIST 400 </t>
-  </si>
-  <si>
-    <t>유니스트 UNIST 600</t>
-  </si>
-  <si>
-    <t>유한양행</t>
-  </si>
-  <si>
-    <t>유한화학 안산</t>
-  </si>
-  <si>
-    <t>유한화학 화성</t>
-  </si>
-  <si>
-    <t>이지켐</t>
-  </si>
-  <si>
-    <t>이화여대 바이오융합</t>
-  </si>
-  <si>
-    <t>이화여대 약대 양희정 Agilent 400 Magnet</t>
-  </si>
-  <si>
-    <t>이화여대 약대 양희정 Bruker 400</t>
-  </si>
-  <si>
-    <t>이화여대기초 황소정 300</t>
-  </si>
-  <si>
-    <t>이화여대기초 황소정 New 300</t>
-  </si>
-  <si>
-    <t>인천대</t>
-  </si>
-  <si>
-    <t>인하대</t>
-  </si>
-  <si>
-    <t>일동유노비아</t>
-  </si>
-  <si>
-    <t>전남대</t>
-  </si>
-  <si>
-    <t>전북대</t>
-  </si>
-  <si>
-    <t>전자부품연구원</t>
-  </si>
-  <si>
-    <t>제일약품</t>
-  </si>
-  <si>
-    <t xml:space="preserve">종근당 </t>
-  </si>
-  <si>
-    <t>중앙대</t>
-  </si>
-  <si>
-    <t>중외씨앤씨</t>
-  </si>
-  <si>
-    <t>과천</t>
-  </si>
-  <si>
-    <t>중외제약</t>
-  </si>
-  <si>
-    <t>창원대</t>
-  </si>
-  <si>
-    <t>창원</t>
-  </si>
-  <si>
-    <t>충남대공실관400</t>
-  </si>
-  <si>
-    <t>충남대공실관600</t>
-  </si>
-  <si>
-    <t>충북대 공실관 400</t>
-  </si>
-  <si>
-    <t>충북대 공실관 500</t>
-  </si>
-  <si>
-    <t>카이스트 IBS</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV3HD</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV4</t>
-  </si>
-  <si>
-    <t>카이스트 kaist화학과 신재선 AV4N</t>
-  </si>
-  <si>
-    <t>카이스트 중앙분석센터</t>
-  </si>
-  <si>
-    <t>2025-04-02</t>
-  </si>
-  <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
-    <t>카이스트400WB 신재선</t>
-  </si>
-  <si>
-    <t>US400WB</t>
-  </si>
-  <si>
-    <t>케이머트리얼즈, 데이스타</t>
-  </si>
-  <si>
-    <t>켐트로스</t>
-  </si>
-  <si>
-    <t>코오롱 구미</t>
-  </si>
-  <si>
-    <t>코오롱 충주</t>
-  </si>
-  <si>
-    <t>충주</t>
-  </si>
-  <si>
-    <t>코오롱생명과학(마곡)</t>
-  </si>
-  <si>
-    <t>태광산업</t>
-  </si>
-  <si>
-    <t>티씨노바이오사이언스</t>
-  </si>
-  <si>
-    <t>파로스아이바이오</t>
-  </si>
-  <si>
-    <t>파마코스텍</t>
-  </si>
-  <si>
-    <t>파스퇴르연구소</t>
-  </si>
-  <si>
-    <t>팜한농</t>
-  </si>
-  <si>
-    <t>논산</t>
-  </si>
-  <si>
-    <t>표준과학연구원</t>
-  </si>
-  <si>
-    <t>퓨처캠</t>
-  </si>
-  <si>
-    <t>하이닉스</t>
-  </si>
-  <si>
-    <t>한경대</t>
-  </si>
-  <si>
-    <t>안성</t>
-  </si>
-  <si>
-    <t>한국에너지공과대학교</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>한국외대</t>
-  </si>
-  <si>
-    <t>한미약품</t>
-  </si>
-  <si>
-    <t>한밭대</t>
-  </si>
-  <si>
-    <t>한양대 서울</t>
-  </si>
-  <si>
-    <t>한양대 서울 Agilent</t>
-  </si>
-  <si>
-    <t>한양대 에리카 공기원</t>
-  </si>
-  <si>
-    <t>한양대 에리카 화학과</t>
-  </si>
-  <si>
-    <t>한켐</t>
-  </si>
-  <si>
-    <t>충청</t>
-  </si>
-  <si>
-    <t>한화솔루션 대전  Old</t>
-  </si>
-  <si>
-    <t>한화솔루션 대전 New</t>
-  </si>
-  <si>
-    <t>한화큐셀,한화미래기술연구소 판교</t>
-  </si>
-  <si>
-    <t>한화토탈 대산</t>
-  </si>
-  <si>
-    <t>해양과학기술원 부산</t>
-  </si>
-  <si>
-    <t>현대자동차</t>
-  </si>
-  <si>
-    <t>화학물질안전원 NICS</t>
-  </si>
-  <si>
-    <t>화학연구원 대전 김태승</t>
-  </si>
-  <si>
-    <t>US700</t>
-  </si>
-  <si>
-    <t>A500①</t>
-  </si>
-  <si>
-    <t>A500②</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 300</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 500</t>
-  </si>
-  <si>
-    <t>화학연구원 울산 600</t>
-  </si>
-  <si>
-    <t>화학연구원대전 김진희</t>
-  </si>
-  <si>
-    <t>A400①</t>
-  </si>
-  <si>
-    <t>A400②</t>
-  </si>
-  <si>
-    <t>환인제약</t>
-  </si>
-  <si>
-    <t>충진기록</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
   </si>
 </sst>
 </file>
@@ -6659,7 +6659,7 @@
         <v>107</v>
       </c>
       <c r="EI4" t="s">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="HB4" t="s">
         <v>276</v>
@@ -6679,7 +6679,7 @@
         <v>107</v>
       </c>
       <c r="EI5" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="HB5" t="s">
         <v>276</v>
@@ -6695,6 +6695,9 @@
       <c r="BK6" t="s">
         <v>104</v>
       </c>
+      <c r="EI6" t="s">
+        <v>204</v>
+      </c>
       <c r="HB6" t="s">
         <v>276</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="329">
   <si>
     <t>고객사</t>
   </si>
@@ -6709,6 +6709,9 @@
       <c r="BB7" t="s">
         <v>64</v>
       </c>
+      <c r="EI7" t="s">
+        <v>204</v>
+      </c>
       <c r="HB7" t="s">
         <v>276</v>
       </c>

--- a/assets/He.xlsx
+++ b/assets/He.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="331">
   <si>
     <t>고객사</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>경기</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
   </si>
   <si>
     <t>CJ헬스케어,  HK이노엔</t>
@@ -1379,7 +1385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1445,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1455,13 +1461,22 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1469,10 +1484,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1480,21 +1495,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1502,21 +1517,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1524,10 +1539,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -1535,10 +1550,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1546,10 +1561,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1557,10 +1572,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1568,10 +1583,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1579,10 +1594,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1590,32 +1605,32 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1623,43 +1638,43 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -1667,10 +1682,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1678,10 +1693,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -1689,10 +1704,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1700,10 +1715,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1711,21 +1726,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1733,21 +1748,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1755,10 +1770,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1766,10 +1781,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1777,38 +1792,38 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -1819,40 +1834,40 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1863,21 +1878,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -1885,10 +1900,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1896,10 +1911,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -1907,10 +1922,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1918,10 +1933,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -1929,18 +1944,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1951,10 +1966,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1973,7 +1988,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1984,30 +1999,30 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -2015,10 +2030,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -2026,10 +2041,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2037,21 +2052,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
         <v>97</v>
-      </c>
-      <c r="B59" t="s">
-        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2059,21 +2074,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
         <v>101</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -2081,7 +2096,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2092,7 +2107,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2101,10 +2116,10 @@
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2112,19 +2127,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2132,21 +2147,21 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -2154,10 +2169,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2165,43 +2180,43 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -2209,43 +2224,43 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" t="s">
         <v>121</v>
       </c>
-      <c r="B74" t="s">
-        <v>119</v>
-      </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
@@ -2253,10 +2268,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -2264,21 +2279,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
         <v>12</v>
@@ -2286,21 +2301,21 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
@@ -2308,10 +2323,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -2319,10 +2334,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
@@ -2330,32 +2345,32 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -2363,21 +2378,21 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2385,10 +2400,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2396,10 +2411,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2407,10 +2422,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -2418,10 +2433,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s">
         <v>12</v>
@@ -2429,10 +2444,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
         <v>12</v>
@@ -2440,21 +2455,21 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2462,10 +2477,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -2473,10 +2488,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2484,10 +2499,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
@@ -2495,10 +2510,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2506,10 +2521,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2517,10 +2532,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
@@ -2528,10 +2543,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
@@ -2539,10 +2554,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -2550,10 +2565,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -2561,10 +2576,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -2572,18 +2587,18 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
         <v>162</v>
       </c>
-      <c r="B105" t="s">
-        <v>160</v>
-      </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -2594,7 +2609,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -2605,21 +2620,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -2627,10 +2642,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
@@ -2638,32 +2653,32 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C112" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -2671,29 +2686,29 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -2704,21 +2719,21 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2726,10 +2741,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2737,10 +2752,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -2748,10 +2763,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -2759,7 +2774,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -2770,10 +2785,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
@@ -2781,7 +2796,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -2792,7 +2807,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -2803,32 +2818,32 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
@@ -2836,10 +2851,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -2847,10 +2862,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
@@ -2858,65 +2873,65 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
         <v>41</v>
-      </c>
-      <c r="C132" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -2924,10 +2939,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -2935,18 +2950,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -2955,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E139" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F139">
         <v>6</v>
@@ -2966,21 +2981,21 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -2988,21 +3003,21 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
@@ -3010,29 +3025,29 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3043,7 +3058,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3054,10 +3069,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
@@ -3065,10 +3080,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
@@ -3076,10 +3091,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
@@ -3087,10 +3102,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B151" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
@@ -3098,10 +3113,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -3109,21 +3124,21 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -3131,10 +3146,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B155" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -3142,10 +3157,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -3153,10 +3168,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
@@ -3164,10 +3179,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
@@ -3175,10 +3190,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3186,21 +3201,21 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -3208,10 +3223,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -3219,43 +3234,43 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C164" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C165" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
         <v>8</v>
@@ -3263,10 +3278,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3274,10 +3289,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B168" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
@@ -3285,10 +3300,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -3296,10 +3311,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
@@ -3307,21 +3322,21 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C171" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
         <v>14</v>
@@ -3329,21 +3344,21 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C173" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -3351,32 +3366,32 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
@@ -3384,10 +3399,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C178" t="s">
         <v>14</v>
@@ -3395,10 +3410,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B179" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
@@ -3406,10 +3421,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
@@ -3417,10 +3432,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
@@ -3428,10 +3443,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
@@ -3439,10 +3454,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
@@ -3450,10 +3465,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C184" t="s">
         <v>8</v>
@@ -3461,10 +3476,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
@@ -3472,32 +3487,32 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C187" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C188" t="s">
         <v>8</v>
@@ -3505,10 +3520,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B189" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
@@ -3516,7 +3531,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
@@ -3527,10 +3542,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -3538,10 +3553,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C192" t="s">
         <v>8</v>
@@ -3549,10 +3564,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B193" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C193" t="s">
         <v>8</v>
@@ -3560,10 +3575,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B194" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C194" t="s">
         <v>8</v>
@@ -3571,43 +3586,43 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B195" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B198" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -3615,10 +3630,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B199" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
@@ -3626,21 +3641,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C200" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B201" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -3648,10 +3663,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B202" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -3659,32 +3674,32 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B203" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C203" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B204" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
@@ -3692,10 +3707,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
@@ -3703,10 +3718,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -3714,10 +3729,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B208" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
@@ -3725,10 +3740,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B209" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
@@ -3736,41 +3751,41 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
       </c>
       <c r="D210" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E210" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F210" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B211" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B212" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
@@ -3778,21 +3793,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C213" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B214" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
@@ -3800,21 +3815,21 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B215" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C215" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B216" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
@@ -3822,54 +3837,54 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B218" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C218" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B220" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B221" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
@@ -3877,43 +3892,43 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B222" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B223" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C223" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B224" t="s">
+        <v>43</v>
+      </c>
+      <c r="C224" t="s">
         <v>41</v>
-      </c>
-      <c r="C224" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B225" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C225" t="s">
         <v>8</v>
@@ -3921,10 +3936,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C226" t="s">
         <v>8</v>
@@ -3932,21 +3947,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B227" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C227" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
@@ -3954,10 +3969,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B229" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
@@ -3965,21 +3980,21 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B230" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C230" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
         <v>8</v>
@@ -3987,10 +4002,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B232" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C232" t="s">
         <v>8</v>
@@ -3998,10 +4013,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B233" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
@@ -4009,10 +4024,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B234" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -4020,10 +4035,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B235" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C235" t="s">
         <v>8</v>
@@ -4031,32 +4046,32 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B236" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C236" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B237" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C237" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B238" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -4064,10 +4079,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -4075,10 +4090,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B240" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -4086,10 +4101,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B241" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C241" t="s">
         <v>12</v>
@@ -4097,10 +4112,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B242" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -4108,10 +4123,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B243" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -4119,10 +4134,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B244" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -4130,32 +4145,32 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B245" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C245" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B246" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C246" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -4163,21 +4178,21 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B248" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C248" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B249" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -4185,65 +4200,65 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B250" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C250" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B251" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C251" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B252" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C253" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C254" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C255" t="s">
         <v>14</v>
@@ -4251,46 +4266,46 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B256" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C256" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B257" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C259" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4318,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="0" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4325,763 +4340,763 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AA1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AF1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AG1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AK1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AL1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AN1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AQ1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AR1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AS1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AT1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AU1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AV1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AW1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AX1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AY1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AZ1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BC1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BD1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BE1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BF1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BG1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BH1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BI1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="BJ1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="BK1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BL1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="BM1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BN1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BO1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BP1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BQ1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BR1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BS1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BT1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BU1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BV1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BW1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BX1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BY1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BZ1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="CA1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="CB1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CC1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CD1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="CE1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CF1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CG1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="CH1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="CI1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CJ1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="CK1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="CL1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="CM1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="CN1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="CO1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="CP1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="CQ1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="CR1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="CS1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="CT1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="CU1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="CV1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="CW1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="CX1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CY1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CZ1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="DA1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DB1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="DC1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DD1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DE1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DF1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DG1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DH1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DI1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DJ1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DK1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="DL1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="DM1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="DN1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="DO1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="DP1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DQ1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DR1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DS1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="DT1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="DU1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DV1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="DW1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="DX1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DY1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DZ1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="EA1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="EB1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="EC1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="ED1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="EE1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="EF1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="EG1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="EH1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="EI1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="EJ1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="EK1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="EL1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="EM1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="EN1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="EO1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="EP1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="EQ1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="ER1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="ES1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="ET1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="EU1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="EV1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="EW1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="EX1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="EY1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="EZ1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="FA1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="FB1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="FC1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="FD1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FE1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FF1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FG1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FH1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FI1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FJ1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FK1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="FL1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="FM1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="FN1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="FO1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="FP1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FQ1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="FR1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="FS1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="FT1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="FU1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="FV1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="FW1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="FX1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="FY1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="FZ1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="GA1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="GB1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="GC1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="GD1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="GE1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="GF1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="GG1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="GH1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="GI1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="GJ1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="GK1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="GL1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="GM1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="GN1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="GO1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="GP1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="GQ1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="GR1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="GS1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="GT1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="GU1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="GV1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="GW1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="GX1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="GY1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="GZ1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="HA1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="HB1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="HC1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="HD1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="HE1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="HF1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="HG1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="HH1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HI1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="HJ1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="HK1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="HL1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="HM1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HN1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HP1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="HQ1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="HR1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="HS1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="HT1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="HU1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="HV1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="HW1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="HX1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="HY1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="HZ1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="IA1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="IB1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="IC1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="ID1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="IE1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="IF1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="IG1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="IH1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="II1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="IJ1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IK1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="IL1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="IM1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="IN1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IO1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IP1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IQ1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IR1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="IS1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="IT1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="IU1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="IV1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="IW1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="IX1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="IY1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:259" x14ac:dyDescent="0.25">
@@ -5104,94 +5119,94 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AD2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AE2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AG2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="s">
         <v>7</v>
@@ -5206,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="AO2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
         <v>7</v>
@@ -5215,28 +5230,28 @@
         <v>7</v>
       </c>
       <c r="AR2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AS2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AT2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX2" t="s">
         <v>10</v>
       </c>
       <c r="AY2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="s">
         <v>10</v>
@@ -5245,28 +5260,28 @@
         <v>10</v>
       </c>
       <c r="BB2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BC2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BD2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BE2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BF2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BG2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BH2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BI2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BJ2" t="s">
         <v>7</v>
@@ -5278,127 +5293,127 @@
         <v>7</v>
       </c>
       <c r="BM2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="BN2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="BO2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BP2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BQ2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BR2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BS2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BT2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BU2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BV2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BW2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BX2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="BY2" t="s">
         <v>10</v>
       </c>
       <c r="BZ2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CA2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CB2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="CC2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CD2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CE2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CF2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CG2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CH2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CI2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CJ2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CK2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CL2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="CM2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CN2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="CO2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CP2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CQ2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CR2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CS2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CT2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="CU2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CV2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CW2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CX2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="CY2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CZ2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="DA2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="DB2" t="s">
         <v>10</v>
@@ -5410,49 +5425,49 @@
         <v>10</v>
       </c>
       <c r="DE2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DF2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DG2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DH2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DI2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DJ2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DK2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DL2" t="s">
         <v>10</v>
       </c>
       <c r="DM2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="DN2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="DO2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DP2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="DQ2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="DR2" t="s">
         <v>10</v>
       </c>
       <c r="DS2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DT2" t="s">
         <v>7</v>
@@ -5467,55 +5482,55 @@
         <v>7</v>
       </c>
       <c r="DX2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="DY2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="DZ2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EA2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="EB2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EC2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="ED2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EE2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EF2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EG2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EH2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EI2" t="s">
         <v>7</v>
       </c>
       <c r="EJ2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EK2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EL2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EM2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EN2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EO2" t="s">
         <v>7</v>
@@ -5527,340 +5542,340 @@
         <v>7</v>
       </c>
       <c r="ER2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="ES2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="ET2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="EU2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="EV2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="EW2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="EX2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="EY2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="EZ2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="FA2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="FB2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="FC2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="FD2" t="s">
         <v>7</v>
       </c>
       <c r="FE2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FF2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FG2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FH2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FI2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FJ2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FK2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="FL2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="FM2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="FN2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FO2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FP2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FQ2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="FR2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FS2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FT2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FU2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FV2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="FW2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="FX2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="FY2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="FZ2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="GA2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="GB2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="GC2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="GD2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="GE2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="GF2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="GG2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="GH2" t="s">
         <v>16</v>
       </c>
       <c r="GI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>22</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>48</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>48</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>48</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>43</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>265</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>265</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>268</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>56</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>27</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>27</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>193</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>93</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>73</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>286</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HI2" t="s">
         <v>32</v>
       </c>
-      <c r="GJ2" t="s">
-        <v>51</v>
-      </c>
-      <c r="GK2" t="s">
+      <c r="HJ2" t="s">
+        <v>48</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>162</v>
+      </c>
+      <c r="HM2" t="s">
         <v>20</v>
       </c>
-      <c r="GL2" t="s">
-        <v>46</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>46</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>46</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>266</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>54</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>54</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>25</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>25</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>191</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>91</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>284</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>41</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>41</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>160</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>18</v>
-      </c>
       <c r="HN2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HO2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HP2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HQ2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="HR2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="HS2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="HT2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="HU2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="HV2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="HW2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="HX2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HY2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="HZ2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="IA2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="IB2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="IC2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="ID2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IE2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IF2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="IG2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="IH2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="II2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="IJ2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="IK2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="IL2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="IM2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="IN2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IO2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IP2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IQ2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IR2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IS2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IT2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IU2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="IV2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IW2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IX2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="IY2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:259" x14ac:dyDescent="0.25">
@@ -5889,13 +5904,13 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -5919,22 +5934,22 @@
         <v>14</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
         <v>12</v>
@@ -5952,13 +5967,13 @@
         <v>12</v>
       </c>
       <c r="AD3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="s">
         <v>8</v>
       </c>
       <c r="AF3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s">
         <v>8</v>
@@ -5970,28 +5985,28 @@
         <v>12</v>
       </c>
       <c r="AJ3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="s">
         <v>14</v>
       </c>
       <c r="AM3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AP3" t="s">
         <v>8</v>
       </c>
       <c r="AQ3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AR3" t="s">
         <v>8</v>
@@ -6009,7 +6024,7 @@
         <v>14</v>
       </c>
       <c r="AW3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AX3" t="s">
         <v>14</v>
@@ -6024,7 +6039,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BC3" t="s">
         <v>8</v>
@@ -6036,13 +6051,13 @@
         <v>14</v>
       </c>
       <c r="BF3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BG3" t="s">
         <v>12</v>
       </c>
       <c r="BH3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BI3" t="s">
         <v>8</v>
@@ -6054,10 +6069,10 @@
         <v>12</v>
       </c>
       <c r="BL3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BM3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BN3" t="s">
         <v>8</v>
@@ -6066,25 +6081,25 @@
         <v>12</v>
       </c>
       <c r="BP3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BQ3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BR3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BS3" t="s">
         <v>14</v>
       </c>
       <c r="BT3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="BU3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="BV3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BW3" t="s">
         <v>8</v>
@@ -6093,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="BY3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BZ3" t="s">
         <v>12</v>
       </c>
       <c r="CA3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="CB3" t="s">
         <v>8</v>
@@ -6111,16 +6126,16 @@
         <v>8</v>
       </c>
       <c r="CE3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="CF3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CG3" t="s">
         <v>14</v>
       </c>
       <c r="CH3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="CI3" t="s">
         <v>8</v>
@@ -6141,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="CO3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="CP3" t="s">
         <v>8</v>
@@ -6177,7 +6192,7 @@
         <v>14</v>
       </c>
       <c r="DA3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DB3" t="s">
         <v>8</v>
@@ -6186,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="DD3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="DE3" t="s">
         <v>14</v>
@@ -6195,25 +6210,25 @@
         <v>8</v>
       </c>
       <c r="DG3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DH3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DI3" t="s">
         <v>14</v>
       </c>
       <c r="DJ3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="DK3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="DL3" t="s">
         <v>14</v>
       </c>
       <c r="DM3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="DN3" t="s">
         <v>8</v>
@@ -6240,10 +6255,10 @@
         <v>14</v>
       </c>
       <c r="DV3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="DW3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DX3" t="s">
         <v>12</v>
@@ -6255,19 +6270,19 @@
         <v>8</v>
       </c>
       <c r="EA3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="EB3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EC3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="ED3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EE3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="EF3" t="s">
         <v>14</v>
@@ -6276,28 +6291,28 @@
         <v>8</v>
       </c>
       <c r="EH3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="EI3" t="s">
         <v>14</v>
       </c>
       <c r="EJ3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EK3" t="s">
         <v>12</v>
       </c>
       <c r="EL3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="EM3" t="s">
         <v>8</v>
       </c>
       <c r="EN3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="EO3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EP3" t="s">
         <v>8</v>
@@ -6321,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="EW3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="EX3" t="s">
         <v>8</v>
@@ -6342,7 +6357,7 @@
         <v>8</v>
       </c>
       <c r="FD3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="FE3" t="s">
         <v>8</v>
@@ -6351,13 +6366,13 @@
         <v>8</v>
       </c>
       <c r="FG3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="FH3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="FI3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="FJ3" t="s">
         <v>8</v>
@@ -6375,22 +6390,22 @@
         <v>8</v>
       </c>
       <c r="FO3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="FP3" t="s">
         <v>14</v>
       </c>
       <c r="FQ3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="FR3" t="s">
         <v>8</v>
       </c>
       <c r="FS3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="FT3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="FU3" t="s">
         <v>8</v>
@@ -6420,10 +6435,10 @@
         <v>8</v>
       </c>
       <c r="GD3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="GE3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="GF3" t="s">
         <v>8</v>
@@ -6447,13 +6462,13 @@
         <v>8</v>
       </c>
       <c r="GM3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="GN3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GO3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="GP3" t="s">
         <v>8</v>
@@ -6462,7 +6477,7 @@
         <v>12</v>
       </c>
       <c r="GR3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="GS3" t="s">
         <v>8</v>
@@ -6471,10 +6486,10 @@
         <v>14</v>
       </c>
       <c r="GU3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="GV3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="GW3" t="s">
         <v>12</v>
@@ -6495,46 +6510,46 @@
         <v>14</v>
       </c>
       <c r="HC3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="HD3" t="s">
         <v>8</v>
       </c>
       <c r="HE3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HF3" t="s">
         <v>12</v>
       </c>
       <c r="HG3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="HH3" t="s">
         <v>8</v>
       </c>
       <c r="HI3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="HJ3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HK3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HL3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HM3" t="s">
         <v>8</v>
       </c>
       <c r="HN3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HO3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="HP3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="HQ3" t="s">
         <v>8</v>
@@ -6543,7 +6558,7 @@
         <v>8</v>
       </c>
       <c r="HS3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="HT3" t="s">
         <v>8</v>
@@ -6552,7 +6567,7 @@
         <v>12</v>
       </c>
       <c r="HV3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="HW3" t="s">
         <v>8</v>
@@ -6570,10 +6585,10 @@
         <v>8</v>
       </c>
       <c r="IB3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="IC3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="ID3" t="s">
         <v>14</v>
@@ -6597,133 +6612,136 @@
         <v>8</v>
       </c>
       <c r="IK3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="IL3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="IM3" t="s">
         <v>14</v>
       </c>
       <c r="IN3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="IO3" t="s">
         <v>8</v>
       </c>
       <c r="IP3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="IQ3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="IR3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="IS3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="IT3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="IU3" t="s">
         <v>14</v>
       </c>
       <c r="IV3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="IW3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="IX3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="IY3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>329</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
       </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BK4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BL4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="EI4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="HB4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="36:210" x14ac:dyDescent="0.25">
       <c r="AJ5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BK5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BL5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="EI5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="HB5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="36:210" x14ac:dyDescent="0.25">
       <c r="AJ6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BK6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="EI6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="HB6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="36:210" x14ac:dyDescent="0.25">
       <c r="AJ7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BB7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="EI7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="HB7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="36:36" x14ac:dyDescent="0.25">
       <c r="AJ9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
